--- a/data/trans_orig/P1002-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P1002-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5098E467-27F5-4064-8DC9-89400CC985BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{0BB80501-3F15-4540-B26D-814A1242D111}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{DAE88920-6ADD-4C16-B277-3ABDE8A3C11F}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{CA1C5E32-FD8D-4F66-A484-64651A2BE425}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -80,25 +80,25 @@
     <t>0,87%</t>
   </si>
   <si>
-    <t>7,56%</t>
+    <t>7,17%</t>
   </si>
   <si>
     <t>6,46%</t>
   </si>
   <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
   </si>
   <si>
     <t>4,64%</t>
   </si>
   <si>
-    <t>2,51%</t>
-  </si>
-  <si>
-    <t>7,73%</t>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>7,79%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,7 +107,7 @@
     <t>97,13%</t>
   </si>
   <si>
-    <t>92,44%</t>
+    <t>92,83%</t>
   </si>
   <si>
     <t>99,13%</t>
@@ -116,19 +116,19 @@
     <t>93,54%</t>
   </si>
   <si>
-    <t>88,54%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
+    <t>87,57%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
   </si>
   <si>
     <t>95,36%</t>
   </si>
   <si>
-    <t>92,27%</t>
-  </si>
-  <si>
-    <t>97,49%</t>
+    <t>92,21%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,55 +140,55 @@
     <t>4,07%</t>
   </si>
   <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
+    <t>2,7%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
   </si>
   <si>
     <t>4,93%</t>
   </si>
   <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
+    <t>3,43%</t>
+  </si>
+  <si>
+    <t>7,23%</t>
   </si>
   <si>
     <t>4,5%</t>
   </si>
   <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
+    <t>3,32%</t>
+  </si>
+  <si>
+    <t>5,79%</t>
   </si>
   <si>
     <t>95,93%</t>
   </si>
   <si>
-    <t>94,17%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
+    <t>94,19%</t>
+  </si>
+  <si>
+    <t>97,3%</t>
   </si>
   <si>
     <t>95,07%</t>
   </si>
   <si>
-    <t>93,06%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
+    <t>92,77%</t>
+  </si>
+  <si>
+    <t>96,57%</t>
   </si>
   <si>
     <t>95,5%</t>
   </si>
   <si>
-    <t>94,19%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
+    <t>94,21%</t>
+  </si>
+  <si>
+    <t>96,68%</t>
   </si>
   <si>
     <t>10/50</t>
@@ -197,217 +197,205 @@
     <t>5,25%</t>
   </si>
   <si>
+    <t>3,99%</t>
+  </si>
+  <si>
+    <t>6,86%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>9,3%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>5,13%</t>
+  </si>
+  <si>
+    <t>7,38%</t>
+  </si>
+  <si>
+    <t>94,75%</t>
+  </si>
+  <si>
+    <t>93,14%</t>
+  </si>
+  <si>
+    <t>96,01%</t>
+  </si>
+  <si>
+    <t>92,7%</t>
+  </si>
+  <si>
+    <t>90,7%</t>
+  </si>
+  <si>
+    <t>94,28%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>92,62%</t>
+  </si>
+  <si>
+    <t>94,87%</t>
+  </si>
+  <si>
+    <t>mas de 50</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>15,15%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>10,95%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>91,61%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>87,77%</t>
+  </si>
+  <si>
+    <t>84,85%</t>
+  </si>
+  <si>
+    <t>90,02%</t>
+  </si>
+  <si>
+    <t>90,69%</t>
+  </si>
+  <si>
+    <t>89,05%</t>
+  </si>
+  <si>
+    <t>92,12%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
     <t>3,97%</t>
   </si>
   <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>94,75%</t>
-  </si>
-  <si>
-    <t>93,12%</t>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>11,27%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>6,31%</t>
+  </si>
+  <si>
+    <t>8,65%</t>
+  </si>
+  <si>
+    <t>94,69%</t>
+  </si>
+  <si>
+    <t>93,15%</t>
   </si>
   <si>
     <t>96,03%</t>
   </si>
   <si>
-    <t>92,7%</t>
-  </si>
-  <si>
-    <t>90,87%</t>
-  </si>
-  <si>
-    <t>94,34%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
-  </si>
-  <si>
-    <t>92,6%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>91,49%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
-  </si>
-  <si>
-    <t>87,77%</t>
-  </si>
-  <si>
-    <t>85,2%</t>
-  </si>
-  <si>
-    <t>90,05%</t>
-  </si>
-  <si>
-    <t>90,69%</t>
-  </si>
-  <si>
-    <t>89,06%</t>
-  </si>
-  <si>
-    <t>92,14%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>94,69%</t>
-  </si>
-  <si>
-    <t>93,0%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
     <t>90,67%</t>
   </si>
   <si>
-    <t>88,78%</t>
-  </si>
-  <si>
-    <t>92,35%</t>
+    <t>88,73%</t>
   </si>
   <si>
     <t>92,58%</t>
   </si>
   <si>
-    <t>91,29%</t>
-  </si>
-  <si>
-    <t>93,68%</t>
+    <t>91,35%</t>
+  </si>
+  <si>
+    <t>93,69%</t>
   </si>
   <si>
     <t>5,2%</t>
   </si>
   <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
+    <t>5,98%</t>
   </si>
   <si>
     <t>8,49%</t>
   </si>
   <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
   </si>
   <si>
     <t>6,87%</t>
   </si>
   <si>
-    <t>7,57%</t>
+    <t>7,53%</t>
   </si>
   <si>
     <t>94,8%</t>
   </si>
   <si>
-    <t>93,93%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
+    <t>94,02%</t>
   </si>
   <si>
     <t>91,51%</t>
   </si>
   <si>
-    <t>90,53%</t>
-  </si>
-  <si>
-    <t>92,41%</t>
+    <t>90,47%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
   </si>
   <si>
     <t>93,13%</t>
   </si>
   <si>
-    <t>92,43%</t>
+    <t>92,47%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
@@ -419,865 +407,877 @@
     <t>7,16%</t>
   </si>
   <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
   </si>
   <si>
     <t>13,72%</t>
   </si>
   <si>
+    <t>7,99%</t>
+  </si>
+  <si>
+    <t>21,6%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>92,84%</t>
+  </si>
+  <si>
+    <t>87,33%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>86,28%</t>
+  </si>
+  <si>
+    <t>78,4%</t>
+  </si>
+  <si>
+    <t>92,01%</t>
+  </si>
+  <si>
+    <t>89,61%</t>
+  </si>
+  <si>
+    <t>85,32%</t>
+  </si>
+  <si>
+    <t>93,33%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>12,18%</t>
+  </si>
+  <si>
+    <t>18,29%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>8,89%</t>
+  </si>
+  <si>
+    <t>12,58%</t>
+  </si>
+  <si>
+    <t>91,09%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>85,03%</t>
+  </si>
+  <si>
+    <t>81,71%</t>
+  </si>
+  <si>
+    <t>87,82%</t>
+  </si>
+  <si>
+    <t>89,34%</t>
+  </si>
+  <si>
+    <t>87,42%</t>
+  </si>
+  <si>
+    <t>91,11%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>5,77%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>12,55%</t>
+  </si>
+  <si>
+    <t>17,16%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>9,62%</t>
+  </si>
+  <si>
+    <t>12,52%</t>
+  </si>
+  <si>
+    <t>92,63%</t>
+  </si>
+  <si>
+    <t>94,23%</t>
+  </si>
+  <si>
+    <t>85,44%</t>
+  </si>
+  <si>
+    <t>82,84%</t>
+  </si>
+  <si>
+    <t>87,45%</t>
+  </si>
+  <si>
+    <t>89,01%</t>
+  </si>
+  <si>
+    <t>87,48%</t>
+  </si>
+  <si>
+    <t>90,38%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>10,83%</t>
+  </si>
+  <si>
+    <t>15,7%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>7,98%</t>
+  </si>
+  <si>
+    <t>11,21%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
+  </si>
+  <si>
+    <t>92,0%</t>
+  </si>
+  <si>
+    <t>86,97%</t>
+  </si>
+  <si>
+    <t>84,3%</t>
+  </si>
+  <si>
+    <t>89,17%</t>
+  </si>
+  <si>
+    <t>90,59%</t>
+  </si>
+  <si>
+    <t>88,79%</t>
+  </si>
+  <si>
+    <t>92,02%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>5,24%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>15,53%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>9,05%</t>
+  </si>
+  <si>
+    <t>11,75%</t>
+  </si>
+  <si>
+    <t>92,96%</t>
+  </si>
+  <si>
+    <t>91,24%</t>
+  </si>
+  <si>
+    <t>94,76%</t>
+  </si>
+  <si>
+    <t>86,5%</t>
+  </si>
+  <si>
+    <t>84,47%</t>
+  </si>
+  <si>
+    <t>88,62%</t>
+  </si>
+  <si>
+    <t>89,56%</t>
+  </si>
+  <si>
+    <t>88,25%</t>
+  </si>
+  <si>
+    <t>90,95%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>5,86%</t>
+  </si>
+  <si>
+    <t>7,7%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>12,77%</t>
+  </si>
+  <si>
+    <t>15,16%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>11,2%</t>
+  </si>
+  <si>
+    <t>93,27%</t>
+  </si>
+  <si>
+    <t>92,3%</t>
+  </si>
+  <si>
+    <t>94,14%</t>
+  </si>
+  <si>
+    <t>86,05%</t>
+  </si>
+  <si>
+    <t>84,84%</t>
+  </si>
+  <si>
+    <t>87,23%</t>
+  </si>
+  <si>
+    <t>89,59%</t>
+  </si>
+  <si>
+    <t>88,8%</t>
+  </si>
+  <si>
+    <t>90,29%</t>
+  </si>
+  <si>
+    <t>Población que dejo de hacer algunas tareas por problemas emocionales en 2015 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>6,63%</t>
+  </si>
+  <si>
+    <t>19,04%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>92,73%</t>
+  </si>
+  <si>
+    <t>86,54%</t>
+  </si>
+  <si>
+    <t>88,05%</t>
+  </si>
+  <si>
+    <t>80,96%</t>
+  </si>
+  <si>
+    <t>93,37%</t>
+  </si>
+  <si>
+    <t>90,42%</t>
+  </si>
+  <si>
+    <t>85,88%</t>
+  </si>
+  <si>
+    <t>94,06%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>13,89%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>6,93%</t>
+  </si>
+  <si>
+    <t>10,29%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>96,04%</t>
+  </si>
+  <si>
+    <t>88,82%</t>
+  </si>
+  <si>
+    <t>86,11%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
+  </si>
+  <si>
+    <t>91,52%</t>
+  </si>
+  <si>
+    <t>89,71%</t>
+  </si>
+  <si>
+    <t>93,07%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>2,76%</t>
+  </si>
+  <si>
+    <t>5,23%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>12,88%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>6,06%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>94,77%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>89,35%</t>
+  </si>
+  <si>
+    <t>87,12%</t>
+  </si>
+  <si>
+    <t>91,21%</t>
+  </si>
+  <si>
+    <t>92,69%</t>
+  </si>
+  <si>
+    <t>91,46%</t>
+  </si>
+  <si>
+    <t>93,94%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>6,89%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>9,17%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>9,69%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>93,11%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>88,7%</t>
+  </si>
+  <si>
+    <t>90,83%</t>
+  </si>
+  <si>
+    <t>91,85%</t>
+  </si>
+  <si>
+    <t>90,31%</t>
+  </si>
+  <si>
+    <t>93,25%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>8,6%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
     <t>7,95%</t>
   </si>
   <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
+    <t>12,07%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
+  </si>
+  <si>
+    <t>91,4%</t>
+  </si>
+  <si>
+    <t>90,2%</t>
+  </si>
+  <si>
+    <t>87,93%</t>
+  </si>
+  <si>
+    <t>92,05%</t>
+  </si>
+  <si>
+    <t>91,63%</t>
+  </si>
+  <si>
+    <t>92,8%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>8,72%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>93,82%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>89,33%</t>
+  </si>
+  <si>
+    <t>88,22%</t>
+  </si>
+  <si>
+    <t>91,94%</t>
+  </si>
+  <si>
+    <t>91,28%</t>
+  </si>
+  <si>
+    <t>92,55%</t>
+  </si>
+  <si>
+    <t>Población que dejo de hacer algunas tareas por problemas emocionales en 2023 (Tasa respuesta: 99,9%)</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>89,08%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>90,44%</t>
+  </si>
+  <si>
+    <t>93,56%</t>
+  </si>
+  <si>
+    <t>92,31%</t>
+  </si>
+  <si>
+    <t>89,23%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
   </si>
   <si>
     <t>6,48%</t>
   </si>
   <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>92,84%</t>
-  </si>
-  <si>
-    <t>87,73%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>86,28%</t>
-  </si>
-  <si>
-    <t>79,22%</t>
-  </si>
-  <si>
-    <t>92,05%</t>
-  </si>
-  <si>
-    <t>89,61%</t>
-  </si>
-  <si>
-    <t>85,53%</t>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
+  </si>
+  <si>
+    <t>92,06%</t>
+  </si>
+  <si>
+    <t>96,05%</t>
+  </si>
+  <si>
+    <t>90,22%</t>
+  </si>
+  <si>
+    <t>88,14%</t>
+  </si>
+  <si>
+    <t>92,23%</t>
+  </si>
+  <si>
+    <t>90,88%</t>
   </si>
   <si>
     <t>93,52%</t>
   </si>
   <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>91,18%</t>
-  </si>
-  <si>
-    <t>85,03%</t>
-  </si>
-  <si>
-    <t>81,9%</t>
-  </si>
-  <si>
-    <t>87,94%</t>
-  </si>
-  <si>
-    <t>89,34%</t>
-  </si>
-  <si>
-    <t>87,34%</t>
-  </si>
-  <si>
-    <t>90,99%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>92,63%</t>
-  </si>
-  <si>
-    <t>90,85%</t>
-  </si>
-  <si>
-    <t>85,44%</t>
-  </si>
-  <si>
-    <t>83,06%</t>
-  </si>
-  <si>
-    <t>87,56%</t>
-  </si>
-  <si>
-    <t>89,01%</t>
-  </si>
-  <si>
-    <t>87,67%</t>
-  </si>
-  <si>
-    <t>90,46%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>94,29%</t>
-  </si>
-  <si>
-    <t>92,04%</t>
-  </si>
-  <si>
-    <t>95,8%</t>
-  </si>
-  <si>
-    <t>86,97%</t>
-  </si>
-  <si>
-    <t>84,36%</t>
-  </si>
-  <si>
-    <t>89,26%</t>
-  </si>
-  <si>
-    <t>90,59%</t>
-  </si>
-  <si>
-    <t>88,94%</t>
-  </si>
-  <si>
-    <t>91,98%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>92,96%</t>
-  </si>
-  <si>
-    <t>91,08%</t>
-  </si>
-  <si>
-    <t>94,64%</t>
-  </si>
-  <si>
-    <t>86,5%</t>
-  </si>
-  <si>
-    <t>84,13%</t>
-  </si>
-  <si>
-    <t>88,47%</t>
-  </si>
-  <si>
-    <t>89,56%</t>
-  </si>
-  <si>
-    <t>88,13%</t>
-  </si>
-  <si>
-    <t>91,03%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>93,27%</t>
-  </si>
-  <si>
-    <t>94,06%</t>
-  </si>
-  <si>
-    <t>86,05%</t>
-  </si>
-  <si>
-    <t>84,87%</t>
-  </si>
-  <si>
-    <t>87,11%</t>
-  </si>
-  <si>
-    <t>89,59%</t>
-  </si>
-  <si>
-    <t>88,82%</t>
-  </si>
-  <si>
-    <t>90,29%</t>
-  </si>
-  <si>
-    <t>Población que dejo de hacer algunas tareas por problemas emocionales en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>92,73%</t>
-  </si>
-  <si>
-    <t>86,8%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>88,05%</t>
-  </si>
-  <si>
-    <t>80,02%</t>
-  </si>
-  <si>
-    <t>93,78%</t>
-  </si>
-  <si>
-    <t>90,42%</t>
-  </si>
-  <si>
-    <t>85,89%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>91,95%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>91,22%</t>
-  </si>
-  <si>
-    <t>91,52%</t>
-  </si>
-  <si>
-    <t>89,75%</t>
-  </si>
-  <si>
-    <t>93,02%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>89,35%</t>
-  </si>
-  <si>
-    <t>87,39%</t>
-  </si>
-  <si>
-    <t>91,38%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>93,1%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>88,7%</t>
-  </si>
-  <si>
-    <t>86,08%</t>
-  </si>
-  <si>
-    <t>90,81%</t>
-  </si>
-  <si>
-    <t>91,85%</t>
-  </si>
-  <si>
-    <t>90,39%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>93,23%</t>
-  </si>
-  <si>
-    <t>91,21%</t>
-  </si>
-  <si>
-    <t>94,81%</t>
-  </si>
-  <si>
-    <t>90,2%</t>
-  </si>
-  <si>
-    <t>88,02%</t>
-  </si>
-  <si>
-    <t>91,91%</t>
-  </si>
-  <si>
-    <t>91,63%</t>
-  </si>
-  <si>
-    <t>92,83%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>93,79%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>89,33%</t>
-  </si>
-  <si>
-    <t>88,16%</t>
-  </si>
-  <si>
-    <t>90,47%</t>
-  </si>
-  <si>
-    <t>91,94%</t>
-  </si>
-  <si>
-    <t>91,25%</t>
-  </si>
-  <si>
-    <t>Población que dejo de hacer algunas tareas por problemas emocionales en 2023 (Tasa respuesta: 99,9%)</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>87,96%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>90,44%</t>
-  </si>
-  <si>
-    <t>85,98%</t>
-  </si>
-  <si>
-    <t>93,53%</t>
-  </si>
-  <si>
-    <t>92,31%</t>
-  </si>
-  <si>
-    <t>88,99%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>94,41%</t>
-  </si>
-  <si>
-    <t>91,97%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>90,22%</t>
-  </si>
-  <si>
-    <t>88,04%</t>
-  </si>
-  <si>
-    <t>92,23%</t>
-  </si>
-  <si>
-    <t>90,57%</t>
-  </si>
-  <si>
-    <t>93,48%</t>
-  </si>
-  <si>
     <t>5,26%</t>
   </si>
   <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
   </si>
   <si>
     <t>7,85%</t>
   </si>
   <si>
-    <t>6,59%</t>
+    <t>9,04%</t>
   </si>
   <si>
     <t>94,74%</t>
   </si>
   <si>
-    <t>93,22%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
+    <t>92,95%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
+  </si>
+  <si>
+    <t>87,89%</t>
   </si>
   <si>
     <t>92,15%</t>
   </si>
   <si>
-    <t>93,41%</t>
+    <t>90,96%</t>
   </si>
   <si>
     <t>7,89%</t>
   </si>
   <si>
-    <t>6,02%</t>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>10,33%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>6,66%</t>
+  </si>
+  <si>
+    <t>12,62%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>7,26%</t>
+  </si>
+  <si>
+    <t>10,91%</t>
+  </si>
+  <si>
+    <t>92,11%</t>
+  </si>
+  <si>
+    <t>89,67%</t>
+  </si>
+  <si>
+    <t>94,0%</t>
+  </si>
+  <si>
+    <t>89,9%</t>
+  </si>
+  <si>
+    <t>87,38%</t>
+  </si>
+  <si>
+    <t>93,34%</t>
+  </si>
+  <si>
+    <t>90,9%</t>
+  </si>
+  <si>
+    <t>89,09%</t>
+  </si>
+  <si>
+    <t>92,74%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>4,02%</t>
+  </si>
+  <si>
+    <t>6,84%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>14,69%</t>
+  </si>
+  <si>
+    <t>7,93%</t>
   </si>
   <si>
     <t>10,49%</t>
   </si>
   <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>92,11%</t>
+    <t>94,71%</t>
+  </si>
+  <si>
+    <t>93,16%</t>
+  </si>
+  <si>
+    <t>95,98%</t>
+  </si>
+  <si>
+    <t>87,71%</t>
+  </si>
+  <si>
+    <t>85,31%</t>
+  </si>
+  <si>
+    <t>89,44%</t>
   </si>
   <si>
     <t>89,51%</t>
   </si>
   <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>89,9%</t>
-  </si>
-  <si>
-    <t>87,33%</t>
-  </si>
-  <si>
-    <t>93,09%</t>
-  </si>
-  <si>
-    <t>90,9%</t>
-  </si>
-  <si>
-    <t>89,15%</t>
-  </si>
-  <si>
-    <t>92,89%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
-  </si>
-  <si>
-    <t>93,15%</t>
-  </si>
-  <si>
-    <t>95,94%</t>
-  </si>
-  <si>
-    <t>87,71%</t>
-  </si>
-  <si>
-    <t>85,37%</t>
-  </si>
-  <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>89,63%</t>
-  </si>
-  <si>
-    <t>92,0%</t>
+    <t>92,07%</t>
   </si>
   <si>
     <t>5,89%</t>
   </si>
   <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
+    <t>5,07%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
   </si>
   <si>
     <t>10,78%</t>
   </si>
   <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
+    <t>9,6%</t>
+  </si>
+  <si>
+    <t>11,85%</t>
+  </si>
+  <si>
+    <t>7,82%</t>
+  </si>
+  <si>
+    <t>9,23%</t>
   </si>
   <si>
     <t>94,11%</t>
   </si>
   <si>
-    <t>93,2%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
+    <t>93,26%</t>
+  </si>
+  <si>
+    <t>94,93%</t>
   </si>
   <si>
     <t>89,22%</t>
   </si>
   <si>
-    <t>90,41%</t>
-  </si>
-  <si>
-    <t>90,84%</t>
-  </si>
-  <si>
-    <t>92,26%</t>
+    <t>88,15%</t>
+  </si>
+  <si>
+    <t>90,4%</t>
+  </si>
+  <si>
+    <t>90,77%</t>
+  </si>
+  <si>
+    <t>92,18%</t>
   </si>
 </sst>
 </file>
@@ -1689,7 +1689,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3EE3E38-D77E-43D5-B2A4-712A1C30AA56}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17DBC3E4-7A00-4070-BBD8-2463B68BD58E}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2451,10 +2451,10 @@
         <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>144</v>
@@ -2463,13 +2463,13 @@
         <v>146896</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>95</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2484,13 +2484,13 @@
         <v>892207</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="G17" s="7" t="s">
         <v>99</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>903</v>
@@ -2499,13 +2499,13 @@
         <v>941731</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K17" s="7" t="s">
-        <v>102</v>
-      </c>
       <c r="L17" s="7" t="s">
-        <v>103</v>
+        <v>28</v>
       </c>
       <c r="M17" s="7">
         <v>1847</v>
@@ -2514,13 +2514,13 @@
         <v>1833938</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>104</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2588,13 +2588,13 @@
         <v>170534</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>108</v>
+        <v>38</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="H19" s="7">
         <v>277</v>
@@ -2603,13 +2603,13 @@
         <v>286810</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="M19" s="7">
         <v>445</v>
@@ -2618,13 +2618,13 @@
         <v>457343</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>57</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2639,13 +2639,13 @@
         <v>3106010</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>117</v>
+        <v>47</v>
       </c>
       <c r="H20" s="7">
         <v>3020</v>
@@ -2654,25 +2654,25 @@
         <v>3092388</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="M20" s="7">
         <v>6066</v>
       </c>
       <c r="N20" s="7">
-        <v>6198397</v>
+        <v>6198398</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>66</v>
@@ -2717,7 +2717,7 @@
         <v>6511</v>
       </c>
       <c r="N21" s="7">
-        <v>6655740</v>
+        <v>6655741</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -2731,7 +2731,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -2752,7 +2752,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AD4470F-8083-4796-B018-F7F35EC7355E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DC77FDD-E5D0-4B52-9732-591C4364B6ED}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2769,7 +2769,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2876,13 +2876,13 @@
         <v>8290</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>127</v>
+        <v>123</v>
       </c>
       <c r="H4" s="7">
         <v>14</v>
@@ -2891,13 +2891,13 @@
         <v>15357</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>130</v>
+        <v>126</v>
       </c>
       <c r="M4" s="7">
         <v>24</v>
@@ -2906,13 +2906,13 @@
         <v>23647</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2927,13 +2927,13 @@
         <v>107475</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>135</v>
+        <v>131</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="H5" s="7">
         <v>85</v>
@@ -2942,13 +2942,13 @@
         <v>96548</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="M5" s="7">
         <v>197</v>
@@ -2957,13 +2957,13 @@
         <v>204023</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>141</v>
+        <v>137</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3034,10 +3034,10 @@
         <v>70</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>108</v>
+        <v>139</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="H7" s="7">
         <v>84</v>
@@ -3046,13 +3046,13 @@
         <v>87608</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
       <c r="M7" s="7">
         <v>118</v>
@@ -3061,13 +3061,13 @@
         <v>124999</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3085,10 +3085,10 @@
         <v>79</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>117</v>
+        <v>148</v>
       </c>
       <c r="H8" s="7">
         <v>467</v>
@@ -3097,13 +3097,13 @@
         <v>497537</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>151</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>152</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>153</v>
       </c>
       <c r="M8" s="7">
         <v>985</v>
@@ -3112,13 +3112,13 @@
         <v>1047850</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>154</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>155</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3186,13 +3186,13 @@
         <v>74959</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>40</v>
+        <v>156</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>158</v>
+        <v>76</v>
       </c>
       <c r="H10" s="7">
         <v>136</v>
@@ -3201,13 +3201,13 @@
         <v>150255</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>157</v>
+      </c>
+      <c r="K10" s="7" t="s">
+        <v>158</v>
+      </c>
+      <c r="L10" s="7" t="s">
         <v>159</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>161</v>
       </c>
       <c r="M10" s="7">
         <v>204</v>
@@ -3216,13 +3216,13 @@
         <v>225215</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>160</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>162</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>163</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3237,13 +3237,13 @@
         <v>941934</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>166</v>
+        <v>85</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>48</v>
+        <v>164</v>
       </c>
       <c r="H11" s="7">
         <v>804</v>
@@ -3252,28 +3252,28 @@
         <v>881929</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>165</v>
+      </c>
+      <c r="K11" s="7" t="s">
+        <v>166</v>
+      </c>
+      <c r="L11" s="7" t="s">
         <v>167</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>168</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>169</v>
       </c>
       <c r="M11" s="7">
         <v>1671</v>
       </c>
       <c r="N11" s="7">
-        <v>1823862</v>
+        <v>1823863</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>168</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>170</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3315,7 +3315,7 @@
         <v>1875</v>
       </c>
       <c r="N12" s="7">
-        <v>2049077</v>
+        <v>2049078</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3341,13 +3341,13 @@
         <v>43270</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>174</v>
+        <v>52</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="H13" s="7">
         <v>93</v>
@@ -3356,13 +3356,13 @@
         <v>101091</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>176</v>
+        <v>173</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>177</v>
+        <v>174</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="M13" s="7">
         <v>129</v>
@@ -3371,13 +3371,13 @@
         <v>144361</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>179</v>
+        <v>176</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3392,13 +3392,13 @@
         <v>714353</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>182</v>
+        <v>179</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>183</v>
+        <v>180</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>184</v>
+        <v>62</v>
       </c>
       <c r="H14" s="7">
         <v>611</v>
@@ -3407,13 +3407,13 @@
         <v>675028</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
       <c r="M14" s="7">
         <v>1264</v>
@@ -3422,13 +3422,13 @@
         <v>1389381</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>190</v>
+        <v>186</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3496,13 +3496,13 @@
         <v>66675</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="H16" s="7">
         <v>135</v>
@@ -3511,13 +3511,13 @@
         <v>141898</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="M16" s="7">
         <v>196</v>
@@ -3526,13 +3526,13 @@
         <v>208573</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3547,13 +3547,13 @@
         <v>880127</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="H17" s="7">
         <v>867</v>
@@ -3562,13 +3562,13 @@
         <v>909058</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="M17" s="7">
         <v>1715</v>
@@ -3577,13 +3577,13 @@
         <v>1789185</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3651,13 +3651,13 @@
         <v>230586</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>19</v>
+        <v>207</v>
       </c>
       <c r="H19" s="7">
         <v>462</v>
@@ -3666,13 +3666,13 @@
         <v>496210</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="M19" s="7">
         <v>671</v>
@@ -3681,13 +3681,13 @@
         <v>726796</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3702,13 +3702,13 @@
         <v>3194202</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>28</v>
+        <v>215</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="H20" s="7">
         <v>2834</v>
@@ -3717,13 +3717,13 @@
         <v>3060099</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>217</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>219</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>221</v>
       </c>
       <c r="M20" s="7">
         <v>5832</v>
@@ -3732,13 +3732,13 @@
         <v>6254301</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>220</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>221</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>222</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>224</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3794,7 +3794,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -3815,7 +3815,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{964796FF-ED89-4BE7-91CC-33C41EACCF9F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B751EE4-1A23-4D37-80C3-64CBA90D4987}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3832,7 +3832,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3939,13 +3939,13 @@
         <v>8477</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>227</v>
+        <v>36</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="H4" s="7">
         <v>12</v>
@@ -3954,13 +3954,13 @@
         <v>13550</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="M4" s="7">
         <v>20</v>
@@ -3969,13 +3969,13 @@
         <v>22027</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3990,13 +3990,13 @@
         <v>108069</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>237</v>
+        <v>46</v>
       </c>
       <c r="H5" s="7">
         <v>103</v>
@@ -4005,13 +4005,13 @@
         <v>99810</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="M5" s="7">
         <v>208</v>
@@ -4020,13 +4020,13 @@
         <v>207879</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4094,13 +4094,13 @@
         <v>32248</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>246</v>
+        <v>172</v>
       </c>
       <c r="H7" s="7">
         <v>59</v>
@@ -4109,13 +4109,13 @@
         <v>62544</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>216</v>
+        <v>242</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="M7" s="7">
         <v>90</v>
@@ -4124,13 +4124,13 @@
         <v>94792</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>249</v>
+        <v>246</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4145,13 +4145,13 @@
         <v>526006</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>252</v>
+        <v>180</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="H8" s="7">
         <v>492</v>
@@ -4160,13 +4160,13 @@
         <v>496935</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>223</v>
+        <v>250</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="M8" s="7">
         <v>1000</v>
@@ -4175,13 +4175,13 @@
         <v>1022941</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>253</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>254</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>255</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>256</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>257</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4249,13 +4249,13 @@
         <v>39970</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>256</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>257</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>258</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>107</v>
       </c>
       <c r="H10" s="7">
         <v>98</v>
@@ -4264,13 +4264,13 @@
         <v>111023</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>259</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>260</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>261</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>262</v>
       </c>
       <c r="M10" s="7">
         <v>138</v>
@@ -4279,13 +4279,13 @@
         <v>150992</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>262</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>263</v>
       </c>
-      <c r="P10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>264</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>261</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4303,10 +4303,10 @@
         <v>265</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>115</v>
+        <v>266</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="H11" s="7">
         <v>879</v>
@@ -4315,13 +4315,13 @@
         <v>931890</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M11" s="7">
         <v>1790</v>
@@ -4330,13 +4330,13 @@
         <v>1914352</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4404,13 +4404,13 @@
         <v>37249</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="H13" s="7">
         <v>79</v>
@@ -4419,13 +4419,13 @@
         <v>88679</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>277</v>
+        <v>244</v>
       </c>
       <c r="M13" s="7">
         <v>112</v>
@@ -4434,13 +4434,13 @@
         <v>125929</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>209</v>
+        <v>280</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4455,13 +4455,13 @@
         <v>722303</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="H14" s="7">
         <v>657</v>
@@ -4470,13 +4470,13 @@
         <v>696332</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>284</v>
+        <v>251</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M14" s="7">
         <v>1320</v>
@@ -4485,13 +4485,13 @@
         <v>1418634</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>217</v>
+        <v>289</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4559,13 +4559,13 @@
         <v>63463</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>289</v>
+        <v>51</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="H16" s="7">
         <v>91</v>
@@ -4574,13 +4574,13 @@
         <v>102316</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="M16" s="7">
         <v>152</v>
@@ -4589,13 +4589,13 @@
         <v>165780</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>215</v>
+        <v>161</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4610,13 +4610,13 @@
         <v>874104</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>298</v>
+        <v>60</v>
       </c>
       <c r="H17" s="7">
         <v>868</v>
@@ -4643,7 +4643,7 @@
         <v>302</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>224</v>
+        <v>170</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>303</v>
@@ -4732,10 +4732,10 @@
         <v>307</v>
       </c>
       <c r="K19" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>308</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>309</v>
       </c>
       <c r="M19" s="7">
         <v>512</v>
@@ -4744,10 +4744,10 @@
         <v>559521</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>309</v>
+      </c>
+      <c r="P19" s="7" t="s">
         <v>310</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>95</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>311</v>
@@ -4786,7 +4786,7 @@
         <v>316</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>317</v>
+        <v>170</v>
       </c>
       <c r="M20" s="7">
         <v>6057</v>
@@ -4795,13 +4795,13 @@
         <v>6379371</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>317</v>
+      </c>
+      <c r="P20" s="7" t="s">
         <v>318</v>
       </c>
-      <c r="P20" s="7" t="s">
+      <c r="Q20" s="7" t="s">
         <v>319</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4857,7 +4857,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>
@@ -4878,7 +4878,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC70AC8A-4068-437C-9ADB-4596FB3752FC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EE74779-CF95-48F1-B23A-BF2E094A93B5}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5023,7 +5023,7 @@
         <v>325</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>326</v>
+        <v>225</v>
       </c>
       <c r="M4" s="7">
         <v>32</v>
@@ -5032,13 +5032,13 @@
         <v>17841</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>326</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>327</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>328</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>329</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5053,13 +5053,13 @@
         <v>96579</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>328</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>329</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>330</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>332</v>
       </c>
       <c r="H5" s="7">
         <v>215</v>
@@ -5068,13 +5068,13 @@
         <v>117621</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>334</v>
+        <v>233</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="M5" s="7">
         <v>327</v>
@@ -5083,13 +5083,13 @@
         <v>214200</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>338</v>
+        <v>68</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5157,13 +5157,13 @@
         <v>30745</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="H7" s="7">
         <v>103</v>
@@ -5172,13 +5172,13 @@
         <v>58009</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>292</v>
+        <v>177</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="M7" s="7">
         <v>138</v>
@@ -5187,13 +5187,13 @@
         <v>88754</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5208,13 +5208,13 @@
         <v>519078</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="H8" s="7">
         <v>893</v>
@@ -5223,13 +5223,13 @@
         <v>534953</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>301</v>
+        <v>186</v>
       </c>
       <c r="M8" s="7">
         <v>1470</v>
@@ -5238,13 +5238,13 @@
         <v>1054031</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5312,13 +5312,13 @@
         <v>54677</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="H10" s="7">
         <v>166</v>
@@ -5327,13 +5327,13 @@
         <v>109984</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>323</v>
+        <v>354</v>
       </c>
       <c r="M10" s="7">
         <v>227</v>
@@ -5342,13 +5342,13 @@
         <v>164661</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>359</v>
+        <v>290</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>148</v>
+        <v>356</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5363,13 +5363,13 @@
         <v>984571</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="H11" s="7">
         <v>1349</v>
@@ -5378,13 +5378,13 @@
         <v>948770</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>331</v>
+        <v>360</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="M11" s="7">
         <v>2252</v>
@@ -5393,13 +5393,13 @@
         <v>1933341</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>156</v>
+        <v>362</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>364</v>
+        <v>297</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5467,13 +5467,13 @@
         <v>57521</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>365</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>367</v>
       </c>
       <c r="H13" s="7">
         <v>118</v>
@@ -5482,13 +5482,13 @@
         <v>88346</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>368</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>369</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>370</v>
       </c>
       <c r="M13" s="7">
         <v>171</v>
@@ -5497,13 +5497,13 @@
         <v>145867</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>371</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>372</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>373</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5518,13 +5518,13 @@
         <v>671251</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>374</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>375</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>376</v>
       </c>
       <c r="H14" s="7">
         <v>929</v>
@@ -5533,13 +5533,13 @@
         <v>786025</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>375</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>376</v>
+      </c>
+      <c r="L14" s="7" t="s">
         <v>377</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>378</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>379</v>
       </c>
       <c r="M14" s="7">
         <v>1552</v>
@@ -5548,13 +5548,13 @@
         <v>1457275</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>378</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>379</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>380</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>381</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>382</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5622,13 +5622,13 @@
         <v>50994</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>381</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>382</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>383</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>384</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>385</v>
       </c>
       <c r="H16" s="7">
         <v>193</v>
@@ -5637,13 +5637,13 @@
         <v>141319</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>384</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>385</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>386</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>387</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>388</v>
       </c>
       <c r="M16" s="7">
         <v>254</v>
@@ -5652,13 +5652,13 @@
         <v>192313</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5673,13 +5673,13 @@
         <v>913123</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>389</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>390</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>391</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>392</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>393</v>
       </c>
       <c r="H17" s="7">
         <v>1368</v>
@@ -5688,13 +5688,13 @@
         <v>1008496</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>392</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>393</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>394</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>395</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>396</v>
       </c>
       <c r="M17" s="7">
         <v>2311</v>
@@ -5703,13 +5703,13 @@
         <v>1921619</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5777,13 +5777,13 @@
         <v>199340</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>397</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>399</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>401</v>
       </c>
       <c r="H19" s="7">
         <v>606</v>
@@ -5792,13 +5792,13 @@
         <v>410097</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>400</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>401</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>402</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>403</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>309</v>
       </c>
       <c r="M19" s="7">
         <v>822</v>
@@ -5807,13 +5807,13 @@
         <v>609436</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="P19" s="7" t="s">
+        <v>403</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>404</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>405</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5828,13 +5828,13 @@
         <v>3184602</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>405</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>406</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>407</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>408</v>
       </c>
       <c r="H20" s="7">
         <v>4754</v>
@@ -5843,10 +5843,10 @@
         <v>3395864</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>408</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>409</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>316</v>
       </c>
       <c r="L20" s="7" t="s">
         <v>410</v>
@@ -5858,7 +5858,7 @@
         <v>6580466</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>411</v>
@@ -5920,7 +5920,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1002-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P1002-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0BB80501-3F15-4540-B26D-814A1242D111}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3006ED09-684E-440F-BACF-26F38BE8024D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{CA1C5E32-FD8D-4F66-A484-64651A2BE425}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B6F7914B-28F0-490E-9083-2113799F6D61}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="409">
   <si>
     <t>Población que dejo de hacer algunas tareas por problemas emocionales en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Si</t>
@@ -77,1053 +77,1065 @@
     <t>2,87%</t>
   </si>
   <si>
-    <t>0,87%</t>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>7,67%</t>
+  </si>
+  <si>
+    <t>6,46%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>11,77%</t>
+  </si>
+  <si>
+    <t>4,64%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>7,92%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>92,33%</t>
+  </si>
+  <si>
+    <t>99,11%</t>
+  </si>
+  <si>
+    <t>93,54%</t>
+  </si>
+  <si>
+    <t>88,23%</t>
+  </si>
+  <si>
+    <t>96,89%</t>
+  </si>
+  <si>
+    <t>95,36%</t>
+  </si>
+  <si>
+    <t>92,08%</t>
+  </si>
+  <si>
+    <t>97,46%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>2-10.000 hab</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>5,89%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>3,35%</t>
+  </si>
+  <si>
+    <t>7,2%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>3,42%</t>
+  </si>
+  <si>
+    <t>5,87%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>94,11%</t>
+  </si>
+  <si>
+    <t>97,34%</t>
+  </si>
+  <si>
+    <t>95,07%</t>
+  </si>
+  <si>
+    <t>92,8%</t>
+  </si>
+  <si>
+    <t>96,65%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>94,13%</t>
+  </si>
+  <si>
+    <t>96,58%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>5,67%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>7,49%</t>
+  </si>
+  <si>
+    <t>94,75%</t>
+  </si>
+  <si>
+    <t>93,09%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>92,7%</t>
+  </si>
+  <si>
+    <t>90,69%</t>
+  </si>
+  <si>
+    <t>94,33%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>92,51%</t>
+  </si>
+  <si>
+    <t>94,82%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>8,22%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>9,87%</t>
+  </si>
+  <si>
+    <t>14,68%</t>
+  </si>
+  <si>
+    <t>7,8%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>91,78%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>87,77%</t>
+  </si>
+  <si>
+    <t>85,32%</t>
+  </si>
+  <si>
+    <t>90,13%</t>
+  </si>
+  <si>
+    <t>89,01%</t>
+  </si>
+  <si>
+    <t>92,2%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>4,05%</t>
+  </si>
+  <si>
+    <t>6,99%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>11,38%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>94,69%</t>
+  </si>
+  <si>
+    <t>93,01%</t>
+  </si>
+  <si>
+    <t>95,95%</t>
+  </si>
+  <si>
+    <t>90,67%</t>
+  </si>
+  <si>
+    <t>88,62%</t>
+  </si>
+  <si>
+    <t>92,58%</t>
+  </si>
+  <si>
+    <t>91,54%</t>
+  </si>
+  <si>
+    <t>93,68%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>7,55%</t>
+  </si>
+  <si>
+    <t>9,45%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>94,8%</t>
+  </si>
+  <si>
+    <t>93,97%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>91,51%</t>
+  </si>
+  <si>
+    <t>90,55%</t>
+  </si>
+  <si>
+    <t>92,45%</t>
+  </si>
+  <si>
+    <t>93,13%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que dejo de hacer algunas tareas por problemas emocionales en 2012 (Tasa respuesta: 99,94%)</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>12,43%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>7,68%</t>
+  </si>
+  <si>
+    <t>21,03%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>6,75%</t>
+  </si>
+  <si>
+    <t>14,84%</t>
+  </si>
+  <si>
+    <t>92,84%</t>
+  </si>
+  <si>
+    <t>87,57%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>86,28%</t>
+  </si>
+  <si>
+    <t>78,97%</t>
+  </si>
+  <si>
+    <t>92,32%</t>
+  </si>
+  <si>
+    <t>89,61%</t>
+  </si>
+  <si>
+    <t>85,16%</t>
+  </si>
+  <si>
+    <t>93,25%</t>
+  </si>
+  <si>
+    <t>4,35%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>12,11%</t>
+  </si>
+  <si>
+    <t>18,2%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>9,06%</t>
+  </si>
+  <si>
+    <t>12,59%</t>
+  </si>
+  <si>
+    <t>91,27%</t>
+  </si>
+  <si>
+    <t>95,65%</t>
+  </si>
+  <si>
+    <t>85,03%</t>
+  </si>
+  <si>
+    <t>81,8%</t>
+  </si>
+  <si>
+    <t>87,89%</t>
+  </si>
+  <si>
+    <t>89,34%</t>
+  </si>
+  <si>
+    <t>87,41%</t>
+  </si>
+  <si>
+    <t>90,94%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>9,03%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>12,37%</t>
+  </si>
+  <si>
+    <t>16,88%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>12,46%</t>
+  </si>
+  <si>
+    <t>92,63%</t>
+  </si>
+  <si>
+    <t>90,97%</t>
+  </si>
+  <si>
+    <t>94,19%</t>
+  </si>
+  <si>
+    <t>85,44%</t>
+  </si>
+  <si>
+    <t>83,12%</t>
+  </si>
+  <si>
+    <t>87,63%</t>
+  </si>
+  <si>
+    <t>87,54%</t>
+  </si>
+  <si>
+    <t>90,47%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>4,14%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>10,56%</t>
+  </si>
+  <si>
+    <t>15,58%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>7,88%</t>
+  </si>
+  <si>
+    <t>10,9%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
+  </si>
+  <si>
+    <t>91,97%</t>
+  </si>
+  <si>
+    <t>95,86%</t>
+  </si>
+  <si>
+    <t>86,97%</t>
+  </si>
+  <si>
+    <t>84,42%</t>
+  </si>
+  <si>
+    <t>89,44%</t>
+  </si>
+  <si>
+    <t>90,59%</t>
+  </si>
+  <si>
+    <t>89,1%</t>
+  </si>
+  <si>
+    <t>92,12%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>15,67%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>11,94%</t>
+  </si>
+  <si>
+    <t>92,96%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>86,5%</t>
+  </si>
+  <si>
+    <t>84,33%</t>
+  </si>
+  <si>
+    <t>88,7%</t>
+  </si>
+  <si>
+    <t>89,56%</t>
+  </si>
+  <si>
+    <t>88,06%</t>
+  </si>
+  <si>
+    <t>90,9%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>5,91%</t>
+  </si>
+  <si>
+    <t>7,6%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>12,9%</t>
+  </si>
+  <si>
+    <t>15,31%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>9,68%</t>
+  </si>
+  <si>
+    <t>11,23%</t>
+  </si>
+  <si>
+    <t>93,27%</t>
+  </si>
+  <si>
+    <t>92,4%</t>
+  </si>
+  <si>
+    <t>94,09%</t>
+  </si>
+  <si>
+    <t>86,05%</t>
+  </si>
+  <si>
+    <t>84,69%</t>
+  </si>
+  <si>
+    <t>87,1%</t>
+  </si>
+  <si>
+    <t>89,59%</t>
+  </si>
+  <si>
+    <t>88,77%</t>
+  </si>
+  <si>
+    <t>90,32%</t>
+  </si>
+  <si>
+    <t>Población que dejo de hacer algunas tareas por problemas emocionales en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>6,74%</t>
+  </si>
+  <si>
+    <t>20,2%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>15,0%</t>
+  </si>
+  <si>
+    <t>92,73%</t>
+  </si>
+  <si>
+    <t>85,87%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>88,05%</t>
+  </si>
+  <si>
+    <t>79,8%</t>
+  </si>
+  <si>
+    <t>93,26%</t>
+  </si>
+  <si>
+    <t>90,42%</t>
+  </si>
+  <si>
+    <t>85,0%</t>
+  </si>
+  <si>
+    <t>93,61%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>4,01%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>8,91%</t>
+  </si>
+  <si>
+    <t>14,14%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>10,45%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>95,99%</t>
+  </si>
+  <si>
+    <t>88,82%</t>
+  </si>
+  <si>
+    <t>85,86%</t>
+  </si>
+  <si>
+    <t>91,09%</t>
+  </si>
+  <si>
+    <t>91,52%</t>
+  </si>
+  <si>
+    <t>89,55%</t>
+  </si>
+  <si>
+    <t>92,98%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>12,64%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>6,13%</t>
+  </si>
+  <si>
+    <t>8,53%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>94,85%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>89,35%</t>
+  </si>
+  <si>
+    <t>87,36%</t>
+  </si>
+  <si>
+    <t>91,29%</t>
+  </si>
+  <si>
+    <t>92,69%</t>
+  </si>
+  <si>
+    <t>91,47%</t>
+  </si>
+  <si>
+    <t>93,87%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>9,26%</t>
+  </si>
+  <si>
+    <t>14,12%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>9,67%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>85,88%</t>
+  </si>
+  <si>
+    <t>90,74%</t>
+  </si>
+  <si>
+    <t>91,85%</t>
+  </si>
+  <si>
+    <t>90,33%</t>
+  </si>
+  <si>
+    <t>93,17%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>8,69%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>8,01%</t>
+  </si>
+  <si>
+    <t>11,73%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
   </si>
   <si>
     <t>7,17%</t>
   </si>
   <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>2,42%</t>
-  </si>
-  <si>
-    <t>7,79%</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>97,13%</t>
+    <t>9,7%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
+  </si>
+  <si>
+    <t>91,31%</t>
+  </si>
+  <si>
+    <t>90,2%</t>
+  </si>
+  <si>
+    <t>88,27%</t>
+  </si>
+  <si>
+    <t>91,99%</t>
+  </si>
+  <si>
+    <t>91,63%</t>
+  </si>
+  <si>
+    <t>90,3%</t>
   </si>
   <si>
     <t>92,83%</t>
   </si>
   <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>93,54%</t>
-  </si>
-  <si>
-    <t>87,57%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
-  </si>
-  <si>
-    <t>92,21%</t>
-  </si>
-  <si>
-    <t>97,58%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2/10</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>2,7%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>3,43%</t>
-  </si>
-  <si>
-    <t>7,23%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>3,32%</t>
-  </si>
-  <si>
-    <t>5,79%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
-  </si>
-  <si>
-    <t>94,19%</t>
-  </si>
-  <si>
-    <t>97,3%</t>
-  </si>
-  <si>
-    <t>95,07%</t>
-  </si>
-  <si>
-    <t>92,77%</t>
-  </si>
-  <si>
-    <t>96,57%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>94,21%</t>
-  </si>
-  <si>
-    <t>96,68%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>3,99%</t>
-  </si>
-  <si>
-    <t>6,86%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>5,72%</t>
-  </si>
-  <si>
-    <t>9,3%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
+    <t>4,6%</t>
+  </si>
+  <si>
+    <t>6,15%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>11,78%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>7,41%</t>
+  </si>
+  <si>
+    <t>8,84%</t>
+  </si>
+  <si>
+    <t>93,85%</t>
+  </si>
+  <si>
+    <t>95,4%</t>
+  </si>
+  <si>
+    <t>89,33%</t>
+  </si>
+  <si>
+    <t>88,22%</t>
+  </si>
+  <si>
+    <t>90,44%</t>
+  </si>
+  <si>
+    <t>91,94%</t>
+  </si>
+  <si>
+    <t>91,16%</t>
+  </si>
+  <si>
+    <t>92,59%</t>
+  </si>
+  <si>
+    <t>Población que dejo de hacer algunas tareas por problemas emocionales en 2023 (Tasa respuesta: 99,9%)</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>1,97%</t>
+  </si>
+  <si>
+    <t>10,92%</t>
+  </si>
+  <si>
+    <t>6,44%</t>
+  </si>
+  <si>
+    <t>13,46%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
   </si>
   <si>
     <t>5,13%</t>
   </si>
   <si>
-    <t>7,38%</t>
-  </si>
-  <si>
-    <t>94,75%</t>
-  </si>
-  <si>
-    <t>93,14%</t>
-  </si>
-  <si>
-    <t>96,01%</t>
-  </si>
-  <si>
-    <t>92,7%</t>
-  </si>
-  <si>
-    <t>90,7%</t>
-  </si>
-  <si>
-    <t>94,28%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
-  </si>
-  <si>
-    <t>92,62%</t>
+    <t>10,77%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>89,08%</t>
+  </si>
+  <si>
+    <t>98,03%</t>
+  </si>
+  <si>
+    <t>86,54%</t>
+  </si>
+  <si>
+    <t>93,56%</t>
+  </si>
+  <si>
+    <t>92,31%</t>
+  </si>
+  <si>
+    <t>89,23%</t>
   </si>
   <si>
     <t>94,87%</t>
   </si>
   <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>9,98%</t>
-  </si>
-  <si>
-    <t>15,15%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>10,95%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>91,61%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>87,77%</t>
-  </si>
-  <si>
-    <t>84,85%</t>
-  </si>
-  <si>
-    <t>90,02%</t>
-  </si>
-  <si>
-    <t>90,69%</t>
-  </si>
-  <si>
-    <t>89,05%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>11,27%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>6,31%</t>
-  </si>
-  <si>
-    <t>8,65%</t>
-  </si>
-  <si>
-    <t>94,69%</t>
-  </si>
-  <si>
-    <t>93,15%</t>
-  </si>
-  <si>
-    <t>96,03%</t>
-  </si>
-  <si>
-    <t>90,67%</t>
-  </si>
-  <si>
-    <t>88,73%</t>
-  </si>
-  <si>
-    <t>92,58%</t>
-  </si>
-  <si>
-    <t>91,35%</t>
-  </si>
-  <si>
-    <t>93,69%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>5,98%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>7,61%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>7,53%</t>
-  </si>
-  <si>
-    <t>94,8%</t>
-  </si>
-  <si>
-    <t>94,02%</t>
-  </si>
-  <si>
-    <t>91,51%</t>
-  </si>
-  <si>
-    <t>90,47%</t>
-  </si>
-  <si>
-    <t>92,39%</t>
-  </si>
-  <si>
-    <t>93,13%</t>
-  </si>
-  <si>
-    <t>92,47%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que dejo de hacer algunas tareas por problemas emocionales en 2012 (Tasa respuesta: 99,94%)</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>21,6%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>92,84%</t>
-  </si>
-  <si>
-    <t>87,33%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>86,28%</t>
-  </si>
-  <si>
-    <t>78,4%</t>
-  </si>
-  <si>
-    <t>92,01%</t>
-  </si>
-  <si>
-    <t>89,61%</t>
-  </si>
-  <si>
-    <t>85,32%</t>
-  </si>
-  <si>
-    <t>93,33%</t>
-  </si>
-  <si>
-    <t>4,52%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>12,18%</t>
-  </si>
-  <si>
-    <t>18,29%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>8,89%</t>
-  </si>
-  <si>
-    <t>12,58%</t>
-  </si>
-  <si>
-    <t>91,09%</t>
-  </si>
-  <si>
-    <t>95,48%</t>
-  </si>
-  <si>
-    <t>85,03%</t>
-  </si>
-  <si>
-    <t>81,71%</t>
-  </si>
-  <si>
-    <t>87,82%</t>
-  </si>
-  <si>
-    <t>89,34%</t>
-  </si>
-  <si>
-    <t>87,42%</t>
-  </si>
-  <si>
-    <t>91,11%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>5,77%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>12,55%</t>
-  </si>
-  <si>
-    <t>17,16%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>9,62%</t>
-  </si>
-  <si>
-    <t>12,52%</t>
-  </si>
-  <si>
-    <t>92,63%</t>
-  </si>
-  <si>
-    <t>94,23%</t>
-  </si>
-  <si>
-    <t>85,44%</t>
-  </si>
-  <si>
-    <t>82,84%</t>
-  </si>
-  <si>
-    <t>87,45%</t>
-  </si>
-  <si>
-    <t>89,01%</t>
-  </si>
-  <si>
-    <t>87,48%</t>
-  </si>
-  <si>
-    <t>90,38%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>10,83%</t>
-  </si>
-  <si>
-    <t>15,7%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>3,95%</t>
+  </si>
+  <si>
+    <t>7,94%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
   </si>
   <si>
     <t>7,98%</t>
   </si>
   <si>
-    <t>11,21%</t>
-  </si>
-  <si>
-    <t>94,29%</t>
-  </si>
-  <si>
-    <t>92,0%</t>
-  </si>
-  <si>
-    <t>86,97%</t>
-  </si>
-  <si>
-    <t>84,3%</t>
-  </si>
-  <si>
-    <t>89,17%</t>
-  </si>
-  <si>
-    <t>90,59%</t>
-  </si>
-  <si>
-    <t>88,79%</t>
+    <t>11,86%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>9,12%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
+  </si>
+  <si>
+    <t>92,06%</t>
+  </si>
+  <si>
+    <t>96,05%</t>
+  </si>
+  <si>
+    <t>90,22%</t>
+  </si>
+  <si>
+    <t>88,14%</t>
   </si>
   <si>
     <t>92,02%</t>
   </si>
   <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>5,24%</t>
-  </si>
-  <si>
-    <t>8,76%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>15,53%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>9,05%</t>
-  </si>
-  <si>
-    <t>11,75%</t>
-  </si>
-  <si>
-    <t>92,96%</t>
-  </si>
-  <si>
-    <t>91,24%</t>
-  </si>
-  <si>
-    <t>94,76%</t>
-  </si>
-  <si>
-    <t>86,5%</t>
-  </si>
-  <si>
-    <t>84,47%</t>
-  </si>
-  <si>
-    <t>88,62%</t>
-  </si>
-  <si>
-    <t>89,56%</t>
-  </si>
-  <si>
-    <t>88,25%</t>
-  </si>
-  <si>
-    <t>90,95%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>5,86%</t>
-  </si>
-  <si>
-    <t>7,7%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>12,77%</t>
-  </si>
-  <si>
-    <t>15,16%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>11,2%</t>
-  </si>
-  <si>
-    <t>93,27%</t>
-  </si>
-  <si>
-    <t>92,3%</t>
-  </si>
-  <si>
-    <t>94,14%</t>
-  </si>
-  <si>
-    <t>86,05%</t>
-  </si>
-  <si>
-    <t>84,84%</t>
-  </si>
-  <si>
-    <t>87,23%</t>
-  </si>
-  <si>
-    <t>89,59%</t>
-  </si>
-  <si>
-    <t>88,8%</t>
-  </si>
-  <si>
-    <t>90,29%</t>
-  </si>
-  <si>
-    <t>Población que dejo de hacer algunas tareas por problemas emocionales en 2015 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>6,63%</t>
-  </si>
-  <si>
-    <t>19,04%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>92,73%</t>
-  </si>
-  <si>
-    <t>86,54%</t>
-  </si>
-  <si>
-    <t>88,05%</t>
-  </si>
-  <si>
-    <t>80,96%</t>
-  </si>
-  <si>
-    <t>93,37%</t>
-  </si>
-  <si>
-    <t>90,42%</t>
-  </si>
-  <si>
-    <t>85,88%</t>
-  </si>
-  <si>
-    <t>94,06%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>13,89%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>6,93%</t>
-  </si>
-  <si>
-    <t>10,29%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>96,04%</t>
-  </si>
-  <si>
-    <t>88,82%</t>
-  </si>
-  <si>
-    <t>86,11%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>91,52%</t>
-  </si>
-  <si>
-    <t>89,71%</t>
-  </si>
-  <si>
-    <t>93,07%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>2,76%</t>
-  </si>
-  <si>
-    <t>5,23%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
+    <t>92,23%</t>
+  </si>
+  <si>
+    <t>90,88%</t>
+  </si>
+  <si>
+    <t>93,52%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>3,89%</t>
+  </si>
+  <si>
+    <t>7,05%</t>
   </si>
   <si>
     <t>8,79%</t>
   </si>
   <si>
-    <t>12,88%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>94,77%</t>
-  </si>
-  <si>
-    <t>97,24%</t>
-  </si>
-  <si>
-    <t>89,35%</t>
-  </si>
-  <si>
-    <t>87,12%</t>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>94,74%</t>
+  </si>
+  <si>
+    <t>92,95%</t>
+  </si>
+  <si>
+    <t>96,11%</t>
   </si>
   <si>
     <t>91,21%</t>
   </si>
   <si>
-    <t>92,69%</t>
-  </si>
-  <si>
-    <t>91,46%</t>
-  </si>
-  <si>
-    <t>93,94%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>6,89%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>9,17%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>9,69%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>93,11%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>88,7%</t>
-  </si>
-  <si>
-    <t>90,83%</t>
-  </si>
-  <si>
-    <t>91,85%</t>
-  </si>
-  <si>
-    <t>90,31%</t>
-  </si>
-  <si>
-    <t>93,25%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>8,6%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>12,07%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>93,23%</t>
-  </si>
-  <si>
-    <t>91,4%</t>
-  </si>
-  <si>
-    <t>90,2%</t>
-  </si>
-  <si>
-    <t>87,93%</t>
-  </si>
-  <si>
-    <t>92,05%</t>
-  </si>
-  <si>
-    <t>91,63%</t>
-  </si>
-  <si>
-    <t>92,8%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>7,45%</t>
-  </si>
-  <si>
-    <t>8,72%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>89,33%</t>
-  </si>
-  <si>
-    <t>88,22%</t>
-  </si>
-  <si>
-    <t>91,94%</t>
-  </si>
-  <si>
-    <t>91,28%</t>
-  </si>
-  <si>
-    <t>92,55%</t>
-  </si>
-  <si>
-    <t>Población que dejo de hacer algunas tareas por problemas emocionales en 2023 (Tasa respuesta: 99,9%)</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>89,08%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>90,44%</t>
-  </si>
-  <si>
-    <t>93,56%</t>
-  </si>
-  <si>
-    <t>92,31%</t>
-  </si>
-  <si>
-    <t>89,23%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>94,41%</t>
-  </si>
-  <si>
-    <t>92,06%</t>
-  </si>
-  <si>
-    <t>96,05%</t>
-  </si>
-  <si>
-    <t>90,22%</t>
-  </si>
-  <si>
-    <t>88,14%</t>
-  </si>
-  <si>
-    <t>92,23%</t>
-  </si>
-  <si>
-    <t>90,88%</t>
-  </si>
-  <si>
-    <t>93,52%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>94,74%</t>
-  </si>
-  <si>
-    <t>92,95%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>87,89%</t>
-  </si>
-  <si>
     <t>92,15%</t>
   </si>
   <si>
@@ -1148,9 +1160,6 @@
     <t>12,62%</t>
   </si>
   <si>
-    <t>9,1%</t>
-  </si>
-  <si>
     <t>7,26%</t>
   </si>
   <si>
@@ -1175,9 +1184,6 @@
     <t>93,34%</t>
   </si>
   <si>
-    <t>90,9%</t>
-  </si>
-  <si>
     <t>89,09%</t>
   </si>
   <si>
@@ -1196,9 +1202,6 @@
     <t>12,29%</t>
   </si>
   <si>
-    <t>10,56%</t>
-  </si>
-  <si>
     <t>14,69%</t>
   </si>
   <si>
@@ -1223,24 +1226,15 @@
     <t>85,31%</t>
   </si>
   <si>
-    <t>89,44%</t>
-  </si>
-  <si>
     <t>89,51%</t>
   </si>
   <si>
     <t>92,07%</t>
   </si>
   <si>
-    <t>5,89%</t>
-  </si>
-  <si>
     <t>5,07%</t>
   </si>
   <si>
-    <t>6,74%</t>
-  </si>
-  <si>
     <t>10,78%</t>
   </si>
   <si>
@@ -1254,12 +1248,6 @@
   </si>
   <si>
     <t>9,23%</t>
-  </si>
-  <si>
-    <t>94,11%</t>
-  </si>
-  <si>
-    <t>93,26%</t>
   </si>
   <si>
     <t>94,93%</t>
@@ -1689,7 +1677,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17DBC3E4-7A00-4070-BBD8-2463B68BD58E}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E150608-9698-4070-ADDE-505FC3ACE300}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2308,13 +2296,13 @@
         <v>126781</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>76</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>77</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2329,13 +2317,13 @@
         <v>635352</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>80</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>611</v>
@@ -2344,13 +2332,13 @@
         <v>600217</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>81</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>83</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>1210</v>
@@ -2359,13 +2347,13 @@
         <v>1235569</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2421,7 +2409,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2433,13 +2421,13 @@
         <v>50015</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="G16" s="7" t="s">
         <v>89</v>
-      </c>
-      <c r="F16" s="7" t="s">
-        <v>90</v>
-      </c>
-      <c r="G16" s="7" t="s">
-        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>94</v>
@@ -2448,13 +2436,13 @@
         <v>96881</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>19</v>
+        <v>76</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="M16" s="7">
         <v>144</v>
@@ -2463,13 +2451,13 @@
         <v>146896</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2484,13 +2472,13 @@
         <v>892207</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>97</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>99</v>
       </c>
       <c r="H17" s="7">
         <v>903</v>
@@ -2499,13 +2487,13 @@
         <v>941731</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>28</v>
+        <v>85</v>
       </c>
       <c r="M17" s="7">
         <v>1847</v>
@@ -2514,13 +2502,13 @@
         <v>1833938</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>102</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2588,13 +2576,13 @@
         <v>170534</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>105</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>38</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>106</v>
       </c>
       <c r="H19" s="7">
         <v>277</v>
@@ -2603,13 +2591,13 @@
         <v>286810</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>106</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>107</v>
       </c>
-      <c r="K19" s="7" t="s">
+      <c r="L19" s="7" t="s">
         <v>108</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>109</v>
       </c>
       <c r="M19" s="7">
         <v>445</v>
@@ -2618,13 +2606,13 @@
         <v>457343</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>57</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>111</v>
+        <v>59</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2636,16 +2624,16 @@
         <v>3046</v>
       </c>
       <c r="D20" s="7">
-        <v>3106010</v>
+        <v>3106009</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>111</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>112</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>47</v>
       </c>
       <c r="H20" s="7">
         <v>3020</v>
@@ -2654,13 +2642,13 @@
         <v>3092388</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>114</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>115</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>116</v>
       </c>
       <c r="M20" s="7">
         <v>6066</v>
@@ -2669,10 +2657,10 @@
         <v>6198398</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>118</v>
+        <v>67</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>66</v>
@@ -2687,7 +2675,7 @@
         <v>3214</v>
       </c>
       <c r="D21" s="7">
-        <v>3276544</v>
+        <v>3276543</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -2731,7 +2719,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -2752,7 +2740,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DC77FDD-E5D0-4B52-9732-591C4364B6ED}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{780EF859-83E1-4C7F-9782-4ED4198DFDF0}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2769,7 +2757,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2876,13 +2864,13 @@
         <v>8290</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>119</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>121</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>123</v>
       </c>
       <c r="H4" s="7">
         <v>14</v>
@@ -2891,13 +2879,13 @@
         <v>15357</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>122</v>
+      </c>
+      <c r="K4" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="L4" s="7" t="s">
         <v>124</v>
-      </c>
-      <c r="K4" s="7" t="s">
-        <v>125</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="M4" s="7">
         <v>24</v>
@@ -2906,13 +2894,13 @@
         <v>23647</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>125</v>
+      </c>
+      <c r="P4" s="7" t="s">
+        <v>126</v>
+      </c>
+      <c r="Q4" s="7" t="s">
         <v>127</v>
-      </c>
-      <c r="P4" s="7" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2927,13 +2915,13 @@
         <v>107475</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>128</v>
+      </c>
+      <c r="F5" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>130</v>
-      </c>
-      <c r="F5" s="7" t="s">
-        <v>131</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>132</v>
       </c>
       <c r="H5" s="7">
         <v>85</v>
@@ -2942,13 +2930,13 @@
         <v>96548</v>
       </c>
       <c r="J5" s="7" t="s">
+        <v>131</v>
+      </c>
+      <c r="K5" s="7" t="s">
+        <v>132</v>
+      </c>
+      <c r="L5" s="7" t="s">
         <v>133</v>
-      </c>
-      <c r="K5" s="7" t="s">
-        <v>134</v>
-      </c>
-      <c r="L5" s="7" t="s">
-        <v>135</v>
       </c>
       <c r="M5" s="7">
         <v>197</v>
@@ -2957,13 +2945,13 @@
         <v>204023</v>
       </c>
       <c r="O5" s="7" t="s">
+        <v>134</v>
+      </c>
+      <c r="P5" s="7" t="s">
+        <v>135</v>
+      </c>
+      <c r="Q5" s="7" t="s">
         <v>136</v>
-      </c>
-      <c r="P5" s="7" t="s">
-        <v>137</v>
-      </c>
-      <c r="Q5" s="7" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3034,10 +3022,10 @@
         <v>70</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="H7" s="7">
         <v>84</v>
@@ -3046,13 +3034,13 @@
         <v>87608</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="K7" s="7" t="s">
+        <v>140</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>141</v>
-      </c>
-      <c r="K7" s="7" t="s">
-        <v>142</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="M7" s="7">
         <v>118</v>
@@ -3061,13 +3049,13 @@
         <v>124999</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>142</v>
+      </c>
+      <c r="P7" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="P7" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3082,13 +3070,13 @@
         <v>550313</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="H8" s="7">
         <v>467</v>
@@ -3097,13 +3085,13 @@
         <v>497537</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>147</v>
+      </c>
+      <c r="K8" s="7" t="s">
+        <v>148</v>
+      </c>
+      <c r="L8" s="7" t="s">
         <v>149</v>
-      </c>
-      <c r="K8" s="7" t="s">
-        <v>150</v>
-      </c>
-      <c r="L8" s="7" t="s">
-        <v>151</v>
       </c>
       <c r="M8" s="7">
         <v>985</v>
@@ -3112,13 +3100,13 @@
         <v>1047850</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>150</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>151</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>152</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>153</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3186,13 +3174,13 @@
         <v>74959</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>153</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>154</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>155</v>
-      </c>
-      <c r="F10" s="7" t="s">
-        <v>156</v>
-      </c>
-      <c r="G10" s="7" t="s">
-        <v>76</v>
       </c>
       <c r="H10" s="7">
         <v>136</v>
@@ -3201,13 +3189,13 @@
         <v>150255</v>
       </c>
       <c r="J10" s="7" t="s">
+        <v>156</v>
+      </c>
+      <c r="K10" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>158</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>159</v>
       </c>
       <c r="M10" s="7">
         <v>204</v>
@@ -3216,13 +3204,13 @@
         <v>225215</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>159</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3237,13 +3225,13 @@
         <v>941934</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>161</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>162</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>163</v>
-      </c>
-      <c r="F11" s="7" t="s">
-        <v>85</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>164</v>
       </c>
       <c r="H11" s="7">
         <v>804</v>
@@ -3252,28 +3240,28 @@
         <v>881929</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>164</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>165</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>166</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>167</v>
       </c>
       <c r="M11" s="7">
         <v>1671</v>
       </c>
       <c r="N11" s="7">
-        <v>1823863</v>
+        <v>1823862</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>167</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>168</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3315,7 +3303,7 @@
         <v>1875</v>
       </c>
       <c r="N12" s="7">
-        <v>2049078</v>
+        <v>2049077</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3341,13 +3329,13 @@
         <v>43270</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>169</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>170</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>171</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>52</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>172</v>
       </c>
       <c r="H13" s="7">
         <v>93</v>
@@ -3356,13 +3344,13 @@
         <v>101091</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>172</v>
+      </c>
+      <c r="K13" s="7" t="s">
         <v>173</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>174</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>175</v>
       </c>
       <c r="M13" s="7">
         <v>129</v>
@@ -3371,13 +3359,13 @@
         <v>144361</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>177</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3392,13 +3380,13 @@
         <v>714353</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>178</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>179</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>180</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>62</v>
       </c>
       <c r="H14" s="7">
         <v>611</v>
@@ -3484,7 +3472,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3502,7 +3490,7 @@
         <v>188</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>189</v>
+        <v>143</v>
       </c>
       <c r="H16" s="7">
         <v>135</v>
@@ -3511,13 +3499,13 @@
         <v>141898</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>189</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>190</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>191</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>192</v>
       </c>
       <c r="M16" s="7">
         <v>196</v>
@@ -3526,13 +3514,13 @@
         <v>208573</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>192</v>
+      </c>
+      <c r="P16" s="7" t="s">
         <v>193</v>
       </c>
-      <c r="P16" s="7" t="s">
+      <c r="Q16" s="7" t="s">
         <v>194</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3547,13 +3535,13 @@
         <v>880127</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>195</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>152</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>196</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>198</v>
       </c>
       <c r="H17" s="7">
         <v>867</v>
@@ -3562,13 +3550,13 @@
         <v>909058</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>197</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>198</v>
+      </c>
+      <c r="L17" s="7" t="s">
         <v>199</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>201</v>
       </c>
       <c r="M17" s="7">
         <v>1715</v>
@@ -3577,13 +3565,13 @@
         <v>1789185</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>200</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>201</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>202</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>203</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>204</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3651,13 +3639,13 @@
         <v>230586</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>203</v>
+      </c>
+      <c r="F19" s="7" t="s">
+        <v>204</v>
+      </c>
+      <c r="G19" s="7" t="s">
         <v>205</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>207</v>
       </c>
       <c r="H19" s="7">
         <v>462</v>
@@ -3666,13 +3654,13 @@
         <v>496210</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>206</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>207</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>208</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>210</v>
       </c>
       <c r="M19" s="7">
         <v>671</v>
@@ -3681,13 +3669,13 @@
         <v>726796</v>
       </c>
       <c r="O19" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="P19" s="7" t="s">
+        <v>210</v>
+      </c>
+      <c r="Q19" s="7" t="s">
         <v>211</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>213</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3702,13 +3690,13 @@
         <v>3194202</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>212</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>213</v>
+      </c>
+      <c r="G20" s="7" t="s">
         <v>214</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>216</v>
       </c>
       <c r="H20" s="7">
         <v>2834</v>
@@ -3717,13 +3705,13 @@
         <v>3060099</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="K20" s="7" t="s">
+        <v>216</v>
+      </c>
+      <c r="L20" s="7" t="s">
         <v>217</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>219</v>
       </c>
       <c r="M20" s="7">
         <v>5832</v>
@@ -3732,13 +3720,13 @@
         <v>6254301</v>
       </c>
       <c r="O20" s="7" t="s">
+        <v>218</v>
+      </c>
+      <c r="P20" s="7" t="s">
+        <v>219</v>
+      </c>
+      <c r="Q20" s="7" t="s">
         <v>220</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>222</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3794,7 +3782,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -3815,7 +3803,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9B751EE4-1A23-4D37-80C3-64CBA90D4987}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A8975AF-4F24-4C67-992D-8568C6998818}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3832,7 +3820,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3939,13 +3927,13 @@
         <v>8477</v>
       </c>
       <c r="E4" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="F4" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>224</v>
-      </c>
-      <c r="F4" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="G4" s="7" t="s">
-        <v>225</v>
       </c>
       <c r="H4" s="7">
         <v>12</v>
@@ -3954,13 +3942,13 @@
         <v>13550</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>225</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>226</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>227</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>228</v>
       </c>
       <c r="M4" s="7">
         <v>20</v>
@@ -3969,13 +3957,13 @@
         <v>22027</v>
       </c>
       <c r="O4" s="7" t="s">
+        <v>228</v>
+      </c>
+      <c r="P4" s="7" t="s">
         <v>229</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>230</v>
-      </c>
-      <c r="Q4" s="7" t="s">
-        <v>231</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3990,13 +3978,13 @@
         <v>108069</v>
       </c>
       <c r="E5" s="7" t="s">
+        <v>231</v>
+      </c>
+      <c r="F5" s="7" t="s">
         <v>232</v>
       </c>
-      <c r="F5" s="7" t="s">
+      <c r="G5" s="7" t="s">
         <v>233</v>
-      </c>
-      <c r="G5" s="7" t="s">
-        <v>46</v>
       </c>
       <c r="H5" s="7">
         <v>103</v>
@@ -4100,7 +4088,7 @@
         <v>241</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H7" s="7">
         <v>59</v>
@@ -4148,7 +4136,7 @@
         <v>248</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>249</v>
@@ -4410,7 +4398,7 @@
         <v>275</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>276</v>
+        <v>126</v>
       </c>
       <c r="H13" s="7">
         <v>79</v>
@@ -4419,13 +4407,13 @@
         <v>88679</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>190</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>276</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>277</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>244</v>
       </c>
       <c r="M13" s="7">
         <v>112</v>
@@ -4434,13 +4422,13 @@
         <v>125929</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>278</v>
+      </c>
+      <c r="P13" s="7" t="s">
         <v>279</v>
       </c>
-      <c r="P13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>280</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>281</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4455,13 +4443,13 @@
         <v>722303</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>281</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>136</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>282</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>284</v>
       </c>
       <c r="H14" s="7">
         <v>657</v>
@@ -4470,13 +4458,13 @@
         <v>696332</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>285</v>
+        <v>199</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>251</v>
+        <v>283</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="M14" s="7">
         <v>1320</v>
@@ -4485,13 +4473,13 @@
         <v>1418634</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>285</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>287</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>288</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4547,7 +4535,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4559,13 +4547,13 @@
         <v>63463</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>51</v>
+        <v>103</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="H16" s="7">
         <v>91</v>
@@ -4574,13 +4562,13 @@
         <v>102316</v>
       </c>
       <c r="J16" s="7" t="s">
+        <v>290</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="L16" s="7" t="s">
         <v>292</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>293</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>294</v>
       </c>
       <c r="M16" s="7">
         <v>152</v>
@@ -4589,13 +4577,13 @@
         <v>165780</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>293</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>294</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>295</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4610,13 +4598,13 @@
         <v>874104</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>296</v>
+      </c>
+      <c r="F17" s="7" t="s">
         <v>297</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>298</v>
-      </c>
       <c r="G17" s="7" t="s">
-        <v>60</v>
+        <v>110</v>
       </c>
       <c r="H17" s="7">
         <v>868</v>
@@ -4625,13 +4613,13 @@
         <v>941463</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>298</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>299</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>300</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>301</v>
       </c>
       <c r="M17" s="7">
         <v>1739</v>
@@ -4640,10 +4628,10 @@
         <v>1815566</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>301</v>
+      </c>
+      <c r="P17" s="7" t="s">
         <v>302</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>303</v>
@@ -4714,13 +4702,13 @@
         <v>181408</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>188</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>304</v>
       </c>
-      <c r="F19" s="7" t="s">
+      <c r="G19" s="7" t="s">
         <v>305</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>306</v>
       </c>
       <c r="H19" s="7">
         <v>339</v>
@@ -4729,10 +4717,10 @@
         <v>378113</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>306</v>
+      </c>
+      <c r="K19" s="7" t="s">
         <v>307</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>161</v>
       </c>
       <c r="L19" s="7" t="s">
         <v>308</v>
@@ -4765,13 +4753,13 @@
         <v>3212942</v>
       </c>
       <c r="E20" s="7" t="s">
+        <v>196</v>
+      </c>
+      <c r="F20" s="7" t="s">
         <v>312</v>
       </c>
-      <c r="F20" s="7" t="s">
+      <c r="G20" s="7" t="s">
         <v>313</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>314</v>
       </c>
       <c r="H20" s="7">
         <v>2999</v>
@@ -4780,13 +4768,13 @@
         <v>3166429</v>
       </c>
       <c r="J20" s="7" t="s">
+        <v>314</v>
+      </c>
+      <c r="K20" s="7" t="s">
         <v>315</v>
       </c>
-      <c r="K20" s="7" t="s">
+      <c r="L20" s="7" t="s">
         <v>316</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>170</v>
       </c>
       <c r="M20" s="7">
         <v>6057</v>
@@ -4857,7 +4845,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>
@@ -4878,7 +4866,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2EE74779-CF95-48F1-B23A-BF2E094A93B5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D3F9BB2-564D-41AC-8CFB-E075E3FF634D}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5017,13 +5005,13 @@
         <v>12438</v>
       </c>
       <c r="J4" s="7" t="s">
+        <v>307</v>
+      </c>
+      <c r="K4" s="7" t="s">
         <v>324</v>
       </c>
-      <c r="K4" s="7" t="s">
+      <c r="L4" s="7" t="s">
         <v>325</v>
-      </c>
-      <c r="L4" s="7" t="s">
-        <v>225</v>
       </c>
       <c r="M4" s="7">
         <v>32</v>
@@ -5035,10 +5023,10 @@
         <v>326</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>58</v>
+        <v>327</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5053,13 +5041,13 @@
         <v>96579</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="H5" s="7">
         <v>215</v>
@@ -5068,13 +5056,13 @@
         <v>117621</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>331</v>
+        <v>316</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>233</v>
+        <v>332</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="M5" s="7">
         <v>327</v>
@@ -5083,13 +5071,13 @@
         <v>214200</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>68</v>
+        <v>336</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5157,13 +5145,13 @@
         <v>30745</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="H7" s="7">
         <v>103</v>
@@ -5172,13 +5160,13 @@
         <v>58009</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>177</v>
+        <v>341</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="M7" s="7">
         <v>138</v>
@@ -5187,13 +5175,13 @@
         <v>88754</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5208,13 +5196,13 @@
         <v>519078</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="H8" s="7">
         <v>893</v>
@@ -5223,13 +5211,13 @@
         <v>534953</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>186</v>
+        <v>351</v>
       </c>
       <c r="M8" s="7">
         <v>1470</v>
@@ -5238,13 +5226,13 @@
         <v>1054031</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>350</v>
+        <v>354</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5312,13 +5300,13 @@
         <v>54677</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>351</v>
+        <v>355</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>353</v>
+        <v>357</v>
       </c>
       <c r="H10" s="7">
         <v>166</v>
@@ -5327,13 +5315,13 @@
         <v>109984</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>260</v>
+        <v>358</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>354</v>
+        <v>140</v>
       </c>
       <c r="M10" s="7">
         <v>227</v>
@@ -5342,13 +5330,13 @@
         <v>164661</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>355</v>
+        <v>359</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>356</v>
+        <v>360</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5363,13 +5351,13 @@
         <v>984571</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>358</v>
+        <v>362</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>359</v>
+        <v>363</v>
       </c>
       <c r="H11" s="7">
         <v>1349</v>
@@ -5378,13 +5366,13 @@
         <v>948770</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>360</v>
+        <v>149</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>270</v>
+        <v>364</v>
       </c>
       <c r="M11" s="7">
         <v>2252</v>
@@ -5393,13 +5381,13 @@
         <v>1933341</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5467,13 +5455,13 @@
         <v>57521</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="H13" s="7">
         <v>118</v>
@@ -5482,13 +5470,13 @@
         <v>88346</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>366</v>
+        <v>370</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>368</v>
+        <v>372</v>
       </c>
       <c r="M13" s="7">
         <v>171</v>
@@ -5497,13 +5485,13 @@
         <v>145867</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>369</v>
+        <v>193</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5518,13 +5506,13 @@
         <v>671251</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="H14" s="7">
         <v>929</v>
@@ -5533,13 +5521,13 @@
         <v>786025</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="M14" s="7">
         <v>1552</v>
@@ -5548,13 +5536,13 @@
         <v>1457275</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>378</v>
+        <v>202</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>379</v>
+        <v>381</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>380</v>
+        <v>382</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5610,7 +5598,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5622,13 +5610,13 @@
         <v>50994</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>381</v>
+        <v>383</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>382</v>
+        <v>384</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>383</v>
+        <v>385</v>
       </c>
       <c r="H16" s="7">
         <v>193</v>
@@ -5637,13 +5625,13 @@
         <v>141319</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>384</v>
+        <v>386</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>385</v>
+        <v>173</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="M16" s="7">
         <v>254</v>
@@ -5652,13 +5640,13 @@
         <v>192313</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>369</v>
+        <v>193</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5673,13 +5661,13 @@
         <v>913123</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="H17" s="7">
         <v>1368</v>
@@ -5688,13 +5676,13 @@
         <v>1008496</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>394</v>
+        <v>183</v>
       </c>
       <c r="M17" s="7">
         <v>2311</v>
@@ -5703,7 +5691,7 @@
         <v>1921619</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>378</v>
+        <v>202</v>
       </c>
       <c r="P17" s="7" t="s">
         <v>395</v>
@@ -5777,13 +5765,13 @@
         <v>199340</v>
       </c>
       <c r="E19" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F19" s="7" t="s">
         <v>397</v>
       </c>
-      <c r="F19" s="7" t="s">
-        <v>398</v>
-      </c>
       <c r="G19" s="7" t="s">
-        <v>399</v>
+        <v>226</v>
       </c>
       <c r="H19" s="7">
         <v>606</v>
@@ -5792,13 +5780,13 @@
         <v>410097</v>
       </c>
       <c r="J19" s="7" t="s">
+        <v>398</v>
+      </c>
+      <c r="K19" s="7" t="s">
+        <v>399</v>
+      </c>
+      <c r="L19" s="7" t="s">
         <v>400</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>401</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>402</v>
       </c>
       <c r="M19" s="7">
         <v>822</v>
@@ -5810,10 +5798,10 @@
         <v>245</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5828,13 +5816,13 @@
         <v>3184602</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>405</v>
+        <v>42</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>406</v>
+        <v>236</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="H20" s="7">
         <v>4754</v>
@@ -5843,13 +5831,13 @@
         <v>3395864</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="M20" s="7">
         <v>7912</v>
@@ -5861,10 +5849,10 @@
         <v>253</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5920,7 +5908,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1002-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P1002-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3006ED09-684E-440F-BACF-26F38BE8024D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{524FC31A-B9EA-46A7-8816-5477A99F1196}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{B6F7914B-28F0-490E-9083-2113799F6D61}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F6D9E77C-8E42-46B5-A581-BB78B9F890C0}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="409">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="413">
   <si>
     <t>Población que dejo de hacer algunas tareas por problemas emocionales en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -71,34 +71,34 @@
     <t>&lt;2.000hab</t>
   </si>
   <si>
-    <t>Si</t>
+    <t>Sí</t>
   </si>
   <si>
     <t>2,87%</t>
   </si>
   <si>
-    <t>0,89%</t>
-  </si>
-  <si>
-    <t>7,67%</t>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>7,56%</t>
   </si>
   <si>
     <t>6,46%</t>
   </si>
   <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>11,77%</t>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>11,46%</t>
   </si>
   <si>
     <t>4,64%</t>
   </si>
   <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>7,92%</t>
+    <t>2,51%</t>
+  </si>
+  <si>
+    <t>7,73%</t>
   </si>
   <si>
     <t>No</t>
@@ -107,28 +107,28 @@
     <t>97,13%</t>
   </si>
   <si>
-    <t>92,33%</t>
-  </si>
-  <si>
-    <t>99,11%</t>
+    <t>92,44%</t>
+  </si>
+  <si>
+    <t>99,13%</t>
   </si>
   <si>
     <t>93,54%</t>
   </si>
   <si>
-    <t>88,23%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
+    <t>88,54%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
   </si>
   <si>
     <t>95,36%</t>
   </si>
   <si>
-    <t>92,08%</t>
-  </si>
-  <si>
-    <t>97,46%</t>
+    <t>92,27%</t>
+  </si>
+  <si>
+    <t>97,49%</t>
   </si>
   <si>
     <t>100%</t>
@@ -140,1132 +140,1144 @@
     <t>4,07%</t>
   </si>
   <si>
-    <t>2,66%</t>
+    <t>2,6%</t>
+  </si>
+  <si>
+    <t>5,83%</t>
+  </si>
+  <si>
+    <t>4,93%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>6,94%</t>
+  </si>
+  <si>
+    <t>4,5%</t>
+  </si>
+  <si>
+    <t>3,44%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>95,93%</t>
+  </si>
+  <si>
+    <t>94,17%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>95,07%</t>
+  </si>
+  <si>
+    <t>93,06%</t>
+  </si>
+  <si>
+    <t>96,6%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>94,19%</t>
+  </si>
+  <si>
+    <t>96,56%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>94,75%</t>
+  </si>
+  <si>
+    <t>93,12%</t>
+  </si>
+  <si>
+    <t>96,03%</t>
+  </si>
+  <si>
+    <t>92,7%</t>
+  </si>
+  <si>
+    <t>90,87%</t>
+  </si>
+  <si>
+    <t>94,34%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>92,6%</t>
+  </si>
+  <si>
+    <t>94,82%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>91,49%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>87,77%</t>
+  </si>
+  <si>
+    <t>85,2%</t>
+  </si>
+  <si>
+    <t>90,05%</t>
+  </si>
+  <si>
+    <t>90,69%</t>
+  </si>
+  <si>
+    <t>89,06%</t>
+  </si>
+  <si>
+    <t>92,14%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>94,69%</t>
+  </si>
+  <si>
+    <t>93,0%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>90,67%</t>
+  </si>
+  <si>
+    <t>88,78%</t>
+  </si>
+  <si>
+    <t>92,35%</t>
+  </si>
+  <si>
+    <t>92,58%</t>
+  </si>
+  <si>
+    <t>91,29%</t>
+  </si>
+  <si>
+    <t>93,68%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>94,8%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>91,51%</t>
+  </si>
+  <si>
+    <t>90,53%</t>
+  </si>
+  <si>
+    <t>92,41%</t>
+  </si>
+  <si>
+    <t>93,13%</t>
+  </si>
+  <si>
+    <t>92,43%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que dejo de hacer algunas tareas por problemas emocionales en 2012 (Tasa respuesta: 99,94%)</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>3,61%</t>
+  </si>
+  <si>
+    <t>12,27%</t>
+  </si>
+  <si>
+    <t>13,72%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>20,78%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>6,48%</t>
+  </si>
+  <si>
+    <t>14,47%</t>
+  </si>
+  <si>
+    <t>92,84%</t>
+  </si>
+  <si>
+    <t>87,73%</t>
+  </si>
+  <si>
+    <t>96,39%</t>
+  </si>
+  <si>
+    <t>86,28%</t>
+  </si>
+  <si>
+    <t>79,22%</t>
+  </si>
+  <si>
+    <t>92,05%</t>
+  </si>
+  <si>
+    <t>89,61%</t>
+  </si>
+  <si>
+    <t>85,53%</t>
+  </si>
+  <si>
+    <t>93,52%</t>
+  </si>
+  <si>
+    <t>8,82%</t>
+  </si>
+  <si>
+    <t>14,97%</t>
+  </si>
+  <si>
+    <t>12,06%</t>
+  </si>
+  <si>
+    <t>18,1%</t>
+  </si>
+  <si>
+    <t>10,66%</t>
+  </si>
+  <si>
+    <t>9,01%</t>
+  </si>
+  <si>
+    <t>12,66%</t>
+  </si>
+  <si>
+    <t>91,18%</t>
+  </si>
+  <si>
+    <t>85,03%</t>
+  </si>
+  <si>
+    <t>81,9%</t>
+  </si>
+  <si>
+    <t>87,94%</t>
+  </si>
+  <si>
+    <t>89,34%</t>
+  </si>
+  <si>
+    <t>87,34%</t>
+  </si>
+  <si>
+    <t>90,99%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>92,63%</t>
+  </si>
+  <si>
+    <t>90,85%</t>
+  </si>
+  <si>
+    <t>85,44%</t>
+  </si>
+  <si>
+    <t>83,06%</t>
+  </si>
+  <si>
+    <t>87,56%</t>
+  </si>
+  <si>
+    <t>89,01%</t>
+  </si>
+  <si>
+    <t>87,67%</t>
+  </si>
+  <si>
+    <t>90,46%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
+  </si>
+  <si>
+    <t>92,04%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>86,97%</t>
+  </si>
+  <si>
+    <t>84,36%</t>
+  </si>
+  <si>
+    <t>89,26%</t>
+  </si>
+  <si>
+    <t>90,59%</t>
+  </si>
+  <si>
+    <t>88,94%</t>
+  </si>
+  <si>
+    <t>91,98%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>92,96%</t>
+  </si>
+  <si>
+    <t>91,08%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
+  </si>
+  <si>
+    <t>86,5%</t>
+  </si>
+  <si>
+    <t>84,13%</t>
+  </si>
+  <si>
+    <t>88,47%</t>
+  </si>
+  <si>
+    <t>89,56%</t>
+  </si>
+  <si>
+    <t>88,13%</t>
+  </si>
+  <si>
+    <t>91,03%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
+  </si>
+  <si>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>93,27%</t>
+  </si>
+  <si>
+    <t>94,06%</t>
+  </si>
+  <si>
+    <t>86,05%</t>
+  </si>
+  <si>
+    <t>84,87%</t>
+  </si>
+  <si>
+    <t>87,11%</t>
+  </si>
+  <si>
+    <t>89,59%</t>
+  </si>
+  <si>
+    <t>88,82%</t>
+  </si>
+  <si>
+    <t>90,29%</t>
+  </si>
+  <si>
+    <t>Población que dejo de hacer algunas tareas por problemas emocionales en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>7,27%</t>
+  </si>
+  <si>
+    <t>3,12%</t>
+  </si>
+  <si>
+    <t>13,2%</t>
+  </si>
+  <si>
+    <t>11,95%</t>
+  </si>
+  <si>
+    <t>6,22%</t>
+  </si>
+  <si>
+    <t>19,98%</t>
+  </si>
+  <si>
+    <t>9,58%</t>
+  </si>
+  <si>
+    <t>6,1%</t>
+  </si>
+  <si>
+    <t>14,11%</t>
+  </si>
+  <si>
+    <t>92,73%</t>
+  </si>
+  <si>
+    <t>86,8%</t>
+  </si>
+  <si>
+    <t>96,88%</t>
+  </si>
+  <si>
+    <t>88,05%</t>
+  </si>
+  <si>
+    <t>80,02%</t>
+  </si>
+  <si>
+    <t>93,78%</t>
+  </si>
+  <si>
+    <t>90,42%</t>
+  </si>
+  <si>
+    <t>85,89%</t>
+  </si>
+  <si>
+    <t>93,9%</t>
+  </si>
+  <si>
+    <t>5,78%</t>
+  </si>
+  <si>
+    <t>4,11%</t>
+  </si>
+  <si>
+    <t>8,05%</t>
+  </si>
+  <si>
+    <t>8,78%</t>
+  </si>
+  <si>
+    <t>8,48%</t>
+  </si>
+  <si>
+    <t>6,98%</t>
+  </si>
+  <si>
+    <t>10,25%</t>
+  </si>
+  <si>
+    <t>94,22%</t>
+  </si>
+  <si>
+    <t>91,95%</t>
+  </si>
+  <si>
+    <t>95,89%</t>
+  </si>
+  <si>
+    <t>91,22%</t>
+  </si>
+  <si>
+    <t>91,52%</t>
+  </si>
+  <si>
+    <t>89,75%</t>
+  </si>
+  <si>
+    <t>93,02%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>89,35%</t>
+  </si>
+  <si>
+    <t>87,39%</t>
+  </si>
+  <si>
+    <t>91,38%</t>
+  </si>
+  <si>
+    <t>92,69%</t>
+  </si>
+  <si>
+    <t>93,82%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>93,1%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>88,7%</t>
+  </si>
+  <si>
+    <t>86,08%</t>
+  </si>
+  <si>
+    <t>90,81%</t>
+  </si>
+  <si>
+    <t>91,85%</t>
+  </si>
+  <si>
+    <t>90,39%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
+  </si>
+  <si>
+    <t>91,21%</t>
+  </si>
+  <si>
+    <t>94,81%</t>
+  </si>
+  <si>
+    <t>90,2%</t>
+  </si>
+  <si>
+    <t>88,02%</t>
+  </si>
+  <si>
+    <t>91,91%</t>
+  </si>
+  <si>
+    <t>91,63%</t>
+  </si>
+  <si>
+    <t>92,83%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>93,79%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>89,33%</t>
+  </si>
+  <si>
+    <t>88,16%</t>
+  </si>
+  <si>
+    <t>90,47%</t>
+  </si>
+  <si>
+    <t>91,94%</t>
+  </si>
+  <si>
+    <t>91,25%</t>
+  </si>
+  <si>
+    <t>Población que dejo de hacer algunas tareas por problemas emocionales en 2023 (Tasa respuesta: 99,9%)</t>
+  </si>
+  <si>
+    <t>5,3%</t>
+  </si>
+  <si>
+    <t>1,98%</t>
+  </si>
+  <si>
+    <t>12,04%</t>
+  </si>
+  <si>
+    <t>9,56%</t>
+  </si>
+  <si>
+    <t>6,47%</t>
+  </si>
+  <si>
+    <t>14,02%</t>
+  </si>
+  <si>
+    <t>7,69%</t>
+  </si>
+  <si>
+    <t>5,37%</t>
+  </si>
+  <si>
+    <t>11,01%</t>
+  </si>
+  <si>
+    <t>94,7%</t>
+  </si>
+  <si>
+    <t>87,96%</t>
+  </si>
+  <si>
+    <t>98,02%</t>
+  </si>
+  <si>
+    <t>90,44%</t>
+  </si>
+  <si>
+    <t>85,98%</t>
+  </si>
+  <si>
+    <t>93,53%</t>
+  </si>
+  <si>
+    <t>92,31%</t>
+  </si>
+  <si>
+    <t>88,99%</t>
+  </si>
+  <si>
+    <t>94,63%</t>
+  </si>
+  <si>
+    <t>5,59%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>8,03%</t>
+  </si>
+  <si>
+    <t>9,78%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>7,77%</t>
+  </si>
+  <si>
+    <t>6,52%</t>
+  </si>
+  <si>
+    <t>9,43%</t>
+  </si>
+  <si>
+    <t>94,41%</t>
+  </si>
+  <si>
+    <t>91,97%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>90,22%</t>
+  </si>
+  <si>
+    <t>88,04%</t>
+  </si>
+  <si>
+    <t>92,23%</t>
+  </si>
+  <si>
+    <t>90,57%</t>
+  </si>
+  <si>
+    <t>93,48%</t>
+  </si>
+  <si>
+    <t>5,26%</t>
+  </si>
+  <si>
+    <t>3,82%</t>
+  </si>
+  <si>
+    <t>6,78%</t>
+  </si>
+  <si>
+    <t>7,85%</t>
+  </si>
+  <si>
+    <t>6,59%</t>
+  </si>
+  <si>
+    <t>94,74%</t>
+  </si>
+  <si>
+    <t>93,22%</t>
+  </si>
+  <si>
+    <t>96,18%</t>
+  </si>
+  <si>
+    <t>92,15%</t>
+  </si>
+  <si>
+    <t>93,41%</t>
+  </si>
+  <si>
+    <t>7,89%</t>
+  </si>
+  <si>
+    <t>6,02%</t>
+  </si>
+  <si>
+    <t>10,49%</t>
+  </si>
+  <si>
+    <t>10,1%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>12,67%</t>
+  </si>
+  <si>
+    <t>9,1%</t>
+  </si>
+  <si>
+    <t>7,11%</t>
+  </si>
+  <si>
+    <t>10,85%</t>
+  </si>
+  <si>
+    <t>92,11%</t>
+  </si>
+  <si>
+    <t>89,51%</t>
+  </si>
+  <si>
+    <t>93,98%</t>
+  </si>
+  <si>
+    <t>89,9%</t>
+  </si>
+  <si>
+    <t>87,33%</t>
+  </si>
+  <si>
+    <t>93,09%</t>
+  </si>
+  <si>
+    <t>90,9%</t>
+  </si>
+  <si>
+    <t>89,15%</t>
+  </si>
+  <si>
+    <t>92,89%</t>
+  </si>
+  <si>
+    <t>5,29%</t>
+  </si>
+  <si>
+    <t>4,06%</t>
+  </si>
+  <si>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>12,29%</t>
+  </si>
+  <si>
+    <t>10,53%</t>
+  </si>
+  <si>
+    <t>14,63%</t>
+  </si>
+  <si>
+    <t>8,0%</t>
+  </si>
+  <si>
+    <t>10,37%</t>
+  </si>
+  <si>
+    <t>94,71%</t>
+  </si>
+  <si>
+    <t>93,15%</t>
+  </si>
+  <si>
+    <t>95,94%</t>
+  </si>
+  <si>
+    <t>87,71%</t>
+  </si>
+  <si>
+    <t>85,37%</t>
+  </si>
+  <si>
+    <t>89,47%</t>
+  </si>
+  <si>
+    <t>89,63%</t>
+  </si>
+  <si>
+    <t>92,0%</t>
   </si>
   <si>
     <t>5,89%</t>
   </si>
   <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>3,35%</t>
-  </si>
-  <si>
-    <t>7,2%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
-  </si>
-  <si>
-    <t>5,87%</t>
-  </si>
-  <si>
-    <t>95,93%</t>
+    <t>5,05%</t>
+  </si>
+  <si>
+    <t>6,8%</t>
+  </si>
+  <si>
+    <t>10,78%</t>
+  </si>
+  <si>
+    <t>9,59%</t>
+  </si>
+  <si>
+    <t>7,74%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
   </si>
   <si>
     <t>94,11%</t>
   </si>
   <si>
-    <t>97,34%</t>
-  </si>
-  <si>
-    <t>95,07%</t>
-  </si>
-  <si>
-    <t>92,8%</t>
-  </si>
-  <si>
-    <t>96,65%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>94,13%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>5,67%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>7,49%</t>
-  </si>
-  <si>
-    <t>94,75%</t>
-  </si>
-  <si>
-    <t>93,09%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>92,7%</t>
-  </si>
-  <si>
-    <t>90,69%</t>
-  </si>
-  <si>
-    <t>94,33%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
-  </si>
-  <si>
-    <t>92,51%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>8,22%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>9,87%</t>
-  </si>
-  <si>
-    <t>14,68%</t>
-  </si>
-  <si>
-    <t>7,8%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>91,78%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>87,77%</t>
-  </si>
-  <si>
-    <t>85,32%</t>
-  </si>
-  <si>
-    <t>90,13%</t>
-  </si>
-  <si>
-    <t>89,01%</t>
-  </si>
-  <si>
-    <t>92,2%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>4,05%</t>
-  </si>
-  <si>
-    <t>6,99%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>11,38%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>94,69%</t>
-  </si>
-  <si>
-    <t>93,01%</t>
-  </si>
-  <si>
-    <t>95,95%</t>
-  </si>
-  <si>
-    <t>90,67%</t>
-  </si>
-  <si>
-    <t>88,62%</t>
-  </si>
-  <si>
-    <t>92,58%</t>
-  </si>
-  <si>
-    <t>91,54%</t>
-  </si>
-  <si>
-    <t>93,68%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>4,49%</t>
-  </si>
-  <si>
-    <t>6,03%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>7,55%</t>
-  </si>
-  <si>
-    <t>9,45%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>94,8%</t>
-  </si>
-  <si>
-    <t>93,97%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
-  </si>
-  <si>
-    <t>91,51%</t>
-  </si>
-  <si>
-    <t>90,55%</t>
-  </si>
-  <si>
-    <t>92,45%</t>
-  </si>
-  <si>
-    <t>93,13%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que dejo de hacer algunas tareas por problemas emocionales en 2012 (Tasa respuesta: 99,94%)</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>12,43%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>7,68%</t>
-  </si>
-  <si>
-    <t>21,03%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>6,75%</t>
-  </si>
-  <si>
-    <t>14,84%</t>
-  </si>
-  <si>
-    <t>92,84%</t>
-  </si>
-  <si>
-    <t>87,57%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>86,28%</t>
-  </si>
-  <si>
-    <t>78,97%</t>
-  </si>
-  <si>
-    <t>92,32%</t>
-  </si>
-  <si>
-    <t>89,61%</t>
-  </si>
-  <si>
-    <t>85,16%</t>
-  </si>
-  <si>
-    <t>93,25%</t>
-  </si>
-  <si>
-    <t>4,35%</t>
-  </si>
-  <si>
-    <t>8,73%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>12,11%</t>
-  </si>
-  <si>
-    <t>18,2%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>9,06%</t>
-  </si>
-  <si>
-    <t>12,59%</t>
-  </si>
-  <si>
-    <t>91,27%</t>
-  </si>
-  <si>
-    <t>95,65%</t>
-  </si>
-  <si>
-    <t>85,03%</t>
-  </si>
-  <si>
-    <t>81,8%</t>
-  </si>
-  <si>
-    <t>87,89%</t>
-  </si>
-  <si>
-    <t>89,34%</t>
-  </si>
-  <si>
-    <t>87,41%</t>
-  </si>
-  <si>
-    <t>90,94%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
-  </si>
-  <si>
-    <t>9,03%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>12,37%</t>
-  </si>
-  <si>
-    <t>16,88%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>12,46%</t>
-  </si>
-  <si>
-    <t>92,63%</t>
-  </si>
-  <si>
-    <t>90,97%</t>
-  </si>
-  <si>
-    <t>94,19%</t>
-  </si>
-  <si>
-    <t>85,44%</t>
-  </si>
-  <si>
-    <t>83,12%</t>
-  </si>
-  <si>
-    <t>87,63%</t>
-  </si>
-  <si>
-    <t>87,54%</t>
-  </si>
-  <si>
-    <t>90,47%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>10,56%</t>
-  </si>
-  <si>
-    <t>15,58%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>7,88%</t>
-  </si>
-  <si>
-    <t>10,9%</t>
-  </si>
-  <si>
-    <t>94,29%</t>
-  </si>
-  <si>
-    <t>91,97%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>86,97%</t>
-  </si>
-  <si>
-    <t>84,42%</t>
-  </si>
-  <si>
-    <t>89,44%</t>
-  </si>
-  <si>
-    <t>90,59%</t>
-  </si>
-  <si>
-    <t>89,1%</t>
-  </si>
-  <si>
-    <t>92,12%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>15,67%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>11,94%</t>
-  </si>
-  <si>
-    <t>92,96%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>86,5%</t>
-  </si>
-  <si>
-    <t>84,33%</t>
-  </si>
-  <si>
-    <t>88,7%</t>
-  </si>
-  <si>
-    <t>89,56%</t>
-  </si>
-  <si>
-    <t>88,06%</t>
-  </si>
-  <si>
-    <t>90,9%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>5,91%</t>
-  </si>
-  <si>
-    <t>7,6%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>12,9%</t>
-  </si>
-  <si>
-    <t>15,31%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>9,68%</t>
-  </si>
-  <si>
-    <t>11,23%</t>
-  </si>
-  <si>
-    <t>93,27%</t>
-  </si>
-  <si>
-    <t>92,4%</t>
-  </si>
-  <si>
-    <t>94,09%</t>
-  </si>
-  <si>
-    <t>86,05%</t>
-  </si>
-  <si>
-    <t>84,69%</t>
-  </si>
-  <si>
-    <t>87,1%</t>
-  </si>
-  <si>
-    <t>89,59%</t>
-  </si>
-  <si>
-    <t>88,77%</t>
-  </si>
-  <si>
-    <t>90,32%</t>
-  </si>
-  <si>
-    <t>Población que dejo de hacer algunas tareas por problemas emocionales en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>14,13%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>6,74%</t>
-  </si>
-  <si>
-    <t>20,2%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>6,39%</t>
-  </si>
-  <si>
-    <t>15,0%</t>
-  </si>
-  <si>
-    <t>92,73%</t>
-  </si>
-  <si>
-    <t>85,87%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>88,05%</t>
-  </si>
-  <si>
-    <t>79,8%</t>
-  </si>
-  <si>
-    <t>93,26%</t>
-  </si>
-  <si>
-    <t>90,42%</t>
-  </si>
-  <si>
-    <t>85,0%</t>
-  </si>
-  <si>
-    <t>93,61%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>4,01%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>8,91%</t>
-  </si>
-  <si>
-    <t>14,14%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>10,45%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>95,99%</t>
-  </si>
-  <si>
-    <t>88,82%</t>
-  </si>
-  <si>
-    <t>85,86%</t>
-  </si>
-  <si>
-    <t>91,09%</t>
-  </si>
-  <si>
-    <t>91,52%</t>
-  </si>
-  <si>
-    <t>89,55%</t>
-  </si>
-  <si>
-    <t>92,98%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>12,64%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>6,13%</t>
-  </si>
-  <si>
-    <t>8,53%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>94,85%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>89,35%</t>
-  </si>
-  <si>
-    <t>87,36%</t>
-  </si>
-  <si>
-    <t>91,29%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
-  </si>
-  <si>
-    <t>91,47%</t>
-  </si>
-  <si>
-    <t>93,87%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>9,26%</t>
-  </si>
-  <si>
-    <t>14,12%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>6,83%</t>
-  </si>
-  <si>
-    <t>9,67%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
-  </si>
-  <si>
-    <t>85,88%</t>
-  </si>
-  <si>
-    <t>90,74%</t>
-  </si>
-  <si>
-    <t>91,85%</t>
-  </si>
-  <si>
-    <t>90,33%</t>
-  </si>
-  <si>
-    <t>93,17%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>8,69%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>8,01%</t>
-  </si>
-  <si>
-    <t>11,73%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>9,7%</t>
-  </si>
-  <si>
-    <t>93,23%</t>
-  </si>
-  <si>
-    <t>91,31%</t>
-  </si>
-  <si>
-    <t>90,2%</t>
-  </si>
-  <si>
-    <t>88,27%</t>
-  </si>
-  <si>
-    <t>91,99%</t>
-  </si>
-  <si>
-    <t>91,63%</t>
-  </si>
-  <si>
-    <t>90,3%</t>
-  </si>
-  <si>
-    <t>92,83%</t>
-  </si>
-  <si>
-    <t>4,6%</t>
-  </si>
-  <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>11,78%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>7,41%</t>
-  </si>
-  <si>
-    <t>8,84%</t>
-  </si>
-  <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>95,4%</t>
-  </si>
-  <si>
-    <t>89,33%</t>
-  </si>
-  <si>
-    <t>88,22%</t>
-  </si>
-  <si>
-    <t>90,44%</t>
-  </si>
-  <si>
-    <t>91,94%</t>
-  </si>
-  <si>
-    <t>91,16%</t>
-  </si>
-  <si>
-    <t>92,59%</t>
-  </si>
-  <si>
-    <t>Población que dejo de hacer algunas tareas por problemas emocionales en 2023 (Tasa respuesta: 99,9%)</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>1,97%</t>
-  </si>
-  <si>
-    <t>10,92%</t>
-  </si>
-  <si>
-    <t>6,44%</t>
-  </si>
-  <si>
-    <t>13,46%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>5,13%</t>
-  </si>
-  <si>
-    <t>10,77%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>89,08%</t>
-  </si>
-  <si>
-    <t>98,03%</t>
-  </si>
-  <si>
-    <t>86,54%</t>
-  </si>
-  <si>
-    <t>93,56%</t>
-  </si>
-  <si>
-    <t>92,31%</t>
-  </si>
-  <si>
-    <t>89,23%</t>
-  </si>
-  <si>
-    <t>94,87%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>7,94%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>7,98%</t>
-  </si>
-  <si>
-    <t>11,86%</t>
-  </si>
-  <si>
-    <t>7,77%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>9,12%</t>
-  </si>
-  <si>
-    <t>94,41%</t>
-  </si>
-  <si>
-    <t>92,06%</t>
-  </si>
-  <si>
-    <t>96,05%</t>
-  </si>
-  <si>
-    <t>90,22%</t>
-  </si>
-  <si>
-    <t>88,14%</t>
-  </si>
-  <si>
-    <t>92,02%</t>
-  </si>
-  <si>
-    <t>92,23%</t>
-  </si>
-  <si>
-    <t>90,88%</t>
-  </si>
-  <si>
-    <t>93,52%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>3,89%</t>
-  </si>
-  <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>9,04%</t>
-  </si>
-  <si>
-    <t>94,74%</t>
-  </si>
-  <si>
-    <t>92,95%</t>
-  </si>
-  <si>
-    <t>96,11%</t>
-  </si>
-  <si>
-    <t>91,21%</t>
-  </si>
-  <si>
-    <t>92,15%</t>
-  </si>
-  <si>
-    <t>90,96%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>6,0%</t>
-  </si>
-  <si>
-    <t>10,33%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>6,66%</t>
-  </si>
-  <si>
-    <t>12,62%</t>
-  </si>
-  <si>
-    <t>7,26%</t>
-  </si>
-  <si>
-    <t>10,91%</t>
-  </si>
-  <si>
-    <t>92,11%</t>
-  </si>
-  <si>
-    <t>89,67%</t>
-  </si>
-  <si>
-    <t>94,0%</t>
-  </si>
-  <si>
-    <t>89,9%</t>
-  </si>
-  <si>
-    <t>87,38%</t>
-  </si>
-  <si>
-    <t>93,34%</t>
-  </si>
-  <si>
-    <t>89,09%</t>
-  </si>
-  <si>
-    <t>92,74%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>4,02%</t>
-  </si>
-  <si>
-    <t>6,84%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>14,69%</t>
-  </si>
-  <si>
-    <t>7,93%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
-  </si>
-  <si>
-    <t>93,16%</t>
-  </si>
-  <si>
-    <t>95,98%</t>
-  </si>
-  <si>
-    <t>87,71%</t>
-  </si>
-  <si>
-    <t>85,31%</t>
-  </si>
-  <si>
-    <t>89,51%</t>
-  </si>
-  <si>
-    <t>92,07%</t>
-  </si>
-  <si>
-    <t>5,07%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>9,6%</t>
-  </si>
-  <si>
-    <t>11,85%</t>
-  </si>
-  <si>
-    <t>7,82%</t>
-  </si>
-  <si>
-    <t>9,23%</t>
-  </si>
-  <si>
-    <t>94,93%</t>
+    <t>93,2%</t>
+  </si>
+  <si>
+    <t>94,95%</t>
   </si>
   <si>
     <t>89,22%</t>
   </si>
   <si>
-    <t>88,15%</t>
-  </si>
-  <si>
-    <t>90,4%</t>
-  </si>
-  <si>
-    <t>90,77%</t>
-  </si>
-  <si>
-    <t>92,18%</t>
+    <t>90,41%</t>
+  </si>
+  <si>
+    <t>90,84%</t>
+  </si>
+  <si>
+    <t>92,26%</t>
   </si>
 </sst>
 </file>
@@ -1677,7 +1689,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3E150608-9698-4070-ADDE-505FC3ACE300}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8CE6036-3339-4587-A060-BA43CCFEF2FA}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2296,13 +2308,13 @@
         <v>126781</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>56</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2317,13 +2329,13 @@
         <v>635352</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
         <v>611</v>
@@ -2332,13 +2344,13 @@
         <v>600217</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>1210</v>
@@ -2347,13 +2359,13 @@
         <v>1235569</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>64</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2409,7 +2421,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2421,13 +2433,13 @@
         <v>50015</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H16" s="7">
         <v>94</v>
@@ -2436,13 +2448,13 @@
         <v>96881</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>76</v>
+        <v>93</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="M16" s="7">
         <v>144</v>
@@ -2451,13 +2463,13 @@
         <v>146896</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2472,13 +2484,13 @@
         <v>892207</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="H17" s="7">
         <v>903</v>
@@ -2487,13 +2499,13 @@
         <v>941731</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>85</v>
+        <v>103</v>
       </c>
       <c r="M17" s="7">
         <v>1847</v>
@@ -2502,13 +2514,13 @@
         <v>1833938</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2576,13 +2588,13 @@
         <v>170534</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>104</v>
+        <v>108</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>105</v>
+        <v>109</v>
       </c>
       <c r="H19" s="7">
         <v>277</v>
@@ -2591,13 +2603,13 @@
         <v>286810</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>106</v>
+        <v>110</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>107</v>
+        <v>111</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="M19" s="7">
         <v>445</v>
@@ -2606,13 +2618,13 @@
         <v>457343</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>109</v>
+        <v>113</v>
       </c>
       <c r="P19" s="7" t="s">
         <v>57</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>59</v>
+        <v>114</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -2624,16 +2636,16 @@
         <v>3046</v>
       </c>
       <c r="D20" s="7">
-        <v>3106009</v>
+        <v>3106010</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>112</v>
+        <v>117</v>
       </c>
       <c r="H20" s="7">
         <v>3020</v>
@@ -2642,25 +2654,25 @@
         <v>3092388</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>113</v>
+        <v>118</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>114</v>
+        <v>119</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>115</v>
+        <v>120</v>
       </c>
       <c r="M20" s="7">
         <v>6066</v>
       </c>
       <c r="N20" s="7">
-        <v>6198398</v>
+        <v>6198397</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>67</v>
+        <v>122</v>
       </c>
       <c r="Q20" s="7" t="s">
         <v>66</v>
@@ -2675,7 +2687,7 @@
         <v>3214</v>
       </c>
       <c r="D21" s="7">
-        <v>3276543</v>
+        <v>3276544</v>
       </c>
       <c r="E21" s="7" t="s">
         <v>30</v>
@@ -2705,7 +2717,7 @@
         <v>6511</v>
       </c>
       <c r="N21" s="7">
-        <v>6655741</v>
+        <v>6655740</v>
       </c>
       <c r="O21" s="7" t="s">
         <v>30</v>
@@ -2719,7 +2731,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -2740,7 +2752,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{780EF859-83E1-4C7F-9782-4ED4198DFDF0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61C84872-4D2E-4EB7-9AB2-88D76113086A}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2757,7 +2769,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>118</v>
+        <v>124</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2864,13 +2876,13 @@
         <v>8290</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>119</v>
+        <v>125</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>120</v>
+        <v>126</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>121</v>
+        <v>127</v>
       </c>
       <c r="H4" s="7">
         <v>14</v>
@@ -2879,13 +2891,13 @@
         <v>15357</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>122</v>
+        <v>128</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>123</v>
+        <v>129</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>124</v>
+        <v>130</v>
       </c>
       <c r="M4" s="7">
         <v>24</v>
@@ -2894,13 +2906,13 @@
         <v>23647</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>126</v>
+        <v>132</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>127</v>
+        <v>133</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2915,13 +2927,13 @@
         <v>107475</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>128</v>
+        <v>134</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>129</v>
+        <v>135</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>130</v>
+        <v>136</v>
       </c>
       <c r="H5" s="7">
         <v>85</v>
@@ -2930,13 +2942,13 @@
         <v>96548</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>131</v>
+        <v>137</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>132</v>
+        <v>138</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>133</v>
+        <v>139</v>
       </c>
       <c r="M5" s="7">
         <v>197</v>
@@ -2945,13 +2957,13 @@
         <v>204023</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>135</v>
+        <v>141</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>136</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3022,10 +3034,10 @@
         <v>70</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>137</v>
+        <v>108</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>138</v>
+        <v>143</v>
       </c>
       <c r="H7" s="7">
         <v>84</v>
@@ -3034,13 +3046,13 @@
         <v>87608</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>141</v>
+        <v>146</v>
       </c>
       <c r="M7" s="7">
         <v>118</v>
@@ -3049,13 +3061,13 @@
         <v>124999</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>143</v>
+        <v>148</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>144</v>
+        <v>149</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3070,13 +3082,13 @@
         <v>550313</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>145</v>
+        <v>150</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>146</v>
+        <v>117</v>
       </c>
       <c r="H8" s="7">
         <v>467</v>
@@ -3085,13 +3097,13 @@
         <v>497537</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>147</v>
+        <v>151</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>149</v>
+        <v>153</v>
       </c>
       <c r="M8" s="7">
         <v>985</v>
@@ -3100,13 +3112,13 @@
         <v>1047850</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>150</v>
+        <v>154</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>151</v>
+        <v>155</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>152</v>
+        <v>156</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3174,13 +3186,13 @@
         <v>74959</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>153</v>
+        <v>157</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>154</v>
+        <v>40</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="H10" s="7">
         <v>136</v>
@@ -3189,13 +3201,13 @@
         <v>150255</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="M10" s="7">
         <v>204</v>
@@ -3204,13 +3216,13 @@
         <v>225215</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>77</v>
+        <v>162</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>159</v>
+        <v>163</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3225,13 +3237,13 @@
         <v>941934</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>163</v>
+        <v>48</v>
       </c>
       <c r="H11" s="7">
         <v>804</v>
@@ -3240,13 +3252,13 @@
         <v>881929</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="M11" s="7">
         <v>1671</v>
@@ -3255,13 +3267,13 @@
         <v>1823862</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>84</v>
+        <v>170</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3329,13 +3341,13 @@
         <v>43270</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="H13" s="7">
         <v>93</v>
@@ -3344,13 +3356,13 @@
         <v>101091</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="M13" s="7">
         <v>129</v>
@@ -3359,13 +3371,13 @@
         <v>144361</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3380,13 +3392,13 @@
         <v>714353</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="H14" s="7">
         <v>611</v>
@@ -3395,13 +3407,13 @@
         <v>675028</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>181</v>
+        <v>185</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>182</v>
+        <v>186</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="M14" s="7">
         <v>1264</v>
@@ -3410,13 +3422,13 @@
         <v>1389381</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>184</v>
+        <v>188</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>185</v>
+        <v>189</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>186</v>
+        <v>190</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3472,7 +3484,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -3484,13 +3496,13 @@
         <v>66675</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>187</v>
+        <v>191</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>143</v>
+        <v>193</v>
       </c>
       <c r="H16" s="7">
         <v>135</v>
@@ -3499,13 +3511,13 @@
         <v>141898</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>189</v>
+        <v>194</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>190</v>
+        <v>195</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>191</v>
+        <v>196</v>
       </c>
       <c r="M16" s="7">
         <v>196</v>
@@ -3514,13 +3526,13 @@
         <v>208573</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>192</v>
+        <v>197</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>193</v>
+        <v>198</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>194</v>
+        <v>199</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3535,13 +3547,13 @@
         <v>880127</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>195</v>
+        <v>200</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>152</v>
+        <v>201</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>196</v>
+        <v>202</v>
       </c>
       <c r="H17" s="7">
         <v>867</v>
@@ -3550,13 +3562,13 @@
         <v>909058</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>197</v>
+        <v>203</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>198</v>
+        <v>204</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>199</v>
+        <v>205</v>
       </c>
       <c r="M17" s="7">
         <v>1715</v>
@@ -3565,13 +3577,13 @@
         <v>1789185</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>200</v>
+        <v>206</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>201</v>
+        <v>207</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>202</v>
+        <v>208</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3639,13 +3651,13 @@
         <v>230586</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>203</v>
+        <v>209</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>204</v>
+        <v>210</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>205</v>
+        <v>19</v>
       </c>
       <c r="H19" s="7">
         <v>462</v>
@@ -3654,13 +3666,13 @@
         <v>496210</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>206</v>
+        <v>211</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>207</v>
+        <v>212</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>208</v>
+        <v>213</v>
       </c>
       <c r="M19" s="7">
         <v>671</v>
@@ -3669,13 +3681,13 @@
         <v>726796</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>210</v>
+        <v>215</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>211</v>
+        <v>216</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -3690,13 +3702,13 @@
         <v>3194202</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>212</v>
+        <v>217</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>213</v>
+        <v>28</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>214</v>
+        <v>218</v>
       </c>
       <c r="H20" s="7">
         <v>2834</v>
@@ -3705,13 +3717,13 @@
         <v>3060099</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>215</v>
+        <v>219</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>216</v>
+        <v>220</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>217</v>
+        <v>221</v>
       </c>
       <c r="M20" s="7">
         <v>5832</v>
@@ -3720,13 +3732,13 @@
         <v>6254301</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>219</v>
+        <v>223</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>220</v>
+        <v>224</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3782,7 +3794,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -3803,7 +3815,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A8975AF-4F24-4C67-992D-8568C6998818}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BBD1DAD-C329-4777-9F8E-A904A63E417A}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3820,7 +3832,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>221</v>
+        <v>225</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3927,13 +3939,13 @@
         <v>8477</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>222</v>
+        <v>226</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>224</v>
+        <v>228</v>
       </c>
       <c r="H4" s="7">
         <v>12</v>
@@ -3942,13 +3954,13 @@
         <v>13550</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>225</v>
+        <v>229</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>226</v>
+        <v>230</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
       <c r="M4" s="7">
         <v>20</v>
@@ -3957,13 +3969,13 @@
         <v>22027</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>229</v>
+        <v>233</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3978,13 +3990,13 @@
         <v>108069</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>232</v>
+        <v>236</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>233</v>
+        <v>237</v>
       </c>
       <c r="H5" s="7">
         <v>103</v>
@@ -3993,13 +4005,13 @@
         <v>99810</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="M5" s="7">
         <v>208</v>
@@ -4008,13 +4020,13 @@
         <v>207879</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4082,13 +4094,13 @@
         <v>32248</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>241</v>
+        <v>245</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>171</v>
+        <v>246</v>
       </c>
       <c r="H7" s="7">
         <v>59</v>
@@ -4097,13 +4109,13 @@
         <v>62544</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>242</v>
+        <v>216</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>244</v>
+        <v>234</v>
       </c>
       <c r="M7" s="7">
         <v>90</v>
@@ -4112,13 +4124,13 @@
         <v>94792</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4133,13 +4145,13 @@
         <v>526006</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>179</v>
+        <v>252</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>249</v>
+        <v>253</v>
       </c>
       <c r="H8" s="7">
         <v>492</v>
@@ -4148,13 +4160,13 @@
         <v>496935</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>250</v>
+        <v>223</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="M8" s="7">
         <v>1000</v>
@@ -4163,13 +4175,13 @@
         <v>1022941</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4237,13 +4249,13 @@
         <v>39970</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>258</v>
+        <v>107</v>
       </c>
       <c r="H10" s="7">
         <v>98</v>
@@ -4252,13 +4264,13 @@
         <v>111023</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="M10" s="7">
         <v>138</v>
@@ -4267,13 +4279,13 @@
         <v>150992</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4291,10 +4303,10 @@
         <v>265</v>
       </c>
       <c r="F11" s="7" t="s">
+        <v>115</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>266</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>267</v>
       </c>
       <c r="H11" s="7">
         <v>879</v>
@@ -4303,13 +4315,13 @@
         <v>931890</v>
       </c>
       <c r="J11" s="7" t="s">
+        <v>267</v>
+      </c>
+      <c r="K11" s="7" t="s">
         <v>268</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>269</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>270</v>
       </c>
       <c r="M11" s="7">
         <v>1790</v>
@@ -4318,13 +4330,13 @@
         <v>1914352</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>270</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>269</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>271</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>272</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>273</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4392,13 +4404,13 @@
         <v>37249</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>272</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>273</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>274</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>275</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>126</v>
       </c>
       <c r="H13" s="7">
         <v>79</v>
@@ -4407,7 +4419,7 @@
         <v>88679</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>190</v>
+        <v>275</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>276</v>
@@ -4425,10 +4437,10 @@
         <v>278</v>
       </c>
       <c r="P13" s="7" t="s">
+        <v>209</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>279</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>280</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4443,10 +4455,10 @@
         <v>722303</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>280</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>281</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>136</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>282</v>
@@ -4458,13 +4470,13 @@
         <v>696332</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>199</v>
+        <v>283</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="M14" s="7">
         <v>1320</v>
@@ -4473,13 +4485,13 @@
         <v>1418634</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>287</v>
+        <v>217</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4535,7 +4547,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -4550,10 +4562,10 @@
         <v>288</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>103</v>
+        <v>289</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="H16" s="7">
         <v>91</v>
@@ -4562,13 +4574,13 @@
         <v>102316</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="M16" s="7">
         <v>152</v>
@@ -4577,13 +4589,13 @@
         <v>165780</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>295</v>
+        <v>215</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4604,7 +4616,7 @@
         <v>297</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>110</v>
+        <v>298</v>
       </c>
       <c r="H17" s="7">
         <v>868</v>
@@ -4613,13 +4625,13 @@
         <v>941463</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="M17" s="7">
         <v>1739</v>
@@ -4628,10 +4640,10 @@
         <v>1815566</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>302</v>
+        <v>224</v>
       </c>
       <c r="Q17" s="7" t="s">
         <v>303</v>
@@ -4702,13 +4714,13 @@
         <v>181408</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>188</v>
+        <v>304</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="H19" s="7">
         <v>339</v>
@@ -4717,13 +4729,13 @@
         <v>378113</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="M19" s="7">
         <v>512</v>
@@ -4732,10 +4744,10 @@
         <v>559521</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>310</v>
+        <v>95</v>
       </c>
       <c r="Q19" s="7" t="s">
         <v>311</v>
@@ -4753,13 +4765,13 @@
         <v>3212942</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>196</v>
+        <v>312</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="H20" s="7">
         <v>2999</v>
@@ -4768,13 +4780,13 @@
         <v>3166429</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="M20" s="7">
         <v>6057</v>
@@ -4783,13 +4795,13 @@
         <v>6379371</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>319</v>
+        <v>104</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -4845,7 +4857,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -4866,7 +4878,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3D3F9BB2-564D-41AC-8CFB-E075E3FF634D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4F1DE3D-A1CD-42A3-82D9-8657A82C0F3D}">
   <dimension ref="A1:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5005,13 +5017,13 @@
         <v>12438</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>307</v>
+        <v>324</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="M4" s="7">
         <v>32</v>
@@ -5020,13 +5032,13 @@
         <v>17841</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5041,13 +5053,13 @@
         <v>96579</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="H5" s="7">
         <v>215</v>
@@ -5056,13 +5068,13 @@
         <v>117621</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>316</v>
+        <v>333</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>332</v>
+        <v>334</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>333</v>
+        <v>335</v>
       </c>
       <c r="M5" s="7">
         <v>327</v>
@@ -5071,13 +5083,13 @@
         <v>214200</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>334</v>
+        <v>336</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>335</v>
+        <v>337</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>336</v>
+        <v>338</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5145,13 +5157,13 @@
         <v>30745</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>337</v>
+        <v>339</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>338</v>
+        <v>340</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>339</v>
+        <v>341</v>
       </c>
       <c r="H7" s="7">
         <v>103</v>
@@ -5160,13 +5172,13 @@
         <v>58009</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>340</v>
+        <v>342</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>341</v>
+        <v>292</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="M7" s="7">
         <v>138</v>
@@ -5175,13 +5187,13 @@
         <v>88754</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5196,13 +5208,13 @@
         <v>519078</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="H8" s="7">
         <v>893</v>
@@ -5211,13 +5223,13 @@
         <v>534953</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>351</v>
+        <v>301</v>
       </c>
       <c r="M8" s="7">
         <v>1470</v>
@@ -5315,13 +5327,13 @@
         <v>109984</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>125</v>
+        <v>131</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>358</v>
+        <v>261</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>140</v>
+        <v>323</v>
       </c>
       <c r="M10" s="7">
         <v>227</v>
@@ -5330,13 +5342,13 @@
         <v>164661</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>358</v>
+      </c>
+      <c r="P10" s="7" t="s">
         <v>359</v>
       </c>
-      <c r="P10" s="7" t="s">
-        <v>288</v>
-      </c>
       <c r="Q10" s="7" t="s">
-        <v>360</v>
+        <v>148</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5351,13 +5363,13 @@
         <v>984571</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>360</v>
+      </c>
+      <c r="F11" s="7" t="s">
         <v>361</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="G11" s="7" t="s">
         <v>362</v>
-      </c>
-      <c r="G11" s="7" t="s">
-        <v>363</v>
       </c>
       <c r="H11" s="7">
         <v>1349</v>
@@ -5366,13 +5378,13 @@
         <v>948770</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>134</v>
+        <v>140</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>149</v>
+        <v>331</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>364</v>
+        <v>269</v>
       </c>
       <c r="M11" s="7">
         <v>2252</v>
@@ -5381,13 +5393,13 @@
         <v>1933341</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>366</v>
+        <v>156</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>296</v>
+        <v>364</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5455,13 +5467,13 @@
         <v>57521</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>367</v>
-      </c>
-      <c r="F13" s="7" t="s">
-        <v>368</v>
-      </c>
-      <c r="G13" s="7" t="s">
-        <v>369</v>
       </c>
       <c r="H13" s="7">
         <v>118</v>
@@ -5470,13 +5482,13 @@
         <v>88346</v>
       </c>
       <c r="J13" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="K13" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="L13" s="7" t="s">
         <v>370</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>371</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>372</v>
       </c>
       <c r="M13" s="7">
         <v>171</v>
@@ -5485,13 +5497,13 @@
         <v>145867</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>193</v>
+        <v>371</v>
       </c>
       <c r="P13" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>373</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>374</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5506,13 +5518,13 @@
         <v>671251</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>374</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>375</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="G14" s="7" t="s">
         <v>376</v>
-      </c>
-      <c r="G14" s="7" t="s">
-        <v>377</v>
       </c>
       <c r="H14" s="7">
         <v>929</v>
@@ -5521,13 +5533,13 @@
         <v>786025</v>
       </c>
       <c r="J14" s="7" t="s">
+        <v>377</v>
+      </c>
+      <c r="K14" s="7" t="s">
         <v>378</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>379</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>380</v>
       </c>
       <c r="M14" s="7">
         <v>1552</v>
@@ -5536,7 +5548,7 @@
         <v>1457275</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>202</v>
+        <v>380</v>
       </c>
       <c r="P14" s="7" t="s">
         <v>381</v>
@@ -5598,7 +5610,7 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -5628,10 +5640,10 @@
         <v>386</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>173</v>
+        <v>387</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>387</v>
+        <v>388</v>
       </c>
       <c r="M16" s="7">
         <v>254</v>
@@ -5640,13 +5652,13 @@
         <v>192313</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>193</v>
+        <v>371</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5661,13 +5673,13 @@
         <v>913123</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>391</v>
+        <v>392</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="H17" s="7">
         <v>1368</v>
@@ -5676,13 +5688,13 @@
         <v>1008496</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>183</v>
+        <v>396</v>
       </c>
       <c r="M17" s="7">
         <v>2311</v>
@@ -5691,13 +5703,13 @@
         <v>1921619</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>202</v>
+        <v>380</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>395</v>
+        <v>397</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>396</v>
+        <v>398</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5765,13 +5777,13 @@
         <v>199340</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>34</v>
+        <v>399</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>226</v>
+        <v>401</v>
       </c>
       <c r="H19" s="7">
         <v>606</v>
@@ -5780,13 +5792,13 @@
         <v>410097</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>398</v>
+        <v>402</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>400</v>
+        <v>309</v>
       </c>
       <c r="M19" s="7">
         <v>822</v>
@@ -5795,13 +5807,13 @@
         <v>609436</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
@@ -5816,13 +5828,13 @@
         <v>3184602</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>42</v>
+        <v>406</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>236</v>
+        <v>407</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>403</v>
+        <v>408</v>
       </c>
       <c r="H20" s="7">
         <v>4754</v>
@@ -5831,13 +5843,13 @@
         <v>3395864</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>404</v>
+        <v>409</v>
       </c>
       <c r="K20" s="7" t="s">
-        <v>405</v>
+        <v>316</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>406</v>
+        <v>410</v>
       </c>
       <c r="M20" s="7">
         <v>7912</v>
@@ -5846,13 +5858,13 @@
         <v>6580466</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>407</v>
+        <v>411</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>408</v>
+        <v>412</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5908,7 +5920,7 @@
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>117</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P1002-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P1002-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27425"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{524FC31A-B9EA-46A7-8816-5477A99F1196}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5E31B866-1FB1-496F-8D05-3A1F94A1D51D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{F6D9E77C-8E42-46B5-A581-BB78B9F890C0}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{6D5DB7ED-4585-4B51-88AB-B424AFE2FE19}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="413">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="700" uniqueCount="354">
   <si>
     <t>Población que dejo de hacer algunas tareas por problemas emocionales en 2007 (Tasa respuesta: 100,0%)</t>
   </si>
@@ -68,1216 +68,1039 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>7,56%</t>
-  </si>
-  <si>
-    <t>6,46%</t>
-  </si>
-  <si>
-    <t>2,59%</t>
-  </si>
-  <si>
-    <t>11,46%</t>
-  </si>
-  <si>
-    <t>4,64%</t>
-  </si>
-  <si>
-    <t>2,51%</t>
+    <t>3,87%</t>
+  </si>
+  <si>
+    <t>2,71%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>5,18%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>7,07%</t>
+  </si>
+  <si>
+    <t>4,52%</t>
+  </si>
+  <si>
+    <t>3,57%</t>
+  </si>
+  <si>
+    <t>5,72%</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>96,13%</t>
+  </si>
+  <si>
+    <t>94,54%</t>
+  </si>
+  <si>
+    <t>97,29%</t>
+  </si>
+  <si>
+    <t>94,82%</t>
+  </si>
+  <si>
+    <t>92,93%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>95,48%</t>
+  </si>
+  <si>
+    <t>94,28%</t>
+  </si>
+  <si>
+    <t>96,43%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>5,25%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>6,88%</t>
+  </si>
+  <si>
+    <t>7,3%</t>
+  </si>
+  <si>
+    <t>5,66%</t>
+  </si>
+  <si>
+    <t>9,13%</t>
+  </si>
+  <si>
+    <t>6,28%</t>
+  </si>
+  <si>
+    <t>7,4%</t>
+  </si>
+  <si>
+    <t>94,75%</t>
+  </si>
+  <si>
+    <t>93,12%</t>
+  </si>
+  <si>
+    <t>96,03%</t>
+  </si>
+  <si>
+    <t>92,7%</t>
+  </si>
+  <si>
+    <t>90,87%</t>
+  </si>
+  <si>
+    <t>94,34%</t>
+  </si>
+  <si>
+    <t>93,72%</t>
+  </si>
+  <si>
+    <t>92,6%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>6,36%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>8,51%</t>
+  </si>
+  <si>
+    <t>12,23%</t>
+  </si>
+  <si>
+    <t>9,95%</t>
+  </si>
+  <si>
+    <t>14,8%</t>
+  </si>
+  <si>
+    <t>9,31%</t>
+  </si>
+  <si>
+    <t>7,86%</t>
+  </si>
+  <si>
+    <t>10,94%</t>
+  </si>
+  <si>
+    <t>93,64%</t>
+  </si>
+  <si>
+    <t>91,49%</t>
+  </si>
+  <si>
+    <t>95,41%</t>
+  </si>
+  <si>
+    <t>87,77%</t>
+  </si>
+  <si>
+    <t>85,2%</t>
+  </si>
+  <si>
+    <t>90,05%</t>
+  </si>
+  <si>
+    <t>90,69%</t>
+  </si>
+  <si>
+    <t>89,06%</t>
+  </si>
+  <si>
+    <t>92,14%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>5,31%</t>
+  </si>
+  <si>
+    <t>4,0%</t>
+  </si>
+  <si>
+    <t>7,0%</t>
+  </si>
+  <si>
+    <t>9,33%</t>
+  </si>
+  <si>
+    <t>7,65%</t>
+  </si>
+  <si>
+    <t>11,22%</t>
+  </si>
+  <si>
+    <t>7,42%</t>
+  </si>
+  <si>
+    <t>6,32%</t>
+  </si>
+  <si>
+    <t>8,71%</t>
+  </si>
+  <si>
+    <t>94,69%</t>
+  </si>
+  <si>
+    <t>93,0%</t>
+  </si>
+  <si>
+    <t>96,0%</t>
+  </si>
+  <si>
+    <t>90,67%</t>
+  </si>
+  <si>
+    <t>88,78%</t>
+  </si>
+  <si>
+    <t>92,35%</t>
+  </si>
+  <si>
+    <t>92,58%</t>
+  </si>
+  <si>
+    <t>91,29%</t>
+  </si>
+  <si>
+    <t>93,68%</t>
+  </si>
+  <si>
+    <t>5,2%</t>
+  </si>
+  <si>
+    <t>4,53%</t>
+  </si>
+  <si>
+    <t>6,07%</t>
+  </si>
+  <si>
+    <t>8,49%</t>
+  </si>
+  <si>
+    <t>7,59%</t>
+  </si>
+  <si>
+    <t>9,47%</t>
+  </si>
+  <si>
+    <t>6,87%</t>
+  </si>
+  <si>
+    <t>7,57%</t>
+  </si>
+  <si>
+    <t>94,8%</t>
+  </si>
+  <si>
+    <t>93,93%</t>
+  </si>
+  <si>
+    <t>95,47%</t>
+  </si>
+  <si>
+    <t>91,51%</t>
+  </si>
+  <si>
+    <t>90,53%</t>
+  </si>
+  <si>
+    <t>92,41%</t>
+  </si>
+  <si>
+    <t>93,13%</t>
+  </si>
+  <si>
+    <t>92,43%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
+  </si>
+  <si>
+    <t>Población que dejo de hacer algunas tareas por problemas emocionales en 2012 (Tasa respuesta: 99,94%)</t>
+  </si>
+  <si>
+    <t>6,49%</t>
+  </si>
+  <si>
+    <t>4,56%</t>
+  </si>
+  <si>
+    <t>8,76%</t>
+  </si>
+  <si>
+    <t>14,77%</t>
+  </si>
+  <si>
+    <t>11,96%</t>
+  </si>
+  <si>
+    <t>17,48%</t>
+  </si>
+  <si>
+    <t>10,61%</t>
+  </si>
+  <si>
+    <t>9,16%</t>
+  </si>
+  <si>
+    <t>12,45%</t>
+  </si>
+  <si>
+    <t>93,51%</t>
+  </si>
+  <si>
+    <t>91,24%</t>
+  </si>
+  <si>
+    <t>95,44%</t>
+  </si>
+  <si>
+    <t>85,23%</t>
+  </si>
+  <si>
+    <t>82,52%</t>
+  </si>
+  <si>
+    <t>88,04%</t>
+  </si>
+  <si>
+    <t>89,39%</t>
+  </si>
+  <si>
+    <t>87,55%</t>
+  </si>
+  <si>
+    <t>90,84%</t>
+  </si>
+  <si>
+    <t>7,37%</t>
+  </si>
+  <si>
+    <t>5,81%</t>
+  </si>
+  <si>
+    <t>9,15%</t>
+  </si>
+  <si>
+    <t>14,56%</t>
+  </si>
+  <si>
+    <t>12,44%</t>
+  </si>
+  <si>
+    <t>16,94%</t>
+  </si>
+  <si>
+    <t>10,99%</t>
+  </si>
+  <si>
+    <t>9,54%</t>
+  </si>
+  <si>
+    <t>12,33%</t>
+  </si>
+  <si>
+    <t>92,63%</t>
+  </si>
+  <si>
+    <t>90,85%</t>
+  </si>
+  <si>
+    <t>94,19%</t>
+  </si>
+  <si>
+    <t>85,44%</t>
+  </si>
+  <si>
+    <t>83,06%</t>
+  </si>
+  <si>
+    <t>87,56%</t>
+  </si>
+  <si>
+    <t>89,01%</t>
+  </si>
+  <si>
+    <t>87,67%</t>
+  </si>
+  <si>
+    <t>90,46%</t>
+  </si>
+  <si>
+    <t>5,71%</t>
+  </si>
+  <si>
+    <t>4,2%</t>
+  </si>
+  <si>
+    <t>7,96%</t>
+  </si>
+  <si>
+    <t>13,03%</t>
+  </si>
+  <si>
+    <t>10,74%</t>
+  </si>
+  <si>
+    <t>15,64%</t>
+  </si>
+  <si>
+    <t>9,41%</t>
+  </si>
+  <si>
+    <t>8,02%</t>
+  </si>
+  <si>
+    <t>11,06%</t>
+  </si>
+  <si>
+    <t>94,29%</t>
+  </si>
+  <si>
+    <t>92,04%</t>
+  </si>
+  <si>
+    <t>95,8%</t>
+  </si>
+  <si>
+    <t>86,97%</t>
+  </si>
+  <si>
+    <t>84,36%</t>
+  </si>
+  <si>
+    <t>89,26%</t>
+  </si>
+  <si>
+    <t>90,59%</t>
+  </si>
+  <si>
+    <t>88,94%</t>
+  </si>
+  <si>
+    <t>91,98%</t>
+  </si>
+  <si>
+    <t>7,04%</t>
+  </si>
+  <si>
+    <t>5,36%</t>
+  </si>
+  <si>
+    <t>8,92%</t>
+  </si>
+  <si>
+    <t>13,5%</t>
+  </si>
+  <si>
+    <t>11,53%</t>
+  </si>
+  <si>
+    <t>15,87%</t>
+  </si>
+  <si>
+    <t>10,44%</t>
+  </si>
+  <si>
+    <t>8,97%</t>
+  </si>
+  <si>
+    <t>11,87%</t>
+  </si>
+  <si>
+    <t>92,96%</t>
+  </si>
+  <si>
+    <t>91,08%</t>
+  </si>
+  <si>
+    <t>94,64%</t>
+  </si>
+  <si>
+    <t>86,5%</t>
+  </si>
+  <si>
+    <t>84,13%</t>
+  </si>
+  <si>
+    <t>88,47%</t>
+  </si>
+  <si>
+    <t>89,56%</t>
+  </si>
+  <si>
+    <t>88,13%</t>
+  </si>
+  <si>
+    <t>91,03%</t>
+  </si>
+  <si>
+    <t>6,73%</t>
+  </si>
+  <si>
+    <t>5,94%</t>
   </si>
   <si>
     <t>7,73%</t>
   </si>
   <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>92,44%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>93,54%</t>
-  </si>
-  <si>
-    <t>88,54%</t>
-  </si>
-  <si>
-    <t>97,41%</t>
-  </si>
-  <si>
-    <t>95,36%</t>
+    <t>13,95%</t>
+  </si>
+  <si>
+    <t>12,89%</t>
+  </si>
+  <si>
+    <t>15,13%</t>
+  </si>
+  <si>
+    <t>10,41%</t>
+  </si>
+  <si>
+    <t>9,71%</t>
+  </si>
+  <si>
+    <t>11,18%</t>
+  </si>
+  <si>
+    <t>93,27%</t>
   </si>
   <si>
     <t>92,27%</t>
   </si>
   <si>
-    <t>97,49%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
+    <t>94,06%</t>
+  </si>
+  <si>
+    <t>86,05%</t>
+  </si>
+  <si>
+    <t>84,87%</t>
+  </si>
+  <si>
+    <t>87,11%</t>
+  </si>
+  <si>
+    <t>89,59%</t>
+  </si>
+  <si>
+    <t>88,82%</t>
+  </si>
+  <si>
+    <t>90,29%</t>
+  </si>
+  <si>
+    <t>Población que dejo de hacer algunas tareas por problemas emocionales en 2016 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>6,04%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>7,95%</t>
+  </si>
+  <si>
+    <t>11,31%</t>
+  </si>
+  <si>
+    <t>9,04%</t>
+  </si>
+  <si>
+    <t>14,04%</t>
+  </si>
+  <si>
+    <t>8,67%</t>
+  </si>
+  <si>
+    <t>7,24%</t>
+  </si>
+  <si>
+    <t>10,39%</t>
+  </si>
+  <si>
+    <t>93,96%</t>
+  </si>
+  <si>
+    <t>92,05%</t>
+  </si>
+  <si>
+    <t>95,63%</t>
+  </si>
+  <si>
+    <t>88,69%</t>
+  </si>
+  <si>
+    <t>85,96%</t>
+  </si>
+  <si>
+    <t>90,96%</t>
+  </si>
+  <si>
+    <t>91,33%</t>
+  </si>
+  <si>
+    <t>89,61%</t>
+  </si>
+  <si>
+    <t>92,76%</t>
+  </si>
+  <si>
+    <t>3,91%</t>
+  </si>
+  <si>
+    <t>2,79%</t>
+  </si>
+  <si>
+    <t>10,65%</t>
+  </si>
+  <si>
+    <t>8,62%</t>
+  </si>
+  <si>
+    <t>12,61%</t>
+  </si>
+  <si>
+    <t>7,31%</t>
+  </si>
+  <si>
+    <t>6,18%</t>
+  </si>
+  <si>
+    <t>96,09%</t>
+  </si>
+  <si>
+    <t>97,21%</t>
+  </si>
+  <si>
+    <t>89,35%</t>
+  </si>
+  <si>
+    <t>87,39%</t>
+  </si>
+  <si>
+    <t>91,38%</t>
+  </si>
+  <si>
+    <t>92,69%</t>
+  </si>
+  <si>
+    <t>93,82%</t>
+  </si>
+  <si>
+    <t>4,9%</t>
+  </si>
+  <si>
+    <t>3,34%</t>
+  </si>
+  <si>
+    <t>6,9%</t>
+  </si>
+  <si>
+    <t>11,3%</t>
+  </si>
+  <si>
+    <t>9,19%</t>
+  </si>
+  <si>
+    <t>13,92%</t>
+  </si>
+  <si>
+    <t>8,15%</t>
+  </si>
+  <si>
+    <t>9,61%</t>
+  </si>
+  <si>
+    <t>95,1%</t>
+  </si>
+  <si>
+    <t>93,1%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>88,7%</t>
+  </si>
+  <si>
+    <t>86,08%</t>
+  </si>
+  <si>
+    <t>90,81%</t>
+  </si>
+  <si>
+    <t>91,85%</t>
+  </si>
+  <si>
+    <t>90,39%</t>
+  </si>
+  <si>
+    <t>6,77%</t>
+  </si>
+  <si>
+    <t>5,19%</t>
+  </si>
+  <si>
+    <t>8,79%</t>
+  </si>
+  <si>
+    <t>9,8%</t>
+  </si>
+  <si>
+    <t>8,09%</t>
+  </si>
+  <si>
+    <t>11,98%</t>
+  </si>
+  <si>
+    <t>8,37%</t>
+  </si>
+  <si>
+    <t>7,17%</t>
+  </si>
+  <si>
+    <t>93,23%</t>
+  </si>
+  <si>
+    <t>91,21%</t>
+  </si>
+  <si>
+    <t>94,81%</t>
+  </si>
+  <si>
+    <t>90,2%</t>
+  </si>
+  <si>
+    <t>88,02%</t>
+  </si>
+  <si>
+    <t>91,91%</t>
+  </si>
+  <si>
+    <t>91,63%</t>
+  </si>
+  <si>
+    <t>92,83%</t>
+  </si>
+  <si>
+    <t>5,34%</t>
+  </si>
+  <si>
+    <t>4,66%</t>
+  </si>
+  <si>
+    <t>6,21%</t>
+  </si>
+  <si>
+    <t>10,67%</t>
+  </si>
+  <si>
+    <t>9,53%</t>
+  </si>
+  <si>
+    <t>11,84%</t>
+  </si>
+  <si>
+    <t>8,06%</t>
+  </si>
+  <si>
+    <t>8,75%</t>
+  </si>
+  <si>
+    <t>94,66%</t>
+  </si>
+  <si>
+    <t>93,79%</t>
+  </si>
+  <si>
+    <t>95,34%</t>
+  </si>
+  <si>
+    <t>89,33%</t>
+  </si>
+  <si>
+    <t>88,16%</t>
+  </si>
+  <si>
+    <t>90,47%</t>
+  </si>
+  <si>
+    <t>91,94%</t>
+  </si>
+  <si>
+    <t>91,25%</t>
+  </si>
+  <si>
+    <t>Población que dejo de hacer algunas tareas por problemas emocionales en 2023 (Tasa respuesta: 99,9%)</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>3,76%</t>
+  </si>
+  <si>
+    <t>7,29%</t>
+  </si>
+  <si>
+    <t>9,5%</t>
+  </si>
+  <si>
+    <t>7,81%</t>
+  </si>
+  <si>
+    <t>11,33%</t>
+  </si>
+  <si>
+    <t>7,45%</t>
+  </si>
+  <si>
+    <t>6,39%</t>
+  </si>
+  <si>
+    <t>8,73%</t>
+  </si>
+  <si>
+    <t>94,73%</t>
+  </si>
+  <si>
+    <t>92,71%</t>
+  </si>
+  <si>
+    <t>96,24%</t>
+  </si>
+  <si>
+    <t>90,5%</t>
+  </si>
+  <si>
+    <t>88,67%</t>
+  </si>
+  <si>
+    <t>92,19%</t>
+  </si>
+  <si>
+    <t>92,55%</t>
+  </si>
+  <si>
+    <t>91,27%</t>
+  </si>
+  <si>
+    <t>93,61%</t>
+  </si>
+  <si>
+    <t>4,29%</t>
+  </si>
+  <si>
+    <t>2,01%</t>
+  </si>
+  <si>
+    <t>6,0%</t>
+  </si>
+  <si>
+    <t>10,27%</t>
+  </si>
+  <si>
+    <t>8,55%</t>
+  </si>
+  <si>
+    <t>11,93%</t>
+  </si>
+  <si>
+    <t>6,95%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>8,31%</t>
+  </si>
+  <si>
+    <t>95,71%</t>
+  </si>
+  <si>
+    <t>94,0%</t>
+  </si>
+  <si>
+    <t>97,99%</t>
+  </si>
+  <si>
+    <t>89,73%</t>
+  </si>
+  <si>
+    <t>88,07%</t>
+  </si>
+  <si>
+    <t>91,45%</t>
+  </si>
+  <si>
+    <t>93,05%</t>
+  </si>
+  <si>
+    <t>91,69%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
+  </si>
+  <si>
+    <t>7,72%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>10,32%</t>
+  </si>
+  <si>
+    <t>8,46%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>11,71%</t>
+  </si>
+  <si>
+    <t>8,14%</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>92,28%</t>
+  </si>
+  <si>
+    <t>89,68%</t>
+  </si>
+  <si>
+    <t>94,12%</t>
+  </si>
+  <si>
+    <t>91,54%</t>
+  </si>
+  <si>
+    <t>88,29%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
+  </si>
+  <si>
+    <t>91,86%</t>
+  </si>
+  <si>
+    <t>90,01%</t>
   </si>
   <si>
     <t>4,07%</t>
   </si>
   <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>5,83%</t>
-  </si>
-  <si>
-    <t>4,93%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>4,5%</t>
-  </si>
-  <si>
-    <t>3,44%</t>
-  </si>
-  <si>
-    <t>5,81%</t>
+    <t>8,99%</t>
+  </si>
+  <si>
+    <t>13,27%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>9,75%</t>
   </si>
   <si>
     <t>95,93%</t>
   </si>
   <si>
-    <t>94,17%</t>
-  </si>
-  <si>
-    <t>97,4%</t>
-  </si>
-  <si>
-    <t>95,07%</t>
-  </si>
-  <si>
-    <t>93,06%</t>
-  </si>
-  <si>
-    <t>96,6%</t>
-  </si>
-  <si>
-    <t>95,5%</t>
-  </si>
-  <si>
-    <t>94,19%</t>
-  </si>
-  <si>
-    <t>96,56%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>5,25%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>6,88%</t>
-  </si>
-  <si>
-    <t>7,3%</t>
-  </si>
-  <si>
-    <t>5,66%</t>
-  </si>
-  <si>
-    <t>9,13%</t>
-  </si>
-  <si>
-    <t>6,28%</t>
-  </si>
-  <si>
-    <t>5,18%</t>
-  </si>
-  <si>
-    <t>7,4%</t>
-  </si>
-  <si>
-    <t>94,75%</t>
-  </si>
-  <si>
-    <t>93,12%</t>
-  </si>
-  <si>
-    <t>96,03%</t>
-  </si>
-  <si>
-    <t>92,7%</t>
-  </si>
-  <si>
-    <t>90,87%</t>
-  </si>
-  <si>
-    <t>94,34%</t>
-  </si>
-  <si>
-    <t>93,72%</t>
-  </si>
-  <si>
-    <t>92,6%</t>
-  </si>
-  <si>
-    <t>94,82%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>6,36%</t>
-  </si>
-  <si>
-    <t>4,59%</t>
-  </si>
-  <si>
-    <t>8,51%</t>
-  </si>
-  <si>
-    <t>12,23%</t>
-  </si>
-  <si>
-    <t>9,95%</t>
-  </si>
-  <si>
-    <t>14,8%</t>
-  </si>
-  <si>
-    <t>9,31%</t>
-  </si>
-  <si>
-    <t>7,86%</t>
-  </si>
-  <si>
-    <t>10,94%</t>
-  </si>
-  <si>
-    <t>93,64%</t>
-  </si>
-  <si>
-    <t>91,49%</t>
-  </si>
-  <si>
-    <t>95,41%</t>
-  </si>
-  <si>
-    <t>87,77%</t>
-  </si>
-  <si>
-    <t>85,2%</t>
-  </si>
-  <si>
-    <t>90,05%</t>
-  </si>
-  <si>
-    <t>90,69%</t>
-  </si>
-  <si>
-    <t>89,06%</t>
-  </si>
-  <si>
-    <t>92,14%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>5,31%</t>
-  </si>
-  <si>
-    <t>4,0%</t>
-  </si>
-  <si>
-    <t>7,0%</t>
-  </si>
-  <si>
-    <t>9,33%</t>
-  </si>
-  <si>
-    <t>7,65%</t>
-  </si>
-  <si>
-    <t>11,22%</t>
-  </si>
-  <si>
-    <t>7,42%</t>
-  </si>
-  <si>
-    <t>6,32%</t>
-  </si>
-  <si>
-    <t>8,71%</t>
-  </si>
-  <si>
-    <t>94,69%</t>
-  </si>
-  <si>
-    <t>93,0%</t>
-  </si>
-  <si>
-    <t>96,0%</t>
-  </si>
-  <si>
-    <t>90,67%</t>
-  </si>
-  <si>
-    <t>88,78%</t>
-  </si>
-  <si>
-    <t>92,35%</t>
-  </si>
-  <si>
-    <t>92,58%</t>
-  </si>
-  <si>
-    <t>91,29%</t>
-  </si>
-  <si>
-    <t>93,68%</t>
-  </si>
-  <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>4,53%</t>
-  </si>
-  <si>
-    <t>6,07%</t>
-  </si>
-  <si>
-    <t>8,49%</t>
-  </si>
-  <si>
-    <t>7,59%</t>
-  </si>
-  <si>
-    <t>9,47%</t>
-  </si>
-  <si>
-    <t>6,87%</t>
-  </si>
-  <si>
-    <t>7,57%</t>
-  </si>
-  <si>
-    <t>94,8%</t>
-  </si>
-  <si>
-    <t>93,93%</t>
-  </si>
-  <si>
-    <t>95,47%</t>
-  </si>
-  <si>
-    <t>91,51%</t>
-  </si>
-  <si>
-    <t>90,53%</t>
-  </si>
-  <si>
-    <t>92,41%</t>
-  </si>
-  <si>
-    <t>93,13%</t>
-  </si>
-  <si>
-    <t>92,43%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (adultos)</t>
-  </si>
-  <si>
-    <t>Población que dejo de hacer algunas tareas por problemas emocionales en 2012 (Tasa respuesta: 99,94%)</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>3,61%</t>
-  </si>
-  <si>
-    <t>12,27%</t>
-  </si>
-  <si>
-    <t>13,72%</t>
-  </si>
-  <si>
-    <t>7,95%</t>
-  </si>
-  <si>
-    <t>20,78%</t>
-  </si>
-  <si>
-    <t>10,39%</t>
-  </si>
-  <si>
-    <t>6,48%</t>
-  </si>
-  <si>
-    <t>14,47%</t>
-  </si>
-  <si>
-    <t>92,84%</t>
-  </si>
-  <si>
-    <t>87,73%</t>
-  </si>
-  <si>
-    <t>96,39%</t>
-  </si>
-  <si>
-    <t>86,28%</t>
-  </si>
-  <si>
-    <t>79,22%</t>
-  </si>
-  <si>
-    <t>92,05%</t>
-  </si>
-  <si>
-    <t>89,61%</t>
-  </si>
-  <si>
-    <t>85,53%</t>
-  </si>
-  <si>
-    <t>93,52%</t>
-  </si>
-  <si>
-    <t>8,82%</t>
-  </si>
-  <si>
-    <t>14,97%</t>
-  </si>
-  <si>
-    <t>12,06%</t>
-  </si>
-  <si>
-    <t>18,1%</t>
-  </si>
-  <si>
-    <t>10,66%</t>
-  </si>
-  <si>
-    <t>9,01%</t>
-  </si>
-  <si>
-    <t>12,66%</t>
-  </si>
-  <si>
-    <t>91,18%</t>
-  </si>
-  <si>
-    <t>85,03%</t>
-  </si>
-  <si>
-    <t>81,9%</t>
-  </si>
-  <si>
-    <t>87,94%</t>
-  </si>
-  <si>
-    <t>89,34%</t>
-  </si>
-  <si>
-    <t>87,34%</t>
-  </si>
-  <si>
-    <t>90,99%</t>
-  </si>
-  <si>
-    <t>7,37%</t>
-  </si>
-  <si>
-    <t>9,15%</t>
-  </si>
-  <si>
-    <t>14,56%</t>
-  </si>
-  <si>
-    <t>12,44%</t>
-  </si>
-  <si>
-    <t>16,94%</t>
-  </si>
-  <si>
-    <t>10,99%</t>
-  </si>
-  <si>
-    <t>9,54%</t>
-  </si>
-  <si>
-    <t>12,33%</t>
-  </si>
-  <si>
-    <t>92,63%</t>
-  </si>
-  <si>
-    <t>90,85%</t>
-  </si>
-  <si>
-    <t>85,44%</t>
-  </si>
-  <si>
-    <t>83,06%</t>
-  </si>
-  <si>
-    <t>87,56%</t>
-  </si>
-  <si>
-    <t>89,01%</t>
-  </si>
-  <si>
-    <t>87,67%</t>
-  </si>
-  <si>
-    <t>90,46%</t>
-  </si>
-  <si>
-    <t>5,71%</t>
-  </si>
-  <si>
-    <t>4,2%</t>
-  </si>
-  <si>
-    <t>7,96%</t>
-  </si>
-  <si>
-    <t>13,03%</t>
-  </si>
-  <si>
-    <t>10,74%</t>
-  </si>
-  <si>
-    <t>15,64%</t>
-  </si>
-  <si>
-    <t>9,41%</t>
-  </si>
-  <si>
-    <t>8,02%</t>
-  </si>
-  <si>
-    <t>11,06%</t>
-  </si>
-  <si>
-    <t>94,29%</t>
-  </si>
-  <si>
-    <t>92,04%</t>
-  </si>
-  <si>
-    <t>95,8%</t>
-  </si>
-  <si>
-    <t>86,97%</t>
-  </si>
-  <si>
-    <t>84,36%</t>
-  </si>
-  <si>
-    <t>89,26%</t>
-  </si>
-  <si>
-    <t>90,59%</t>
-  </si>
-  <si>
-    <t>88,94%</t>
-  </si>
-  <si>
-    <t>91,98%</t>
-  </si>
-  <si>
-    <t>7,04%</t>
-  </si>
-  <si>
-    <t>5,36%</t>
-  </si>
-  <si>
-    <t>8,92%</t>
-  </si>
-  <si>
-    <t>13,5%</t>
-  </si>
-  <si>
-    <t>11,53%</t>
-  </si>
-  <si>
-    <t>15,87%</t>
-  </si>
-  <si>
-    <t>10,44%</t>
-  </si>
-  <si>
-    <t>8,97%</t>
-  </si>
-  <si>
-    <t>11,87%</t>
-  </si>
-  <si>
-    <t>92,96%</t>
-  </si>
-  <si>
-    <t>91,08%</t>
-  </si>
-  <si>
-    <t>94,64%</t>
-  </si>
-  <si>
-    <t>86,5%</t>
-  </si>
-  <si>
-    <t>84,13%</t>
-  </si>
-  <si>
-    <t>88,47%</t>
-  </si>
-  <si>
-    <t>89,56%</t>
-  </si>
-  <si>
-    <t>88,13%</t>
-  </si>
-  <si>
-    <t>91,03%</t>
-  </si>
-  <si>
-    <t>6,73%</t>
-  </si>
-  <si>
-    <t>5,94%</t>
-  </si>
-  <si>
-    <t>13,95%</t>
-  </si>
-  <si>
-    <t>12,89%</t>
-  </si>
-  <si>
-    <t>15,13%</t>
-  </si>
-  <si>
-    <t>10,41%</t>
-  </si>
-  <si>
-    <t>9,71%</t>
-  </si>
-  <si>
-    <t>11,18%</t>
-  </si>
-  <si>
-    <t>93,27%</t>
-  </si>
-  <si>
-    <t>94,06%</t>
-  </si>
-  <si>
-    <t>86,05%</t>
-  </si>
-  <si>
-    <t>84,87%</t>
-  </si>
-  <si>
-    <t>87,11%</t>
-  </si>
-  <si>
-    <t>89,59%</t>
-  </si>
-  <si>
-    <t>88,82%</t>
-  </si>
-  <si>
-    <t>90,29%</t>
-  </si>
-  <si>
-    <t>Población que dejo de hacer algunas tareas por problemas emocionales en 2016 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>7,27%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>13,2%</t>
-  </si>
-  <si>
-    <t>11,95%</t>
-  </si>
-  <si>
-    <t>6,22%</t>
-  </si>
-  <si>
-    <t>19,98%</t>
-  </si>
-  <si>
-    <t>9,58%</t>
-  </si>
-  <si>
-    <t>6,1%</t>
-  </si>
-  <si>
-    <t>14,11%</t>
-  </si>
-  <si>
-    <t>92,73%</t>
-  </si>
-  <si>
-    <t>86,8%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>88,05%</t>
-  </si>
-  <si>
-    <t>80,02%</t>
-  </si>
-  <si>
-    <t>93,78%</t>
-  </si>
-  <si>
-    <t>90,42%</t>
-  </si>
-  <si>
-    <t>85,89%</t>
-  </si>
-  <si>
-    <t>93,9%</t>
-  </si>
-  <si>
-    <t>5,78%</t>
-  </si>
-  <si>
-    <t>4,11%</t>
-  </si>
-  <si>
-    <t>8,05%</t>
-  </si>
-  <si>
-    <t>8,78%</t>
-  </si>
-  <si>
-    <t>8,48%</t>
-  </si>
-  <si>
-    <t>6,98%</t>
-  </si>
-  <si>
-    <t>10,25%</t>
-  </si>
-  <si>
-    <t>94,22%</t>
-  </si>
-  <si>
-    <t>91,95%</t>
-  </si>
-  <si>
-    <t>95,89%</t>
-  </si>
-  <si>
-    <t>91,22%</t>
-  </si>
-  <si>
-    <t>91,52%</t>
-  </si>
-  <si>
-    <t>89,75%</t>
-  </si>
-  <si>
-    <t>93,02%</t>
-  </si>
-  <si>
-    <t>3,91%</t>
-  </si>
-  <si>
-    <t>2,79%</t>
-  </si>
-  <si>
-    <t>10,65%</t>
-  </si>
-  <si>
-    <t>8,62%</t>
-  </si>
-  <si>
-    <t>12,61%</t>
-  </si>
-  <si>
-    <t>7,31%</t>
-  </si>
-  <si>
-    <t>6,18%</t>
-  </si>
-  <si>
-    <t>96,09%</t>
-  </si>
-  <si>
-    <t>97,21%</t>
-  </si>
-  <si>
-    <t>89,35%</t>
-  </si>
-  <si>
-    <t>87,39%</t>
-  </si>
-  <si>
-    <t>91,38%</t>
-  </si>
-  <si>
-    <t>92,69%</t>
-  </si>
-  <si>
-    <t>93,82%</t>
-  </si>
-  <si>
-    <t>4,9%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>11,3%</t>
-  </si>
-  <si>
-    <t>9,19%</t>
-  </si>
-  <si>
-    <t>13,92%</t>
-  </si>
-  <si>
-    <t>8,15%</t>
-  </si>
-  <si>
-    <t>9,61%</t>
-  </si>
-  <si>
-    <t>95,1%</t>
-  </si>
-  <si>
-    <t>93,1%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>88,7%</t>
-  </si>
-  <si>
-    <t>86,08%</t>
-  </si>
-  <si>
-    <t>90,81%</t>
-  </si>
-  <si>
-    <t>91,85%</t>
-  </si>
-  <si>
-    <t>90,39%</t>
-  </si>
-  <si>
-    <t>6,77%</t>
-  </si>
-  <si>
-    <t>5,19%</t>
-  </si>
-  <si>
-    <t>8,79%</t>
-  </si>
-  <si>
-    <t>9,8%</t>
-  </si>
-  <si>
-    <t>8,09%</t>
-  </si>
-  <si>
-    <t>11,98%</t>
-  </si>
-  <si>
-    <t>8,37%</t>
-  </si>
-  <si>
-    <t>7,17%</t>
-  </si>
-  <si>
-    <t>93,23%</t>
-  </si>
-  <si>
-    <t>91,21%</t>
-  </si>
-  <si>
-    <t>94,81%</t>
-  </si>
-  <si>
-    <t>90,2%</t>
-  </si>
-  <si>
-    <t>88,02%</t>
-  </si>
-  <si>
-    <t>91,91%</t>
-  </si>
-  <si>
-    <t>91,63%</t>
-  </si>
-  <si>
-    <t>92,83%</t>
-  </si>
-  <si>
-    <t>5,34%</t>
-  </si>
-  <si>
-    <t>4,66%</t>
-  </si>
-  <si>
-    <t>6,21%</t>
-  </si>
-  <si>
-    <t>10,67%</t>
-  </si>
-  <si>
-    <t>9,53%</t>
-  </si>
-  <si>
-    <t>11,84%</t>
-  </si>
-  <si>
-    <t>8,06%</t>
-  </si>
-  <si>
-    <t>8,75%</t>
-  </si>
-  <si>
-    <t>94,66%</t>
-  </si>
-  <si>
-    <t>93,79%</t>
-  </si>
-  <si>
-    <t>95,34%</t>
-  </si>
-  <si>
-    <t>89,33%</t>
-  </si>
-  <si>
-    <t>88,16%</t>
-  </si>
-  <si>
-    <t>90,47%</t>
-  </si>
-  <si>
-    <t>91,94%</t>
-  </si>
-  <si>
-    <t>91,25%</t>
-  </si>
-  <si>
-    <t>Población que dejo de hacer algunas tareas por problemas emocionales en 2023 (Tasa respuesta: 99,9%)</t>
-  </si>
-  <si>
-    <t>5,3%</t>
-  </si>
-  <si>
-    <t>1,98%</t>
-  </si>
-  <si>
-    <t>12,04%</t>
-  </si>
-  <si>
-    <t>9,56%</t>
-  </si>
-  <si>
-    <t>6,47%</t>
-  </si>
-  <si>
-    <t>14,02%</t>
-  </si>
-  <si>
-    <t>7,69%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>11,01%</t>
-  </si>
-  <si>
-    <t>94,7%</t>
-  </si>
-  <si>
-    <t>87,96%</t>
-  </si>
-  <si>
-    <t>98,02%</t>
-  </si>
-  <si>
-    <t>90,44%</t>
-  </si>
-  <si>
-    <t>85,98%</t>
-  </si>
-  <si>
-    <t>93,53%</t>
-  </si>
-  <si>
-    <t>92,31%</t>
-  </si>
-  <si>
-    <t>88,99%</t>
-  </si>
-  <si>
-    <t>94,63%</t>
-  </si>
-  <si>
-    <t>5,59%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>8,03%</t>
-  </si>
-  <si>
-    <t>9,78%</t>
-  </si>
-  <si>
-    <t>11,96%</t>
+    <t>86,73%</t>
+  </si>
+  <si>
+    <t>91,01%</t>
+  </si>
+  <si>
+    <t>91,46%</t>
+  </si>
+  <si>
+    <t>90,25%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>6,42%</t>
+  </si>
+  <si>
+    <t>9,98%</t>
+  </si>
+  <si>
+    <t>8,18%</t>
+  </si>
+  <si>
+    <t>11,04%</t>
   </si>
   <si>
     <t>7,77%</t>
   </si>
   <si>
-    <t>6,52%</t>
-  </si>
-  <si>
-    <t>9,43%</t>
-  </si>
-  <si>
-    <t>94,41%</t>
-  </si>
-  <si>
-    <t>91,97%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>90,22%</t>
-  </si>
-  <si>
-    <t>88,04%</t>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>8,58%</t>
+  </si>
+  <si>
+    <t>94,57%</t>
+  </si>
+  <si>
+    <t>93,58%</t>
+  </si>
+  <si>
+    <t>90,02%</t>
+  </si>
+  <si>
+    <t>88,96%</t>
+  </si>
+  <si>
+    <t>91,82%</t>
   </si>
   <si>
     <t>92,23%</t>
   </si>
   <si>
-    <t>90,57%</t>
-  </si>
-  <si>
-    <t>93,48%</t>
-  </si>
-  <si>
-    <t>5,26%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>6,78%</t>
-  </si>
-  <si>
-    <t>7,85%</t>
-  </si>
-  <si>
-    <t>6,59%</t>
-  </si>
-  <si>
-    <t>94,74%</t>
-  </si>
-  <si>
-    <t>93,22%</t>
-  </si>
-  <si>
-    <t>96,18%</t>
-  </si>
-  <si>
-    <t>92,15%</t>
-  </si>
-  <si>
-    <t>93,41%</t>
-  </si>
-  <si>
-    <t>7,89%</t>
-  </si>
-  <si>
-    <t>6,02%</t>
-  </si>
-  <si>
-    <t>10,49%</t>
-  </si>
-  <si>
-    <t>10,1%</t>
-  </si>
-  <si>
-    <t>6,91%</t>
-  </si>
-  <si>
-    <t>12,67%</t>
-  </si>
-  <si>
-    <t>9,1%</t>
-  </si>
-  <si>
-    <t>7,11%</t>
-  </si>
-  <si>
-    <t>10,85%</t>
-  </si>
-  <si>
-    <t>92,11%</t>
-  </si>
-  <si>
-    <t>89,51%</t>
-  </si>
-  <si>
-    <t>93,98%</t>
-  </si>
-  <si>
-    <t>89,9%</t>
-  </si>
-  <si>
-    <t>87,33%</t>
-  </si>
-  <si>
-    <t>93,09%</t>
-  </si>
-  <si>
-    <t>90,9%</t>
-  </si>
-  <si>
-    <t>89,15%</t>
-  </si>
-  <si>
-    <t>92,89%</t>
-  </si>
-  <si>
-    <t>5,29%</t>
-  </si>
-  <si>
-    <t>4,06%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>12,29%</t>
-  </si>
-  <si>
-    <t>10,53%</t>
-  </si>
-  <si>
-    <t>14,63%</t>
-  </si>
-  <si>
-    <t>8,0%</t>
-  </si>
-  <si>
-    <t>10,37%</t>
-  </si>
-  <si>
-    <t>94,71%</t>
-  </si>
-  <si>
-    <t>93,15%</t>
-  </si>
-  <si>
-    <t>95,94%</t>
-  </si>
-  <si>
-    <t>87,71%</t>
-  </si>
-  <si>
-    <t>85,37%</t>
-  </si>
-  <si>
-    <t>89,47%</t>
-  </si>
-  <si>
-    <t>89,63%</t>
-  </si>
-  <si>
-    <t>92,0%</t>
-  </si>
-  <si>
-    <t>5,89%</t>
-  </si>
-  <si>
-    <t>5,05%</t>
-  </si>
-  <si>
-    <t>6,8%</t>
-  </si>
-  <si>
-    <t>10,78%</t>
-  </si>
-  <si>
-    <t>9,59%</t>
-  </si>
-  <si>
-    <t>7,74%</t>
-  </si>
-  <si>
-    <t>9,16%</t>
-  </si>
-  <si>
-    <t>94,11%</t>
-  </si>
-  <si>
-    <t>93,2%</t>
-  </si>
-  <si>
-    <t>94,95%</t>
-  </si>
-  <si>
-    <t>89,22%</t>
-  </si>
-  <si>
-    <t>90,41%</t>
-  </si>
-  <si>
-    <t>90,84%</t>
-  </si>
-  <si>
-    <t>92,26%</t>
+    <t>91,42%</t>
+  </si>
+  <si>
+    <t>93,31%</t>
   </si>
 </sst>
 </file>
@@ -1689,8 +1512,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8CE6036-3339-4587-A060-BA43CCFEF2FA}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{04AA39FA-B4B3-4D61-9684-6D2E158EE976}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1807,10 +1630,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>3</v>
+        <v>28</v>
       </c>
       <c r="D4" s="7">
-        <v>3306</v>
+        <v>26867</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -1822,10 +1645,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="I4" s="7">
-        <v>7279</v>
+        <v>35644</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -1837,10 +1660,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>11</v>
+        <v>64</v>
       </c>
       <c r="N4" s="7">
-        <v>10585</v>
+        <v>62512</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -1858,10 +1681,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>102</v>
+        <v>655</v>
       </c>
       <c r="D5" s="7">
-        <v>112052</v>
+        <v>667145</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -1873,10 +1696,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>120</v>
+        <v>660</v>
       </c>
       <c r="I5" s="7">
-        <v>105476</v>
+        <v>652707</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -1888,10 +1711,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>222</v>
+        <v>1315</v>
       </c>
       <c r="N5" s="7">
-        <v>217528</v>
+        <v>1319851</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -1909,10 +1732,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>105</v>
+        <v>683</v>
       </c>
       <c r="D6" s="7">
-        <v>115358</v>
+        <v>694012</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -1924,10 +1747,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>128</v>
+        <v>696</v>
       </c>
       <c r="I6" s="7">
-        <v>112755</v>
+        <v>688351</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1939,10 +1762,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>233</v>
+        <v>1379</v>
       </c>
       <c r="N6" s="7">
-        <v>228113</v>
+        <v>1382363</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1962,10 +1785,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>25</v>
+        <v>48</v>
       </c>
       <c r="D7" s="7">
-        <v>23561</v>
+        <v>50494</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1977,10 +1800,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="I7" s="7">
-        <v>28365</v>
+        <v>70659</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -1992,19 +1815,19 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>53</v>
+        <v>110</v>
       </c>
       <c r="N7" s="7">
-        <v>51927</v>
+        <v>121154</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
       </c>
       <c r="P7" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q7" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -2013,49 +1836,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>553</v>
+        <v>848</v>
       </c>
       <c r="D8" s="7">
-        <v>555093</v>
+        <v>911306</v>
       </c>
       <c r="E8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="7" t="s">
         <v>41</v>
       </c>
-      <c r="F8" s="7" t="s">
+      <c r="G8" s="7" t="s">
         <v>42</v>
       </c>
-      <c r="G8" s="7" t="s">
+      <c r="H8" s="7">
+        <v>846</v>
+      </c>
+      <c r="I8" s="7">
+        <v>897734</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="H8" s="7">
-        <v>540</v>
-      </c>
-      <c r="I8" s="7">
-        <v>547231</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="K8" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="K8" s="7" t="s">
+      <c r="L8" s="7" t="s">
         <v>45</v>
       </c>
-      <c r="L8" s="7" t="s">
+      <c r="M8" s="7">
+        <v>1694</v>
+      </c>
+      <c r="N8" s="7">
+        <v>1809039</v>
+      </c>
+      <c r="O8" s="7" t="s">
         <v>46</v>
       </c>
-      <c r="M8" s="7">
-        <v>1093</v>
-      </c>
-      <c r="N8" s="7">
-        <v>1102323</v>
-      </c>
-      <c r="O8" s="7" t="s">
+      <c r="P8" s="7" t="s">
         <v>47</v>
       </c>
-      <c r="P8" s="7" t="s">
-        <v>48</v>
-      </c>
       <c r="Q8" s="7" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -2064,10 +1887,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>578</v>
+        <v>896</v>
       </c>
       <c r="D9" s="7">
-        <v>578654</v>
+        <v>961800</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -2079,10 +1902,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>568</v>
+        <v>908</v>
       </c>
       <c r="I9" s="7">
-        <v>575596</v>
+        <v>968393</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -2094,10 +1917,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1146</v>
+        <v>1804</v>
       </c>
       <c r="N9" s="7">
-        <v>1154250</v>
+        <v>1930193</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -2111,55 +1934,55 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>48</v>
+        <v>42</v>
       </c>
       <c r="D10" s="7">
-        <v>50494</v>
+        <v>43157</v>
       </c>
       <c r="E10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>51</v>
       </c>
-      <c r="F10" s="7" t="s">
+      <c r="H10" s="7">
+        <v>85</v>
+      </c>
+      <c r="I10" s="7">
+        <v>83624</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="H10" s="7">
-        <v>62</v>
-      </c>
-      <c r="I10" s="7">
-        <v>70659</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>54</v>
       </c>
-      <c r="K10" s="7" t="s">
+      <c r="M10" s="7">
+        <v>127</v>
+      </c>
+      <c r="N10" s="7">
+        <v>126781</v>
+      </c>
+      <c r="O10" s="7" t="s">
         <v>55</v>
       </c>
-      <c r="L10" s="7" t="s">
+      <c r="P10" s="7" t="s">
         <v>56</v>
       </c>
-      <c r="M10" s="7">
-        <v>110</v>
-      </c>
-      <c r="N10" s="7">
-        <v>121154</v>
-      </c>
-      <c r="O10" s="7" t="s">
+      <c r="Q10" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2168,49 +1991,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>848</v>
+        <v>599</v>
       </c>
       <c r="D11" s="7">
-        <v>911306</v>
+        <v>635352</v>
       </c>
       <c r="E11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>60</v>
       </c>
-      <c r="F11" s="7" t="s">
+      <c r="H11" s="7">
+        <v>611</v>
+      </c>
+      <c r="I11" s="7">
+        <v>600217</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="H11" s="7">
-        <v>846</v>
-      </c>
-      <c r="I11" s="7">
-        <v>897734</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>63</v>
       </c>
-      <c r="K11" s="7" t="s">
+      <c r="M11" s="7">
+        <v>1210</v>
+      </c>
+      <c r="N11" s="7">
+        <v>1235569</v>
+      </c>
+      <c r="O11" s="7" t="s">
         <v>64</v>
       </c>
-      <c r="L11" s="7" t="s">
+      <c r="P11" s="7" t="s">
         <v>65</v>
       </c>
-      <c r="M11" s="7">
-        <v>1694</v>
-      </c>
-      <c r="N11" s="7">
-        <v>1809039</v>
-      </c>
-      <c r="O11" s="7" t="s">
+      <c r="Q11" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -2219,10 +2042,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>896</v>
+        <v>641</v>
       </c>
       <c r="D12" s="7">
-        <v>961800</v>
+        <v>678509</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -2234,10 +2057,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>908</v>
+        <v>696</v>
       </c>
       <c r="I12" s="7">
-        <v>968393</v>
+        <v>683841</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -2249,10 +2072,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1804</v>
+        <v>1337</v>
       </c>
       <c r="N12" s="7">
-        <v>1930193</v>
+        <v>1362350</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -2266,55 +2089,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D13" s="7">
-        <v>43157</v>
+        <v>50015</v>
       </c>
       <c r="E13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>70</v>
       </c>
-      <c r="F13" s="7" t="s">
+      <c r="H13" s="7">
+        <v>94</v>
+      </c>
+      <c r="I13" s="7">
+        <v>96881</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="H13" s="7">
-        <v>85</v>
-      </c>
-      <c r="I13" s="7">
-        <v>83624</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K13" s="7" t="s">
+      <c r="M13" s="7">
+        <v>144</v>
+      </c>
+      <c r="N13" s="7">
+        <v>146896</v>
+      </c>
+      <c r="O13" s="7" t="s">
         <v>74</v>
       </c>
-      <c r="L13" s="7" t="s">
+      <c r="P13" s="7" t="s">
         <v>75</v>
       </c>
-      <c r="M13" s="7">
-        <v>127</v>
-      </c>
-      <c r="N13" s="7">
-        <v>126781</v>
-      </c>
-      <c r="O13" s="7" t="s">
+      <c r="Q13" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -2323,49 +2146,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>599</v>
+        <v>944</v>
       </c>
       <c r="D14" s="7">
-        <v>635352</v>
+        <v>892207</v>
       </c>
       <c r="E14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>79</v>
       </c>
-      <c r="F14" s="7" t="s">
+      <c r="H14" s="7">
+        <v>903</v>
+      </c>
+      <c r="I14" s="7">
+        <v>941731</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="H14" s="7">
-        <v>611</v>
-      </c>
-      <c r="I14" s="7">
-        <v>600217</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>82</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="M14" s="7">
+        <v>1847</v>
+      </c>
+      <c r="N14" s="7">
+        <v>1833938</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>83</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>84</v>
       </c>
-      <c r="M14" s="7">
-        <v>1210</v>
-      </c>
-      <c r="N14" s="7">
-        <v>1235569</v>
-      </c>
-      <c r="O14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2374,10 +2197,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>641</v>
+        <v>994</v>
       </c>
       <c r="D15" s="7">
-        <v>678509</v>
+        <v>942222</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -2389,10 +2212,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>696</v>
+        <v>997</v>
       </c>
       <c r="I15" s="7">
-        <v>683841</v>
+        <v>1038612</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -2404,10 +2227,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1337</v>
+        <v>1991</v>
       </c>
       <c r="N15" s="7">
-        <v>1362350</v>
+        <v>1980834</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -2421,55 +2244,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>50</v>
+        <v>168</v>
       </c>
       <c r="D16" s="7">
-        <v>50015</v>
+        <v>170534</v>
       </c>
       <c r="E16" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="H16" s="7">
+        <v>277</v>
+      </c>
+      <c r="I16" s="7">
+        <v>286809</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="F16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>91</v>
       </c>
-      <c r="H16" s="7">
-        <v>94</v>
-      </c>
-      <c r="I16" s="7">
-        <v>96881</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="M16" s="7">
+        <v>445</v>
+      </c>
+      <c r="N16" s="7">
+        <v>457343</v>
+      </c>
+      <c r="O16" s="7" t="s">
         <v>92</v>
       </c>
-      <c r="K16" s="7" t="s">
+      <c r="P16" s="7" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>93</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>94</v>
-      </c>
-      <c r="M16" s="7">
-        <v>144</v>
-      </c>
-      <c r="N16" s="7">
-        <v>146896</v>
-      </c>
-      <c r="O16" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>96</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>97</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2478,49 +2301,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>944</v>
+        <v>3046</v>
       </c>
       <c r="D17" s="7">
-        <v>892207</v>
+        <v>3106009</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="H17" s="7">
+        <v>3020</v>
+      </c>
+      <c r="I17" s="7">
+        <v>3092388</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="F17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="M17" s="7">
+        <v>6066</v>
+      </c>
+      <c r="N17" s="7">
+        <v>6198398</v>
+      </c>
+      <c r="O17" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="H17" s="7">
-        <v>903</v>
-      </c>
-      <c r="I17" s="7">
-        <v>941731</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="P17" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="K17" s="7" t="s">
-        <v>102</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="M17" s="7">
-        <v>1847</v>
-      </c>
-      <c r="N17" s="7">
-        <v>1833938</v>
-      </c>
-      <c r="O17" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>105</v>
-      </c>
       <c r="Q17" s="7" t="s">
-        <v>106</v>
+        <v>46</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2529,10 +2352,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>994</v>
+        <v>3214</v>
       </c>
       <c r="D18" s="7">
-        <v>942222</v>
+        <v>3276543</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -2544,10 +2367,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>997</v>
+        <v>3297</v>
       </c>
       <c r="I18" s="7">
-        <v>1038612</v>
+        <v>3379197</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -2559,10 +2382,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1991</v>
+        <v>6511</v>
       </c>
       <c r="N18" s="7">
-        <v>1980834</v>
+        <v>6655741</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -2575,171 +2398,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>168</v>
-      </c>
-      <c r="D19" s="7">
-        <v>170534</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="H19" s="7">
-        <v>277</v>
-      </c>
-      <c r="I19" s="7">
-        <v>286810</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="M19" s="7">
-        <v>445</v>
-      </c>
-      <c r="N19" s="7">
-        <v>457343</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>57</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>3046</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3106010</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>116</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="H20" s="7">
-        <v>3020</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3092388</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="M20" s="7">
-        <v>6066</v>
-      </c>
-      <c r="N20" s="7">
-        <v>6198397</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3214</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3276544</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3297</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3379198</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6511</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6655740</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>123</v>
+      <c r="A19" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2752,8 +2419,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{61C84872-4D2E-4EB7-9AB2-88D76113086A}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98AE148D-D740-4E4A-AED8-8C2A41E87742}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2769,7 +2436,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>124</v>
+        <v>103</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -2870,49 +2537,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>10</v>
+        <v>44</v>
       </c>
       <c r="D4" s="7">
-        <v>8290</v>
+        <v>45681</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>125</v>
+        <v>104</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>126</v>
+        <v>105</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>127</v>
+        <v>106</v>
       </c>
       <c r="H4" s="7">
-        <v>14</v>
+        <v>98</v>
       </c>
       <c r="I4" s="7">
-        <v>15357</v>
+        <v>102966</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>128</v>
+        <v>107</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>129</v>
+        <v>108</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>130</v>
+        <v>109</v>
       </c>
       <c r="M4" s="7">
-        <v>24</v>
+        <v>142</v>
       </c>
       <c r="N4" s="7">
-        <v>23647</v>
+        <v>148647</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>131</v>
+        <v>110</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>132</v>
+        <v>111</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>133</v>
+        <v>112</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -2921,49 +2588,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>112</v>
+        <v>630</v>
       </c>
       <c r="D5" s="7">
-        <v>107475</v>
+        <v>657788</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>134</v>
+        <v>113</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>135</v>
+        <v>114</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>136</v>
+        <v>115</v>
       </c>
       <c r="H5" s="7">
-        <v>85</v>
+        <v>552</v>
       </c>
       <c r="I5" s="7">
-        <v>96548</v>
+        <v>594084</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>137</v>
+        <v>116</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>138</v>
+        <v>117</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>139</v>
+        <v>118</v>
       </c>
       <c r="M5" s="7">
-        <v>197</v>
+        <v>1182</v>
       </c>
       <c r="N5" s="7">
-        <v>204023</v>
+        <v>1251872</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>140</v>
+        <v>119</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>141</v>
+        <v>120</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>142</v>
+        <v>121</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -2972,10 +2639,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>122</v>
+        <v>674</v>
       </c>
       <c r="D6" s="7">
-        <v>115765</v>
+        <v>703469</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -2987,10 +2654,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>99</v>
+        <v>650</v>
       </c>
       <c r="I6" s="7">
-        <v>111905</v>
+        <v>697050</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -3002,10 +2669,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>221</v>
+        <v>1324</v>
       </c>
       <c r="N6" s="7">
-        <v>227670</v>
+        <v>1400519</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -3025,49 +2692,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="D7" s="7">
-        <v>37391</v>
+        <v>74959</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>70</v>
+        <v>122</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>108</v>
+        <v>123</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>143</v>
+        <v>124</v>
       </c>
       <c r="H7" s="7">
-        <v>84</v>
+        <v>136</v>
       </c>
       <c r="I7" s="7">
-        <v>87608</v>
+        <v>150255</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>144</v>
+        <v>125</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>145</v>
+        <v>126</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>146</v>
+        <v>127</v>
       </c>
       <c r="M7" s="7">
-        <v>118</v>
+        <v>204</v>
       </c>
       <c r="N7" s="7">
-        <v>124999</v>
+        <v>225215</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>147</v>
+        <v>128</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>148</v>
+        <v>129</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>149</v>
+        <v>130</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -3076,49 +2743,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>518</v>
+        <v>867</v>
       </c>
       <c r="D8" s="7">
-        <v>550313</v>
+        <v>941934</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>79</v>
+        <v>131</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>150</v>
+        <v>132</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>117</v>
+        <v>133</v>
       </c>
       <c r="H8" s="7">
-        <v>467</v>
+        <v>804</v>
       </c>
       <c r="I8" s="7">
-        <v>497537</v>
+        <v>881929</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>151</v>
+        <v>134</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>152</v>
+        <v>135</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>153</v>
+        <v>136</v>
       </c>
       <c r="M8" s="7">
-        <v>985</v>
+        <v>1671</v>
       </c>
       <c r="N8" s="7">
-        <v>1047850</v>
+        <v>1823862</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>154</v>
+        <v>137</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>155</v>
+        <v>138</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>156</v>
+        <v>139</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3127,10 +2794,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>552</v>
+        <v>935</v>
       </c>
       <c r="D9" s="7">
-        <v>587704</v>
+        <v>1016893</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -3142,10 +2809,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>551</v>
+        <v>940</v>
       </c>
       <c r="I9" s="7">
-        <v>585145</v>
+        <v>1032184</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -3157,10 +2824,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1103</v>
+        <v>1875</v>
       </c>
       <c r="N9" s="7">
-        <v>1172849</v>
+        <v>2049077</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -3174,55 +2841,55 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>68</v>
+        <v>36</v>
       </c>
       <c r="D10" s="7">
-        <v>74959</v>
+        <v>43270</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>157</v>
+        <v>140</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>40</v>
+        <v>141</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>158</v>
+        <v>142</v>
       </c>
       <c r="H10" s="7">
-        <v>136</v>
+        <v>93</v>
       </c>
       <c r="I10" s="7">
-        <v>150255</v>
+        <v>101091</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>159</v>
+        <v>143</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>160</v>
+        <v>144</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>161</v>
+        <v>145</v>
       </c>
       <c r="M10" s="7">
-        <v>204</v>
+        <v>129</v>
       </c>
       <c r="N10" s="7">
-        <v>225215</v>
+        <v>144361</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>162</v>
+        <v>146</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>163</v>
+        <v>147</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>164</v>
+        <v>148</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3231,49 +2898,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>867</v>
+        <v>653</v>
       </c>
       <c r="D11" s="7">
-        <v>941934</v>
+        <v>714353</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>165</v>
+        <v>149</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>48</v>
+        <v>151</v>
       </c>
       <c r="H11" s="7">
-        <v>804</v>
+        <v>611</v>
       </c>
       <c r="I11" s="7">
-        <v>881929</v>
+        <v>675028</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>167</v>
+        <v>152</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>168</v>
+        <v>153</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>169</v>
+        <v>154</v>
       </c>
       <c r="M11" s="7">
-        <v>1671</v>
+        <v>1264</v>
       </c>
       <c r="N11" s="7">
-        <v>1823862</v>
+        <v>1389381</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>170</v>
+        <v>155</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>171</v>
+        <v>156</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>172</v>
+        <v>157</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -3282,10 +2949,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>935</v>
+        <v>689</v>
       </c>
       <c r="D12" s="7">
-        <v>1016893</v>
+        <v>757623</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -3297,10 +2964,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>940</v>
+        <v>704</v>
       </c>
       <c r="I12" s="7">
-        <v>1032184</v>
+        <v>776119</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -3312,10 +2979,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1875</v>
+        <v>1393</v>
       </c>
       <c r="N12" s="7">
-        <v>2049077</v>
+        <v>1533742</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -3329,55 +2996,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>36</v>
+        <v>61</v>
       </c>
       <c r="D13" s="7">
-        <v>43270</v>
+        <v>66675</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>173</v>
+        <v>158</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>174</v>
+        <v>159</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>175</v>
+        <v>160</v>
       </c>
       <c r="H13" s="7">
-        <v>93</v>
+        <v>135</v>
       </c>
       <c r="I13" s="7">
-        <v>101091</v>
+        <v>141898</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>176</v>
+        <v>161</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>178</v>
+        <v>163</v>
       </c>
       <c r="M13" s="7">
-        <v>129</v>
+        <v>196</v>
       </c>
       <c r="N13" s="7">
-        <v>144361</v>
+        <v>208573</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>179</v>
+        <v>164</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>180</v>
+        <v>165</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>181</v>
+        <v>166</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3386,49 +3053,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>653</v>
+        <v>848</v>
       </c>
       <c r="D14" s="7">
-        <v>714353</v>
+        <v>880127</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>182</v>
+        <v>167</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>183</v>
+        <v>168</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>184</v>
+        <v>169</v>
       </c>
       <c r="H14" s="7">
-        <v>611</v>
+        <v>867</v>
       </c>
       <c r="I14" s="7">
-        <v>675028</v>
+        <v>909058</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>185</v>
+        <v>170</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>186</v>
+        <v>171</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>187</v>
+        <v>172</v>
       </c>
       <c r="M14" s="7">
-        <v>1264</v>
+        <v>1715</v>
       </c>
       <c r="N14" s="7">
-        <v>1389381</v>
+        <v>1789185</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>188</v>
+        <v>173</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>189</v>
+        <v>174</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>190</v>
+        <v>175</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3437,10 +3104,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>689</v>
+        <v>909</v>
       </c>
       <c r="D15" s="7">
-        <v>757623</v>
+        <v>946802</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -3452,10 +3119,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>704</v>
+        <v>1002</v>
       </c>
       <c r="I15" s="7">
-        <v>776119</v>
+        <v>1050956</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -3467,10 +3134,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1393</v>
+        <v>1911</v>
       </c>
       <c r="N15" s="7">
-        <v>1533742</v>
+        <v>1997758</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -3484,55 +3151,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>61</v>
+        <v>209</v>
       </c>
       <c r="D16" s="7">
-        <v>66675</v>
+        <v>230586</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>191</v>
+        <v>176</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>192</v>
+        <v>177</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>193</v>
+        <v>178</v>
       </c>
       <c r="H16" s="7">
-        <v>135</v>
+        <v>462</v>
       </c>
       <c r="I16" s="7">
-        <v>141898</v>
+        <v>496210</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>194</v>
+        <v>179</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>195</v>
+        <v>180</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>196</v>
+        <v>181</v>
       </c>
       <c r="M16" s="7">
-        <v>196</v>
+        <v>671</v>
       </c>
       <c r="N16" s="7">
-        <v>208573</v>
+        <v>726796</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>197</v>
+        <v>182</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>198</v>
+        <v>183</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>199</v>
+        <v>184</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3541,49 +3208,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>848</v>
+        <v>2998</v>
       </c>
       <c r="D17" s="7">
-        <v>880127</v>
+        <v>3194202</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>200</v>
+        <v>185</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>201</v>
+        <v>186</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>202</v>
+        <v>187</v>
       </c>
       <c r="H17" s="7">
-        <v>867</v>
+        <v>2834</v>
       </c>
       <c r="I17" s="7">
-        <v>909058</v>
+        <v>3060099</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>203</v>
+        <v>188</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>204</v>
+        <v>189</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>205</v>
+        <v>190</v>
       </c>
       <c r="M17" s="7">
-        <v>1715</v>
+        <v>5832</v>
       </c>
       <c r="N17" s="7">
-        <v>1789185</v>
+        <v>6254301</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>206</v>
+        <v>191</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>207</v>
+        <v>192</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>208</v>
+        <v>193</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3592,10 +3259,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>909</v>
+        <v>3207</v>
       </c>
       <c r="D18" s="7">
-        <v>946802</v>
+        <v>3424788</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -3607,10 +3274,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>1002</v>
+        <v>3296</v>
       </c>
       <c r="I18" s="7">
-        <v>1050956</v>
+        <v>3556309</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -3622,10 +3289,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1911</v>
+        <v>6503</v>
       </c>
       <c r="N18" s="7">
-        <v>1997758</v>
+        <v>6981097</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -3638,171 +3305,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>209</v>
-      </c>
-      <c r="D19" s="7">
-        <v>230586</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="H19" s="7">
-        <v>462</v>
-      </c>
-      <c r="I19" s="7">
-        <v>496210</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="M19" s="7">
-        <v>671</v>
-      </c>
-      <c r="N19" s="7">
-        <v>726796</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>2998</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3194202</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>217</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>218</v>
-      </c>
-      <c r="H20" s="7">
-        <v>2834</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3060099</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>219</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>220</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>221</v>
-      </c>
-      <c r="M20" s="7">
-        <v>5832</v>
-      </c>
-      <c r="N20" s="7">
-        <v>6254301</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>222</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>223</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>224</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3207</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3424788</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3296</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3556309</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6503</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6981097</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>123</v>
+      <c r="A19" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -3815,8 +3326,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0BBD1DAD-C329-4777-9F8E-A904A63E417A}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CEA1E12E-D9C5-49FD-88A1-FDEC89E95A26}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -3832,7 +3343,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>225</v>
+        <v>194</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3933,49 +3444,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="D4" s="7">
-        <v>8477</v>
+        <v>40725</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>226</v>
+        <v>195</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>227</v>
+        <v>196</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>228</v>
+        <v>197</v>
       </c>
       <c r="H4" s="7">
-        <v>12</v>
+        <v>71</v>
       </c>
       <c r="I4" s="7">
-        <v>13550</v>
+        <v>76094</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>229</v>
+        <v>198</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>230</v>
+        <v>199</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>231</v>
+        <v>200</v>
       </c>
       <c r="M4" s="7">
-        <v>20</v>
+        <v>110</v>
       </c>
       <c r="N4" s="7">
-        <v>22027</v>
+        <v>116819</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>232</v>
+        <v>201</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>233</v>
+        <v>202</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>234</v>
+        <v>203</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3984,49 +3495,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>105</v>
+        <v>613</v>
       </c>
       <c r="D5" s="7">
-        <v>108069</v>
+        <v>634075</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>235</v>
+        <v>204</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>236</v>
+        <v>205</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>237</v>
+        <v>206</v>
       </c>
       <c r="H5" s="7">
-        <v>103</v>
+        <v>595</v>
       </c>
       <c r="I5" s="7">
-        <v>99810</v>
+        <v>596745</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>238</v>
+        <v>207</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>239</v>
+        <v>208</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>240</v>
+        <v>209</v>
       </c>
       <c r="M5" s="7">
-        <v>208</v>
+        <v>1208</v>
       </c>
       <c r="N5" s="7">
-        <v>207879</v>
+        <v>1230820</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>241</v>
+        <v>210</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>242</v>
+        <v>211</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>243</v>
+        <v>212</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4035,10 +3546,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>113</v>
+        <v>652</v>
       </c>
       <c r="D6" s="7">
-        <v>116546</v>
+        <v>674800</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -4050,10 +3561,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>115</v>
+        <v>666</v>
       </c>
       <c r="I6" s="7">
-        <v>113360</v>
+        <v>672839</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -4065,10 +3576,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>228</v>
+        <v>1318</v>
       </c>
       <c r="N6" s="7">
-        <v>229906</v>
+        <v>1347639</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -4088,49 +3599,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>31</v>
+        <v>40</v>
       </c>
       <c r="D7" s="7">
-        <v>32248</v>
+        <v>39970</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>244</v>
+        <v>213</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>245</v>
+        <v>214</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>246</v>
+        <v>86</v>
       </c>
       <c r="H7" s="7">
-        <v>59</v>
+        <v>98</v>
       </c>
       <c r="I7" s="7">
-        <v>62544</v>
+        <v>111023</v>
       </c>
       <c r="J7" s="7" t="s">
+        <v>215</v>
+      </c>
+      <c r="K7" s="7" t="s">
         <v>216</v>
       </c>
-      <c r="K7" s="7" t="s">
-        <v>247</v>
-      </c>
       <c r="L7" s="7" t="s">
-        <v>234</v>
+        <v>217</v>
       </c>
       <c r="M7" s="7">
-        <v>90</v>
+        <v>138</v>
       </c>
       <c r="N7" s="7">
-        <v>94792</v>
+        <v>150992</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>248</v>
+        <v>218</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>249</v>
+        <v>219</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>250</v>
+        <v>216</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -4139,49 +3650,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>508</v>
+        <v>911</v>
       </c>
       <c r="D8" s="7">
-        <v>526006</v>
+        <v>982461</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>251</v>
+        <v>220</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>252</v>
+        <v>94</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>253</v>
+        <v>221</v>
       </c>
       <c r="H8" s="7">
-        <v>492</v>
+        <v>879</v>
       </c>
       <c r="I8" s="7">
-        <v>496935</v>
+        <v>931890</v>
       </c>
       <c r="J8" s="7" t="s">
+        <v>222</v>
+      </c>
+      <c r="K8" s="7" t="s">
         <v>223</v>
       </c>
-      <c r="K8" s="7" t="s">
-        <v>242</v>
-      </c>
       <c r="L8" s="7" t="s">
-        <v>254</v>
+        <v>224</v>
       </c>
       <c r="M8" s="7">
-        <v>1000</v>
+        <v>1790</v>
       </c>
       <c r="N8" s="7">
-        <v>1022941</v>
+        <v>1914352</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>255</v>
+        <v>225</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>256</v>
+        <v>224</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>257</v>
+        <v>226</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4190,10 +3701,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>539</v>
+        <v>951</v>
       </c>
       <c r="D9" s="7">
-        <v>558254</v>
+        <v>1022431</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -4205,10 +3716,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>551</v>
+        <v>977</v>
       </c>
       <c r="I9" s="7">
-        <v>559479</v>
+        <v>1042913</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -4220,10 +3731,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1090</v>
+        <v>1928</v>
       </c>
       <c r="N9" s="7">
-        <v>1117733</v>
+        <v>2065344</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -4237,55 +3748,55 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D10" s="7">
-        <v>39970</v>
+        <v>37249</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>258</v>
+        <v>227</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>259</v>
+        <v>228</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>107</v>
+        <v>229</v>
       </c>
       <c r="H10" s="7">
-        <v>98</v>
+        <v>79</v>
       </c>
       <c r="I10" s="7">
-        <v>111023</v>
+        <v>88679</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>260</v>
+        <v>230</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>261</v>
+        <v>231</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>262</v>
+        <v>232</v>
       </c>
       <c r="M10" s="7">
-        <v>138</v>
+        <v>112</v>
       </c>
       <c r="N10" s="7">
-        <v>150992</v>
+        <v>125929</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>263</v>
+        <v>233</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>264</v>
+        <v>176</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>261</v>
+        <v>234</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4294,49 +3805,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>911</v>
+        <v>663</v>
       </c>
       <c r="D11" s="7">
-        <v>982461</v>
+        <v>722303</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>265</v>
+        <v>235</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>115</v>
+        <v>236</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>266</v>
+        <v>237</v>
       </c>
       <c r="H11" s="7">
-        <v>879</v>
+        <v>657</v>
       </c>
       <c r="I11" s="7">
-        <v>931890</v>
+        <v>696332</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>267</v>
+        <v>238</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>268</v>
+        <v>239</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>269</v>
+        <v>240</v>
       </c>
       <c r="M11" s="7">
-        <v>1790</v>
+        <v>1320</v>
       </c>
       <c r="N11" s="7">
-        <v>1914352</v>
+        <v>1418634</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>270</v>
+        <v>241</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>269</v>
+        <v>242</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>271</v>
+        <v>185</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -4345,10 +3856,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>951</v>
+        <v>696</v>
       </c>
       <c r="D12" s="7">
-        <v>1022431</v>
+        <v>759552</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -4360,10 +3871,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>977</v>
+        <v>736</v>
       </c>
       <c r="I12" s="7">
-        <v>1042913</v>
+        <v>785011</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -4375,10 +3886,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>1928</v>
+        <v>1432</v>
       </c>
       <c r="N12" s="7">
-        <v>2065344</v>
+        <v>1544563</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -4392,55 +3903,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>33</v>
+        <v>61</v>
       </c>
       <c r="D13" s="7">
-        <v>37249</v>
+        <v>63463</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>272</v>
+        <v>243</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>273</v>
+        <v>244</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>274</v>
+        <v>245</v>
       </c>
       <c r="H13" s="7">
-        <v>79</v>
+        <v>91</v>
       </c>
       <c r="I13" s="7">
-        <v>88679</v>
+        <v>102316</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>275</v>
+        <v>246</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>276</v>
+        <v>247</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>277</v>
+        <v>248</v>
       </c>
       <c r="M13" s="7">
-        <v>112</v>
+        <v>152</v>
       </c>
       <c r="N13" s="7">
-        <v>125929</v>
+        <v>165780</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>278</v>
+        <v>249</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>209</v>
+        <v>250</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>279</v>
+        <v>183</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4449,49 +3960,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>663</v>
+        <v>871</v>
       </c>
       <c r="D14" s="7">
-        <v>722303</v>
+        <v>874104</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>280</v>
+        <v>251</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>281</v>
+        <v>252</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>282</v>
+        <v>253</v>
       </c>
       <c r="H14" s="7">
-        <v>657</v>
+        <v>868</v>
       </c>
       <c r="I14" s="7">
-        <v>696332</v>
+        <v>941463</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>283</v>
+        <v>254</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>284</v>
+        <v>255</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>285</v>
+        <v>256</v>
       </c>
       <c r="M14" s="7">
-        <v>1320</v>
+        <v>1739</v>
       </c>
       <c r="N14" s="7">
-        <v>1418634</v>
+        <v>1815566</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>286</v>
+        <v>257</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>287</v>
+        <v>193</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>217</v>
+        <v>258</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4500,10 +4011,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>696</v>
+        <v>932</v>
       </c>
       <c r="D15" s="7">
-        <v>759552</v>
+        <v>937567</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -4515,10 +4026,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>736</v>
+        <v>959</v>
       </c>
       <c r="I15" s="7">
-        <v>785011</v>
+        <v>1043779</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -4530,10 +4041,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1432</v>
+        <v>1891</v>
       </c>
       <c r="N15" s="7">
-        <v>1544563</v>
+        <v>1981346</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -4547,55 +4058,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>61</v>
+        <v>173</v>
       </c>
       <c r="D16" s="7">
-        <v>63463</v>
+        <v>181408</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>288</v>
+        <v>259</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>289</v>
+        <v>260</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>290</v>
+        <v>261</v>
       </c>
       <c r="H16" s="7">
-        <v>91</v>
+        <v>339</v>
       </c>
       <c r="I16" s="7">
-        <v>102316</v>
+        <v>378113</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>291</v>
+        <v>262</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>292</v>
+        <v>263</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>293</v>
+        <v>264</v>
       </c>
       <c r="M16" s="7">
-        <v>152</v>
+        <v>512</v>
       </c>
       <c r="N16" s="7">
-        <v>165780</v>
+        <v>559521</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>294</v>
+        <v>265</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>295</v>
+        <v>74</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>215</v>
+        <v>266</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -4604,49 +4115,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>871</v>
+        <v>3058</v>
       </c>
       <c r="D17" s="7">
-        <v>874104</v>
+        <v>3212942</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>296</v>
+        <v>267</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>297</v>
+        <v>268</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>298</v>
+        <v>269</v>
       </c>
       <c r="H17" s="7">
-        <v>868</v>
+        <v>2999</v>
       </c>
       <c r="I17" s="7">
-        <v>941463</v>
+        <v>3166429</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>299</v>
+        <v>270</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>300</v>
+        <v>271</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>301</v>
+        <v>272</v>
       </c>
       <c r="M17" s="7">
-        <v>1739</v>
+        <v>6057</v>
       </c>
       <c r="N17" s="7">
-        <v>1815566</v>
+        <v>6379371</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>302</v>
+        <v>273</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>224</v>
+        <v>274</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>303</v>
+        <v>83</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -4655,10 +4166,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>932</v>
+        <v>3231</v>
       </c>
       <c r="D18" s="7">
-        <v>937567</v>
+        <v>3394350</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -4670,10 +4181,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>959</v>
+        <v>3338</v>
       </c>
       <c r="I18" s="7">
-        <v>1043779</v>
+        <v>3544542</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -4685,10 +4196,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>1891</v>
+        <v>6569</v>
       </c>
       <c r="N18" s="7">
-        <v>1981346</v>
+        <v>6938892</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -4701,171 +4212,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>173</v>
-      </c>
-      <c r="D19" s="7">
-        <v>181408</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="H19" s="7">
-        <v>339</v>
-      </c>
-      <c r="I19" s="7">
-        <v>378113</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="M19" s="7">
-        <v>512</v>
-      </c>
-      <c r="N19" s="7">
-        <v>559521</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>310</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>3058</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3212942</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>312</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>313</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>314</v>
-      </c>
-      <c r="H20" s="7">
-        <v>2999</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3166429</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>315</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>317</v>
-      </c>
-      <c r="M20" s="7">
-        <v>6057</v>
-      </c>
-      <c r="N20" s="7">
-        <v>6379371</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>319</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>104</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3231</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3394350</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>3338</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3544542</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>6569</v>
-      </c>
-      <c r="N21" s="7">
-        <v>6938892</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>123</v>
+      <c r="A19" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4878,8 +4233,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D4F1DE3D-A1CD-42A3-82D9-8657A82C0F3D}">
-  <dimension ref="A1:Q22"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24BB01D5-4E0A-4C89-8074-BDC8AFA7625C}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4895,7 +4250,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>320</v>
+        <v>275</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4996,49 +4351,49 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>6</v>
+        <v>41</v>
       </c>
       <c r="D4" s="7">
-        <v>5403</v>
+        <v>33516</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>321</v>
+        <v>276</v>
       </c>
       <c r="F4" s="7" t="s">
-        <v>322</v>
+        <v>277</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>323</v>
+        <v>278</v>
       </c>
       <c r="H4" s="7">
-        <v>26</v>
+        <v>129</v>
       </c>
       <c r="I4" s="7">
-        <v>12438</v>
+        <v>64137</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>324</v>
+        <v>279</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>325</v>
+        <v>280</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>326</v>
+        <v>281</v>
       </c>
       <c r="M4" s="7">
-        <v>32</v>
+        <v>170</v>
       </c>
       <c r="N4" s="7">
-        <v>17841</v>
+        <v>97653</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>327</v>
+        <v>282</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>328</v>
+        <v>283</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>329</v>
+        <v>284</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5047,49 +4402,49 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>112</v>
+        <v>689</v>
       </c>
       <c r="D5" s="7">
-        <v>96579</v>
+        <v>601925</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>330</v>
+        <v>285</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>331</v>
+        <v>286</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>332</v>
+        <v>287</v>
       </c>
       <c r="H5" s="7">
-        <v>215</v>
+        <v>1108</v>
       </c>
       <c r="I5" s="7">
-        <v>117621</v>
+        <v>610992</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>333</v>
+        <v>288</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>334</v>
+        <v>289</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>335</v>
+        <v>290</v>
       </c>
       <c r="M5" s="7">
-        <v>327</v>
+        <v>1797</v>
       </c>
       <c r="N5" s="7">
-        <v>214200</v>
+        <v>1212918</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>336</v>
+        <v>291</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>337</v>
+        <v>292</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>338</v>
+        <v>293</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5098,10 +4453,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>118</v>
+        <v>730</v>
       </c>
       <c r="D6" s="7">
-        <v>101982</v>
+        <v>635441</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -5113,10 +4468,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>241</v>
+        <v>1237</v>
       </c>
       <c r="I6" s="7">
-        <v>130059</v>
+        <v>675129</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -5128,10 +4483,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>359</v>
+        <v>1967</v>
       </c>
       <c r="N6" s="7">
-        <v>232041</v>
+        <v>1310571</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -5151,49 +4506,49 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>35</v>
+        <v>61</v>
       </c>
       <c r="D7" s="7">
-        <v>30745</v>
+        <v>51141</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>339</v>
+        <v>294</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>340</v>
+        <v>295</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>341</v>
+        <v>296</v>
       </c>
       <c r="H7" s="7">
-        <v>103</v>
+        <v>166</v>
       </c>
       <c r="I7" s="7">
-        <v>58009</v>
+        <v>98373</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>342</v>
+        <v>297</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>292</v>
+        <v>298</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>343</v>
+        <v>299</v>
       </c>
       <c r="M7" s="7">
-        <v>138</v>
+        <v>227</v>
       </c>
       <c r="N7" s="7">
-        <v>88754</v>
+        <v>149514</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>344</v>
+        <v>300</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>345</v>
+        <v>301</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>346</v>
+        <v>302</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -5202,49 +4557,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>577</v>
+        <v>903</v>
       </c>
       <c r="D8" s="7">
-        <v>519078</v>
+        <v>1141723</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>347</v>
+        <v>303</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>348</v>
+        <v>304</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>349</v>
+        <v>305</v>
       </c>
       <c r="H8" s="7">
-        <v>893</v>
+        <v>1349</v>
       </c>
       <c r="I8" s="7">
-        <v>534953</v>
+        <v>859087</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>350</v>
+        <v>306</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>351</v>
+        <v>307</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="M8" s="7">
-        <v>1470</v>
+        <v>2252</v>
       </c>
       <c r="N8" s="7">
-        <v>1054031</v>
+        <v>2000810</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>352</v>
+        <v>309</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>353</v>
+        <v>310</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>354</v>
+        <v>311</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -5253,10 +4608,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>612</v>
+        <v>964</v>
       </c>
       <c r="D9" s="7">
-        <v>549823</v>
+        <v>1192864</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -5268,10 +4623,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>996</v>
+        <v>1515</v>
       </c>
       <c r="I9" s="7">
-        <v>592962</v>
+        <v>957460</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -5283,10 +4638,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>1608</v>
+        <v>2479</v>
       </c>
       <c r="N9" s="7">
-        <v>1142785</v>
+        <v>2150324</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -5300,55 +4655,55 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>61</v>
+        <v>53</v>
       </c>
       <c r="D10" s="7">
-        <v>54677</v>
+        <v>54414</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>355</v>
+        <v>312</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>356</v>
+        <v>313</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>357</v>
+        <v>314</v>
       </c>
       <c r="H10" s="7">
-        <v>166</v>
+        <v>118</v>
       </c>
       <c r="I10" s="7">
-        <v>109984</v>
+        <v>78934</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>131</v>
+        <v>315</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>261</v>
+        <v>316</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="M10" s="7">
-        <v>227</v>
+        <v>171</v>
       </c>
       <c r="N10" s="7">
-        <v>164661</v>
+        <v>133348</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>358</v>
+        <v>318</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>359</v>
+        <v>159</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>148</v>
+        <v>319</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -5357,49 +4712,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>903</v>
+        <v>623</v>
       </c>
       <c r="D11" s="7">
-        <v>984571</v>
+        <v>650266</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>360</v>
+        <v>320</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>361</v>
+        <v>321</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>362</v>
+        <v>322</v>
       </c>
       <c r="H11" s="7">
-        <v>1349</v>
+        <v>929</v>
       </c>
       <c r="I11" s="7">
-        <v>948770</v>
+        <v>854432</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>140</v>
+        <v>323</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>331</v>
+        <v>324</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>269</v>
+        <v>325</v>
       </c>
       <c r="M11" s="7">
-        <v>2252</v>
+        <v>1552</v>
       </c>
       <c r="N11" s="7">
-        <v>1933341</v>
+        <v>1504698</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>363</v>
+        <v>326</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>156</v>
+        <v>327</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>364</v>
+        <v>169</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -5408,10 +4763,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>964</v>
+        <v>676</v>
       </c>
       <c r="D12" s="7">
-        <v>1039248</v>
+        <v>704680</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -5423,10 +4778,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>1515</v>
+        <v>1047</v>
       </c>
       <c r="I12" s="7">
-        <v>1058754</v>
+        <v>933366</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -5438,10 +4793,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>2479</v>
+        <v>1723</v>
       </c>
       <c r="N12" s="7">
-        <v>2098002</v>
+        <v>1638046</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -5455,55 +4810,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>53</v>
+        <v>61</v>
       </c>
       <c r="D13" s="7">
-        <v>57521</v>
+        <v>48763</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>365</v>
+        <v>276</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>366</v>
+        <v>328</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>367</v>
+        <v>229</v>
       </c>
       <c r="H13" s="7">
-        <v>118</v>
+        <v>193</v>
       </c>
       <c r="I13" s="7">
-        <v>88346</v>
+        <v>123713</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>368</v>
+        <v>230</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>369</v>
+        <v>329</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>370</v>
+        <v>330</v>
       </c>
       <c r="M13" s="7">
-        <v>171</v>
+        <v>254</v>
       </c>
       <c r="N13" s="7">
-        <v>145867</v>
+        <v>172476</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>371</v>
+        <v>331</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>372</v>
+        <v>278</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>373</v>
+        <v>332</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -5512,49 +4867,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
-        <v>623</v>
+        <v>943</v>
       </c>
       <c r="D14" s="7">
-        <v>671251</v>
+        <v>876862</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>374</v>
+        <v>285</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>375</v>
+        <v>236</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>376</v>
+        <v>333</v>
       </c>
       <c r="H14" s="7">
-        <v>929</v>
+        <v>1368</v>
       </c>
       <c r="I14" s="7">
-        <v>786025</v>
+        <v>970659</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>377</v>
+        <v>238</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>378</v>
+        <v>334</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>379</v>
+        <v>335</v>
       </c>
       <c r="M14" s="7">
-        <v>1552</v>
+        <v>2311</v>
       </c>
       <c r="N14" s="7">
-        <v>1457275</v>
+        <v>1847521</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>380</v>
+        <v>336</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>381</v>
+        <v>337</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>382</v>
+        <v>286</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5563,10 +4918,10 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>676</v>
+        <v>1004</v>
       </c>
       <c r="D15" s="7">
-        <v>728772</v>
+        <v>925625</v>
       </c>
       <c r="E15" s="7" t="s">
         <v>30</v>
@@ -5578,10 +4933,10 @@
         <v>30</v>
       </c>
       <c r="H15" s="7">
-        <v>1047</v>
+        <v>1561</v>
       </c>
       <c r="I15" s="7">
-        <v>874371</v>
+        <v>1094372</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -5593,10 +4948,10 @@
         <v>30</v>
       </c>
       <c r="M15" s="7">
-        <v>1723</v>
+        <v>2565</v>
       </c>
       <c r="N15" s="7">
-        <v>1603142</v>
+        <v>2019997</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -5610,55 +4965,55 @@
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>88</v>
+        <v>3</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>61</v>
+        <v>216</v>
       </c>
       <c r="D16" s="7">
-        <v>50994</v>
+        <v>187834</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>383</v>
+        <v>338</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>384</v>
+        <v>294</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>385</v>
+        <v>339</v>
       </c>
       <c r="H16" s="7">
-        <v>193</v>
+        <v>606</v>
       </c>
       <c r="I16" s="7">
-        <v>141319</v>
+        <v>365157</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>386</v>
+        <v>340</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>387</v>
+        <v>341</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>388</v>
+        <v>342</v>
       </c>
       <c r="M16" s="7">
-        <v>254</v>
+        <v>822</v>
       </c>
       <c r="N16" s="7">
-        <v>192313</v>
+        <v>552991</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>371</v>
+        <v>343</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>389</v>
+        <v>344</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>390</v>
+        <v>345</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5667,49 +5022,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
-        <v>943</v>
+        <v>3158</v>
       </c>
       <c r="D17" s="7">
-        <v>913123</v>
+        <v>3270777</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>391</v>
+        <v>346</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>392</v>
+        <v>347</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>393</v>
+        <v>303</v>
       </c>
       <c r="H17" s="7">
-        <v>1368</v>
+        <v>4754</v>
       </c>
       <c r="I17" s="7">
-        <v>1008496</v>
+        <v>3295170</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>394</v>
+        <v>348</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>395</v>
+        <v>349</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>396</v>
+        <v>350</v>
       </c>
       <c r="M17" s="7">
-        <v>2311</v>
+        <v>7912</v>
       </c>
       <c r="N17" s="7">
-        <v>1921619</v>
+        <v>6565947</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>380</v>
+        <v>351</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>397</v>
+        <v>352</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>398</v>
+        <v>353</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5718,10 +5073,10 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
-        <v>1004</v>
+        <v>3374</v>
       </c>
       <c r="D18" s="7">
-        <v>964117</v>
+        <v>3458611</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>30</v>
@@ -5733,10 +5088,10 @@
         <v>30</v>
       </c>
       <c r="H18" s="7">
-        <v>1561</v>
+        <v>5360</v>
       </c>
       <c r="I18" s="7">
-        <v>1149815</v>
+        <v>3660327</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -5748,10 +5103,10 @@
         <v>30</v>
       </c>
       <c r="M18" s="7">
-        <v>2565</v>
+        <v>8734</v>
       </c>
       <c r="N18" s="7">
-        <v>2113932</v>
+        <v>7118938</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -5764,171 +5119,15 @@
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A19" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B19" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C19" s="7">
-        <v>216</v>
-      </c>
-      <c r="D19" s="7">
-        <v>199340</v>
-      </c>
-      <c r="E19" s="7" t="s">
-        <v>399</v>
-      </c>
-      <c r="F19" s="7" t="s">
-        <v>400</v>
-      </c>
-      <c r="G19" s="7" t="s">
-        <v>401</v>
-      </c>
-      <c r="H19" s="7">
-        <v>606</v>
-      </c>
-      <c r="I19" s="7">
-        <v>410097</v>
-      </c>
-      <c r="J19" s="7" t="s">
-        <v>402</v>
-      </c>
-      <c r="K19" s="7" t="s">
-        <v>403</v>
-      </c>
-      <c r="L19" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="M19" s="7">
-        <v>822</v>
-      </c>
-      <c r="N19" s="7">
-        <v>609436</v>
-      </c>
-      <c r="O19" s="7" t="s">
-        <v>248</v>
-      </c>
-      <c r="P19" s="7" t="s">
-        <v>404</v>
-      </c>
-      <c r="Q19" s="7" t="s">
-        <v>405</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="5" t="s">
-        <v>20</v>
-      </c>
-      <c r="C20" s="7">
-        <v>3158</v>
-      </c>
-      <c r="D20" s="7">
-        <v>3184602</v>
-      </c>
-      <c r="E20" s="7" t="s">
-        <v>406</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>407</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>408</v>
-      </c>
-      <c r="H20" s="7">
-        <v>4754</v>
-      </c>
-      <c r="I20" s="7">
-        <v>3395864</v>
-      </c>
-      <c r="J20" s="7" t="s">
-        <v>409</v>
-      </c>
-      <c r="K20" s="7" t="s">
-        <v>316</v>
-      </c>
-      <c r="L20" s="7" t="s">
-        <v>410</v>
-      </c>
-      <c r="M20" s="7">
-        <v>7912</v>
-      </c>
-      <c r="N20" s="7">
-        <v>6580466</v>
-      </c>
-      <c r="O20" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="P20" s="7" t="s">
-        <v>411</v>
-      </c>
-      <c r="Q20" s="7" t="s">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C21" s="7">
-        <v>3374</v>
-      </c>
-      <c r="D21" s="7">
-        <v>3383942</v>
-      </c>
-      <c r="E21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H21" s="7">
-        <v>5360</v>
-      </c>
-      <c r="I21" s="7">
-        <v>3805961</v>
-      </c>
-      <c r="J21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M21" s="7">
-        <v>8734</v>
-      </c>
-      <c r="N21" s="7">
-        <v>7189902</v>
-      </c>
-      <c r="O21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P21" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q21" s="7" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A22" t="s">
-        <v>123</v>
+      <c r="A19" t="s">
+        <v>102</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
     <mergeCell ref="A16:A18"/>
-    <mergeCell ref="A19:A21"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
